--- a/HoldingPlot1136.xlsx
+++ b/HoldingPlot1136.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Date</t>
+    <t>index</t>
   </si>
   <si>
     <t>Profit</t>
@@ -31,16 +31,19 @@
     <t>HoldProfit</t>
   </si>
   <si>
-    <t>ProfitFlag</t>
+    <t>riskfree</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>totalAsset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -93,12 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,4605 +420,5811 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>41940</v>
+      <c r="B2">
+        <v>937</v>
       </c>
       <c r="C2">
-        <v>-2515239.086930477</v>
+        <v>-8370387.092549875</v>
       </c>
       <c r="D2">
-        <v>-3317.170503750671</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E2">
-        <v>1035454.772745772</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F2">
-        <v>-129369.6496462762</v>
+        <v>19212.80112011592</v>
       </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>17489.71105582426</v>
+      </c>
+      <c r="H2">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I2">
+        <v>1230131.028989615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>41941</v>
+      <c r="B3">
+        <v>938</v>
       </c>
       <c r="C3">
-        <v>-2644608.736576753</v>
+        <v>-8351174.291429759</v>
       </c>
       <c r="D3">
-        <v>-5093.407621110234</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E3">
-        <v>1628871.757231053</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F3">
-        <v>-183362.6743599684</v>
+        <v>17734.89334164547</v>
       </c>
       <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>17571.8097298699</v>
+      </c>
+      <c r="H3">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I3">
+        <v>1247948.021005307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>41942</v>
+      <c r="B4">
+        <v>939</v>
       </c>
       <c r="C4">
-        <v>-2827229.938187317</v>
+        <v>-8333439.398088113</v>
       </c>
       <c r="D4">
-        <v>-4846.250037975674</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E4">
-        <v>1575273.574843993</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F4">
-        <v>24231.25018987837</v>
+        <v>-2463.179630784093</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>17653.77343516866</v>
+      </c>
+      <c r="H4">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I4">
+        <v>1245566.805079821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>41943</v>
+      <c r="B5">
+        <v>940</v>
       </c>
       <c r="C5">
-        <v>-2795259.117888089</v>
+        <v>-8335902.577718898</v>
       </c>
       <c r="D5">
-        <v>-2911.357510638168</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E5">
-        <v>950267.0914722979</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F5">
-        <v>-66961.22274467786</v>
+        <v>11330.62630160683</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>17736.35799670311</v>
+      </c>
+      <c r="H5">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I5">
+        <v>1256980.015942963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>41946</v>
+      <c r="B6">
+        <v>941</v>
       </c>
       <c r="C6">
-        <v>-2862140.22298107</v>
+        <v>-8324571.951417291</v>
       </c>
       <c r="D6">
-        <v>-2909.068434875398</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E6">
-        <v>964356.1861611943</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F6">
-        <v>-66908.57400213415</v>
+        <v>11330.62630160683</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>17819.56341447328</v>
+      </c>
+      <c r="H6">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I6">
+        <v>1268393.84766234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>41947</v>
+      <c r="B7">
+        <v>942</v>
       </c>
       <c r="C7">
-        <v>-2973012.444401024</v>
+        <v>-8313241.325115683</v>
       </c>
       <c r="D7">
-        <v>-161.3404712616025</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E7">
-        <v>53048.74695081491</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F7">
-        <v>968.0428275696152</v>
+        <v>-2955.815556940911</v>
       </c>
       <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>17902.60686974717</v>
+      </c>
+      <c r="H7">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I7">
+        <v>1265521.075560673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>41948</v>
+      <c r="B8">
+        <v>943</v>
       </c>
       <c r="C8">
-        <v>-2971560.38015967</v>
+        <v>-8316197.140672624</v>
       </c>
       <c r="D8">
-        <v>924.5463422277696</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E8">
-        <v>298859.6051251265</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F8">
-        <v>-27736.39026683309</v>
+        <v>-14779.07778470456</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>17984.8405125397</v>
+      </c>
+      <c r="H8">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I8">
+        <v>1250824.231418761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>41949</v>
+      <c r="B9">
+        <v>944</v>
       </c>
       <c r="C9">
-        <v>-2999296.770426503</v>
+        <v>-8330976.218457329</v>
       </c>
       <c r="D9">
-        <v>2395.267593256634</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E9">
-        <v>768880.8974353796</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F9">
-        <v>-100601.2389167786</v>
+        <v>-20690.70889858638</v>
       </c>
       <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>18065.94041785835</v>
+      </c>
+      <c r="H9">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I9">
+        <v>1230214.622425493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>41950</v>
+      <c r="B10">
+        <v>945</v>
       </c>
       <c r="C10">
-        <v>-3099898.009343281</v>
+        <v>-8351666.927355915</v>
       </c>
       <c r="D10">
-        <v>2447.559709049456</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E10">
-        <v>777222.5856086545</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F10">
-        <v>-117482.8660343739</v>
+        <v>-23646.52445552729</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>18145.74462320682</v>
+      </c>
+      <c r="H10">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I10">
+        <v>1206647.902175315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>41953</v>
+      <c r="B11">
+        <v>946</v>
       </c>
       <c r="C11">
-        <v>-3217380.875377655</v>
+        <v>-8375313.451811442</v>
       </c>
       <c r="D11">
-        <v>3907.179680723895</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E11">
-        <v>1234278.061140678</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F11">
-        <v>121122.5701024407</v>
+        <v>15271.71371086138</v>
       </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>18226.38563478603</v>
+      </c>
+      <c r="H11">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I11">
+        <v>1222000.256897755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>41954</v>
+      <c r="B12">
+        <v>947</v>
       </c>
       <c r="C12">
-        <v>-3098094.116492987</v>
+        <v>-8360041.738100581</v>
       </c>
       <c r="D12">
-        <v>3792.441479613111</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E12">
-        <v>1215098.250068041</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F12">
-        <v>128943.0103068458</v>
+        <v>16749.62148933183</v>
       </c>
       <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>18307.94443384411</v>
+      </c>
+      <c r="H12">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I12">
+        <v>1238831.437186145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>41955</v>
+      <c r="B13">
+        <v>948</v>
       </c>
       <c r="C13">
-        <v>-2921368.544340601</v>
+        <v>-8343292.116611249</v>
       </c>
       <c r="D13">
-        <v>2299.236421939992</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E13">
-        <v>741848.6315389385</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F13">
-        <v>-45984.72843879985</v>
+        <v>-9852.718523136371</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>18388.96335791461</v>
+      </c>
+      <c r="H13">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I13">
+        <v>1229059.73758708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>41956</v>
+      <c r="B14">
+        <v>949</v>
       </c>
       <c r="C14">
-        <v>-2993349.059557933</v>
+        <v>-8353144.835134385</v>
       </c>
       <c r="D14">
-        <v>1615.136769873364</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E14">
-        <v>511190.7876649196</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F14">
-        <v>-9690.820619240183</v>
+        <v>-2955.815556940911</v>
       </c>
       <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>18469.82031948885</v>
+      </c>
+      <c r="H14">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I14">
+        <v>1226184.778991713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>41957</v>
+      <c r="B15">
+        <v>950</v>
       </c>
       <c r="C15">
-        <v>-3007840.664649191</v>
+        <v>-8356100.650691326</v>
       </c>
       <c r="D15">
-        <v>1375.097546272464</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E15">
-        <v>432743.1978119445</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F15">
-        <v>-33002.34111053914</v>
+        <v>-11823.26222776364</v>
       </c>
       <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>18550.029431078</v>
+      </c>
+      <c r="H15">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I15">
+        <v>1214441.725875539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>41960</v>
+      <c r="B16">
+        <v>951</v>
       </c>
       <c r="C16">
-        <v>-3040843.00575973</v>
+        <v>-8367923.912919089</v>
       </c>
       <c r="D16">
-        <v>2917.58276222207</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E16">
-        <v>915975.108199619</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F16">
-        <v>46681.32419555313</v>
+        <v>7882.174818509096</v>
       </c>
       <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>18630.67044265721</v>
+      </c>
+      <c r="H16">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I16">
+        <v>1222404.541705627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>41961</v>
+      <c r="B17">
+        <v>952</v>
       </c>
       <c r="C17">
-        <v>-2999264.898559597</v>
+        <v>-8360041.73810058</v>
       </c>
       <c r="D17">
-        <v>2279.680637794605</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E17">
-        <v>723228.6823403384</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F17">
-        <v>54712.33530707052</v>
+        <v>11823.26222776364</v>
       </c>
       <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>18711.95930422151</v>
+      </c>
+      <c r="H17">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I17">
+        <v>1234309.092794955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>41962</v>
+      <c r="B18">
+        <v>953</v>
       </c>
       <c r="C18">
-        <v>-2944552.563252527</v>
+        <v>-8348218.475872817</v>
       </c>
       <c r="D18">
-        <v>2367.165347017415</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E18">
-        <v>756664.4031741166</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F18">
-        <v>7101.496041052244</v>
+        <v>1477.907778470455</v>
       </c>
       <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>18793.32914703393</v>
+      </c>
+      <c r="H18">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I18">
+        <v>1235868.370416238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>41963</v>
+      <c r="B19">
+        <v>954</v>
       </c>
       <c r="C19">
-        <v>-2990141.795055167</v>
+        <v>-8346740.568094346</v>
       </c>
       <c r="D19">
-        <v>1246.086031194167</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E19">
-        <v>394573.141777633</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F19">
-        <v>-22429.548561495</v>
+        <v>-8867.446670822734</v>
       </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>18874.21310235755</v>
+      </c>
+      <c r="H19">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I19">
+        <v>1227081.807700739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>41964</v>
+      <c r="B20">
+        <v>955</v>
       </c>
       <c r="C20">
-        <v>-3006212.314815178</v>
+        <v>-8355608.014765169</v>
       </c>
       <c r="D20">
-        <v>539.5272754737053</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E20">
-        <v>171084.0990527119</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F20">
-        <v>2697.636377368527</v>
+        <v>2463.179630784093</v>
       </c>
       <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>18955.23202642805</v>
+      </c>
+      <c r="H20">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I20">
+        <v>1229626.006255594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>41967</v>
+      <c r="B21">
+        <v>956</v>
       </c>
       <c r="C21">
-        <v>-3003514.678437809</v>
+        <v>-8353144.835134384</v>
       </c>
       <c r="D21">
-        <v>1913.645468810467</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E21">
-        <v>604520.6035972266</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F21">
-        <v>-61236.65500193495</v>
+        <v>-15764.34963701819</v>
       </c>
       <c r="G21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>19035.38715051845</v>
+      </c>
+      <c r="H21">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I21">
+        <v>1213941.811742666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>41968</v>
+      <c r="B22">
+        <v>957</v>
       </c>
       <c r="C22">
-        <v>-3097407.728627784</v>
+        <v>-8368909.184771403</v>
       </c>
       <c r="D22">
-        <v>1260.517565049683</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E22">
-        <v>394983.1790083183</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F22">
-        <v>7563.1053902981</v>
+        <v>2955.815556940911</v>
       </c>
       <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>19115.70423710512</v>
+      </c>
+      <c r="H22">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I22">
+        <v>1216977.944386193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>41969</v>
+      <c r="B23">
+        <v>958</v>
       </c>
       <c r="C23">
-        <v>-3089844.623237486</v>
+        <v>-8365953.369214462</v>
       </c>
       <c r="D23">
-        <v>1825.426539257389</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E23">
-        <v>576104.615789632</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F23">
-        <v>38333.95732440517</v>
+        <v>10345.35444929319</v>
       </c>
       <c r="G23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>19196.58819242873</v>
+      </c>
+      <c r="H23">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I23">
+        <v>1227404.18279081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>41970</v>
+      <c r="B24">
+        <v>959</v>
       </c>
       <c r="C24">
-        <v>-3090313.25386502</v>
+        <v>-8355608.014765169</v>
       </c>
       <c r="D24">
-        <v>879.0219550637319</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E24">
-        <v>276496.3559652969</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F24">
-        <v>-28128.70256203942</v>
+        <v>-15764.34963701819</v>
       </c>
       <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>19276.60834777223</v>
+      </c>
+      <c r="H24">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I24">
+        <v>1211719.853309135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>41971</v>
+      <c r="B25">
+        <v>960</v>
       </c>
       <c r="C25">
-        <v>-3118441.95642706</v>
+        <v>-8371372.364402187</v>
       </c>
       <c r="D25">
-        <v>1412.582377793749</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E25">
-        <v>432250.2076048873</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F25">
-        <v>-5650.329511174998</v>
+        <v>-1970.543704627274</v>
       </c>
       <c r="G25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>19356.52052811822</v>
+      </c>
+      <c r="H25">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I25">
+        <v>1209829.221784854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>41974</v>
+      <c r="B26">
+        <v>961</v>
       </c>
       <c r="C26">
-        <v>-3204692.538506344</v>
+        <v>-8373342.908106814</v>
       </c>
       <c r="D26">
-        <v>555.1328823883284</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E26">
-        <v>165873.7052576325</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F26">
-        <v>-7216.72747104827</v>
+        <v>-6404.267040038641</v>
       </c>
       <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>19436.0817897223</v>
+      </c>
+      <c r="H26">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I26">
+        <v>1203504.51600642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>41975</v>
+      <c r="B27">
+        <v>962</v>
       </c>
       <c r="C27">
-        <v>-3209667.307941495</v>
+        <v>-8379747.175146853</v>
       </c>
       <c r="D27">
-        <v>501.7529291526665</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E27">
-        <v>151127.9822607831</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F27">
-        <v>1003.505858305333</v>
+        <v>985.2718523136371</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>19515.69703882512</v>
+      </c>
+      <c r="H27">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I27">
+        <v>1204569.403107836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>41976</v>
+      <c r="B28">
+        <v>963</v>
       </c>
       <c r="C28">
-        <v>-3217283.682164997</v>
+        <v>-8378761.903294539</v>
       </c>
       <c r="D28">
-        <v>126.9755342914547</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E28">
-        <v>38892.60615347258</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F28">
-        <v>8126.434194653102</v>
+        <v>31528.69927403639</v>
       </c>
       <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>19597.03988788817</v>
+      </c>
+      <c r="H28">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I28">
+        <v>1236179.445230935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>41977</v>
+      <c r="B29">
+        <v>964</v>
       </c>
       <c r="C29">
-        <v>-3198745.254158444</v>
+        <v>-8347233.204020503</v>
       </c>
       <c r="D29">
-        <v>-2166.568134539286</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E29">
-        <v>665244.7457102878</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F29">
-        <v>21665.68134539286</v>
+        <v>-4926.359261568186</v>
       </c>
       <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>19678.11279945743</v>
+      </c>
+      <c r="H29">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I29">
+        <v>1231334.158880936</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>41978</v>
+      <c r="B30">
+        <v>965</v>
       </c>
       <c r="C30">
-        <v>-3210565.338954034</v>
+        <v>-8352159.563282072</v>
       </c>
       <c r="D30">
-        <v>-1050.375929839875</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E30">
-        <v>321099.9217520498</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F30">
-        <v>-2100.75185967975</v>
+        <v>985.2718523136371</v>
       </c>
       <c r="G30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>19759.23969852546</v>
+      </c>
+      <c r="H30">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I30">
+        <v>1232400.557632318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>41981</v>
+      <c r="B31">
+        <v>966</v>
       </c>
       <c r="C31">
-        <v>-3212666.090813714</v>
+        <v>-8351174.291429758</v>
       </c>
       <c r="D31">
-        <v>-2021.691535997325</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E31">
-        <v>626218.9532751713</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F31">
-        <v>48520.5968639358</v>
+        <v>-11823.26222776364</v>
       </c>
       <c r="G31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>19839.71874760839</v>
+      </c>
+      <c r="H31">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I31">
+        <v>1220657.774453637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>41982</v>
+      <c r="B32">
+        <v>967</v>
       </c>
       <c r="C32">
-        <v>-3242480.159093157</v>
+        <v>-8362997.553657521</v>
       </c>
       <c r="D32">
-        <v>-1066.390741565872</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E32">
-        <v>324875.9394180428</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F32">
-        <v>30925.33150541028</v>
+        <v>-14286.44185854774</v>
       </c>
       <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>19919.41497795936</v>
+      </c>
+      <c r="H32">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I32">
+        <v>1206451.02882544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>41983</v>
+      <c r="B33">
+        <v>968</v>
       </c>
       <c r="C33">
-        <v>-3211554.827587747</v>
+        <v>-8377283.995516069</v>
       </c>
       <c r="D33">
-        <v>-1674.808445103841</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E33">
-        <v>512742.6054685409</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F33">
-        <v>-48569.4449080114</v>
+        <v>14286.44185854774</v>
       </c>
       <c r="G33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>19999.89402704229</v>
+      </c>
+      <c r="H33">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I33">
+        <v>1220817.949733071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>41984</v>
+      <c r="B34">
+        <v>969</v>
       </c>
       <c r="C34">
-        <v>-3281354.260250228</v>
+        <v>-8362997.553657521</v>
       </c>
       <c r="D34">
-        <v>-916.5945967299167</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E34">
-        <v>283090.2412000347</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F34">
-        <v>-28414.43249862742</v>
+        <v>15271.71371086138</v>
       </c>
       <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>20081.20988235596</v>
+      </c>
+      <c r="H34">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I34">
+        <v>1236170.979299246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>41985</v>
+      <c r="B35">
+        <v>970</v>
       </c>
       <c r="C35">
-        <v>-3309768.692748855</v>
+        <v>-8347725.83994666</v>
       </c>
       <c r="D35">
-        <v>-1238.127574013786</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E35">
-        <v>386110.0839561993</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F35">
-        <v>32191.31692435845</v>
+        <v>-12808.53408007728</v>
       </c>
       <c r="G35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>20161.82390018579</v>
+      </c>
+      <c r="H35">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I35">
+        <v>1223443.059236999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>41988</v>
+      <c r="B36">
+        <v>971</v>
       </c>
       <c r="C36">
-        <v>-3307920.557522514</v>
+        <v>-8360534.374026737</v>
       </c>
       <c r="D36">
-        <v>-764.015359982268</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E36">
-        <v>234820.1208905501</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F36">
-        <v>13752.27647968082</v>
+        <v>-8867.446670822734</v>
       </c>
       <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>20241.95203052681</v>
+      </c>
+      <c r="H36">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I36">
+        <v>1214655.740696517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>41989</v>
+      <c r="B37">
+        <v>972</v>
       </c>
       <c r="C37">
-        <v>-3313202.230842493</v>
+        <v>-8369401.82069756</v>
       </c>
       <c r="D37">
-        <v>-310.8260790379922</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E37">
-        <v>93714.06282995464</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F37">
-        <v>8703.130213063781</v>
+        <v>-13793.80593239092</v>
       </c>
       <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>20321.32433588523</v>
+      </c>
+      <c r="H37">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I37">
+        <v>1200941.307069485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>41990</v>
+      <c r="B38">
+        <v>973</v>
       </c>
       <c r="C38">
-        <v>-3305322.946146114</v>
+        <v>-8383195.62662995</v>
       </c>
       <c r="D38">
-        <v>-235.93103206661</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E38">
-        <v>70602.36134593304</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F38">
-        <v>-4954.551673398811</v>
+        <v>10345.35444929319</v>
       </c>
       <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>20401.2635099806</v>
+      </c>
+      <c r="H38">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I38">
+        <v>1211366.600692874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
-        <v>41991</v>
+      <c r="B39">
+        <v>974</v>
       </c>
       <c r="C39">
-        <v>-3303057.206748937</v>
+        <v>-8372850.272180657</v>
       </c>
       <c r="D39">
-        <v>-10.29693611112152</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E39">
-        <v>3123.060722503156</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F39">
-        <v>-82.37548888897214</v>
+        <v>3941.087409254548</v>
       </c>
       <c r="G39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>20481.418634071</v>
+      </c>
+      <c r="H39">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I39">
+        <v>1215387.843226218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
-        <v>41992</v>
+      <c r="B40">
+        <v>975</v>
       </c>
       <c r="C40">
-        <v>-3303139.582237826</v>
+        <v>-8368909.184771403</v>
       </c>
       <c r="D40">
-        <v>-415.9344635718106</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E40">
-        <v>125591.4112755082</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F40">
-        <v>-7070.88588072078</v>
+        <v>8374.810744665914</v>
       </c>
       <c r="G40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>20562.03265190083</v>
+      </c>
+      <c r="H40">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I40">
+        <v>1223843.267988714</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
-        <v>41995</v>
+      <c r="B41">
+        <v>976</v>
       </c>
       <c r="C41">
-        <v>-3310735.147568468</v>
+        <v>-8360534.374026737</v>
       </c>
       <c r="D41">
-        <v>-153.5947386116164</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E41">
-        <v>46838.71553961242</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F41">
-        <v>-460.7842158348492</v>
+        <v>1477.907778470455</v>
       </c>
       <c r="G41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>20642.7276509788</v>
+      </c>
+      <c r="H41">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I41">
+        <v>1225401.870766263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>41996</v>
+      <c r="B42">
+        <v>977</v>
       </c>
       <c r="C42">
-        <v>-3311195.931784302</v>
+        <v>-8359056.466248266</v>
       </c>
       <c r="D42">
-        <v>-510.4941309714585</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E42">
-        <v>158814.7241452207</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F42">
-        <v>-21951.24763177272</v>
+        <v>21183.3448247432</v>
       </c>
       <c r="G42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>20724.58338128003</v>
+      </c>
+      <c r="H42">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I42">
+        <v>1246667.071321307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
-        <v>41997</v>
+      <c r="B43">
+        <v>978</v>
       </c>
       <c r="C43">
-        <v>-3335007.097283534</v>
+        <v>-8337873.121423523</v>
       </c>
       <c r="D43">
-        <v>-278.0043975391068</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E43">
-        <v>87446.28324592604</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F43">
-        <v>-1390.021987695534</v>
+        <v>2463.179630784093</v>
       </c>
       <c r="G43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>20806.57408032817</v>
+      </c>
+      <c r="H43">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I43">
+        <v>1249212.24165114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
-        <v>41999</v>
+      <c r="B44">
+        <v>979</v>
       </c>
       <c r="C44">
-        <v>-3336397.11927123</v>
+        <v>-8335409.941792739</v>
       </c>
       <c r="D44">
-        <v>-569.1375010812949</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E44">
-        <v>180217.389717392</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F44">
-        <v>-27887.73755298345</v>
+        <v>24139.16038168411</v>
       </c>
       <c r="G44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>20889.88747309584</v>
+      </c>
+      <c r="H44">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I44">
+        <v>1273434.715425591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
-        <v>42002</v>
+      <c r="B45">
+        <v>980</v>
       </c>
       <c r="C45">
-        <v>-3352495.246164819</v>
+        <v>-8311270.781411055</v>
       </c>
       <c r="D45">
-        <v>-188.8274798105091</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E45">
-        <v>61378.37231240597</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F45">
-        <v>1510.619838484072</v>
+        <v>-3941.087409254548</v>
       </c>
       <c r="G45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>20972.98491586849</v>
+      </c>
+      <c r="H45">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I45">
+        <v>1269576.72545911</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>42003</v>
+      <c r="B46">
+        <v>981</v>
       </c>
       <c r="C46">
-        <v>-3350984.626326335</v>
+        <v>-8315211.868820309</v>
       </c>
       <c r="D46">
-        <v>-1071.894682197365</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E46">
-        <v>347937.0138412645</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F46">
-        <v>17150.31491515783</v>
+        <v>-7882.174818509096</v>
       </c>
       <c r="G46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>21055.65045865108</v>
+      </c>
+      <c r="H46">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I46">
+        <v>1261777.216183383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
-        <v>42004</v>
+      <c r="B47">
+        <v>982</v>
       </c>
       <c r="C47">
-        <v>-3334010.516503165</v>
+        <v>-8323094.043638818</v>
       </c>
       <c r="D47">
-        <v>-1067.890021015805</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E47">
-        <v>343913.9812681399</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F47">
-        <v>10678.90021015805</v>
+        <v>-4926.359261568186</v>
       </c>
       <c r="G47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>21138.04606393989</v>
+      </c>
+      <c r="H47">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I47">
+        <v>1256933.252527103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
-        <v>42006</v>
+      <c r="B48">
+        <v>983</v>
       </c>
       <c r="C48">
-        <v>-3323331.616293008</v>
+        <v>-8328020.402900387</v>
       </c>
       <c r="D48">
-        <v>-1356.453226456606</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E48">
-        <v>436235.3576284444</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F48">
-        <v>-51545.22260535101</v>
+        <v>18720.1651939591</v>
       </c>
       <c r="G48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>21221.46743170508</v>
+      </c>
+      <c r="H48">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I48">
+        <v>1275736.839088828</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
-        <v>42009</v>
+      <c r="B49">
+        <v>984</v>
       </c>
       <c r="C49">
-        <v>-3405247.6469997</v>
+        <v>-8309300.237706427</v>
       </c>
       <c r="D49">
-        <v>-35.98330900698289</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E49">
-        <v>11637.00213285827</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F49">
-        <v>683.682871132675</v>
+        <v>-9360.082596979551</v>
       </c>
       <c r="G49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>21304.37591823208</v>
+      </c>
+      <c r="H49">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I49">
+        <v>1266459.664978376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
-        <v>42010</v>
+      <c r="B50">
+        <v>985</v>
       </c>
       <c r="C50">
-        <v>-3406291.162960902</v>
+        <v>-8318660.320303407</v>
       </c>
       <c r="D50">
-        <v>448.9782292754663</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E50">
-        <v>146075.066894773</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F50">
-        <v>4040.804063479197</v>
+        <v>4433.723335411367</v>
       </c>
       <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>21387.52734850348</v>
+      </c>
+      <c r="H50">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I50">
+        <v>1270976.539744058</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>42011</v>
+      <c r="B51">
+        <v>986</v>
       </c>
       <c r="C51">
-        <v>-3406402.664385124</v>
+        <v>-8314226.596967995</v>
       </c>
       <c r="D51">
-        <v>241.3629548903723</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E51">
-        <v>79432.54845442153</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F51">
-        <v>9654.518195614894</v>
+        <v>19705.43704627274</v>
       </c>
       <c r="G51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>21471.75852875003</v>
+      </c>
+      <c r="H51">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I51">
+        <v>1290766.207970578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
-        <v>42012</v>
+      <c r="B52">
+        <v>987</v>
       </c>
       <c r="C52">
-        <v>-3388190.047931405</v>
+        <v>-8294521.159921722</v>
       </c>
       <c r="D52">
-        <v>32.6288510341601</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E52">
-        <v>10953.50529216755</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F52">
-        <v>1109.380935161443</v>
+        <v>16749.62148933183</v>
       </c>
       <c r="G52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>21556.90749647544</v>
+      </c>
+      <c r="H52">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I52">
+        <v>1307600.978427635</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
-        <v>42013</v>
+      <c r="B53">
+        <v>988</v>
       </c>
       <c r="C53">
-        <v>-3387080.666996243</v>
+        <v>-8277771.53843239</v>
       </c>
       <c r="D53">
-        <v>150.7233197255597</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E53">
-        <v>50688.25242370573</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F53">
-        <v>-3617.359673413433</v>
+        <v>-11823.26222776364</v>
       </c>
       <c r="G53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>21641.40861421577</v>
+      </c>
+      <c r="H53">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I53">
+        <v>1295862.217317612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
-        <v>42016</v>
+      <c r="B54">
+        <v>989</v>
       </c>
       <c r="C54">
-        <v>-3390698.026669657</v>
+        <v>-8289594.800660154</v>
       </c>
       <c r="D54">
-        <v>528.7603084861737</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E54">
-        <v>176949.637234898</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F54">
-        <v>5287.603084861737</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>21726.17966944988</v>
+      </c>
+      <c r="H54">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I54">
+        <v>1300873.347634415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
-        <v>42017</v>
+      <c r="B55">
+        <v>990</v>
       </c>
       <c r="C55">
-        <v>-3385410.423584795</v>
+        <v>-8284668.441398585</v>
       </c>
       <c r="D55">
-        <v>980.422251114004</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E55">
-        <v>327951.2429976343</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F55">
-        <v>24510.5562778501</v>
+        <v>12315.89815392046</v>
       </c>
       <c r="G55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>21811.62556841845</v>
+      </c>
+      <c r="H55">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I55">
+        <v>1313274.691687304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
-        <v>42018</v>
+      <c r="B56">
+        <v>991</v>
       </c>
       <c r="C56">
-        <v>-3360899.867306945</v>
+        <v>-8272352.543244665</v>
       </c>
       <c r="D56">
-        <v>2203.078164104072</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E56">
-        <v>728337.6410528063</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F56">
-        <v>-8812.312656416289</v>
+        <v>-1970.543704627274</v>
       </c>
       <c r="G56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>21896.96349238951</v>
+      </c>
+      <c r="H56">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I56">
+        <v>1311389.485906648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
-        <v>42019</v>
+      <c r="B57">
+        <v>992</v>
       </c>
       <c r="C57">
-        <v>-3369712.179963361</v>
+        <v>-8274323.086949292</v>
       </c>
       <c r="D57">
-        <v>2517.305334094762</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E57">
-        <v>846569.7838560685</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F57">
-        <v>25173.05334094762</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>21982.57135385436</v>
+      </c>
+      <c r="H57">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I57">
+        <v>1316401.453029681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
-        <v>42020</v>
+      <c r="B58">
+        <v>993</v>
       </c>
       <c r="C58">
-        <v>-3344539.126622413</v>
+        <v>-8269396.727687723</v>
       </c>
       <c r="D58">
-        <v>3638.182915626877</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E58">
-        <v>1214789.275527814</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F58">
-        <v>-123698.2191313138</v>
+        <v>-16749.62148933183</v>
       </c>
       <c r="G58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>22067.26142784033</v>
+      </c>
+      <c r="H58">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I58">
+        <v>1299736.521614335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
-        <v>42023</v>
+      <c r="B59">
+        <v>994</v>
       </c>
       <c r="C59">
-        <v>-3468237.345753727</v>
+        <v>-8286146.349177055</v>
       </c>
       <c r="D59">
-        <v>3707.307731141707</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E59">
-        <v>1228972.512873476</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F59">
-        <v>-44487.69277370049</v>
+        <v>-5911.631113881822</v>
       </c>
       <c r="G59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>22151.62757683377</v>
+      </c>
+      <c r="H59">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I59">
+        <v>1293909.256649447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
-        <v>42024</v>
+      <c r="B60">
+        <v>995</v>
       </c>
       <c r="C60">
-        <v>-3523145.396763521</v>
+        <v>-8292057.980290937</v>
       </c>
       <c r="D60">
-        <v>3425.676427463506</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E60">
-        <v>1140750.250345347</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F60">
-        <v>61662.17569434311</v>
+        <v>8867.446670822734</v>
       </c>
       <c r="G60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>22236.47961331602</v>
+      </c>
+      <c r="H60">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I60">
+        <v>1302861.555356752</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
-        <v>42025</v>
+      <c r="B61">
+        <v>996</v>
       </c>
       <c r="C61">
-        <v>-3461957.588000129</v>
+        <v>-8283190.533620114</v>
       </c>
       <c r="D61">
-        <v>3397.772490348756</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E61">
-        <v>1129419.575791927</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F61">
-        <v>-169888.6245174378</v>
+        <v>-24631.79630784093</v>
       </c>
       <c r="G61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>22319.98196232934</v>
+      </c>
+      <c r="H61">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I61">
+        <v>1278313.261397924</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
-        <v>42026</v>
+      <c r="B62">
+        <v>997</v>
       </c>
       <c r="C62">
-        <v>-3631846.212517567</v>
+        <v>-8307822.329927956</v>
       </c>
       <c r="D62">
-        <v>3416.129024904473</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E62">
-        <v>1110412.739545199</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F62">
-        <v>-109316.1287969431</v>
+        <v>-15764.34963701819</v>
       </c>
       <c r="G62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>22402.62051136255</v>
+      </c>
+      <c r="H62">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I62">
+        <v>1262631.550309938</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
-        <v>42027</v>
+      <c r="B63">
+        <v>998</v>
       </c>
       <c r="C63">
-        <v>-3772287.521884986</v>
+        <v>-8323586.679564974</v>
       </c>
       <c r="D63">
-        <v>2870.073225422432</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E63">
-        <v>916127.3735548402</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F63">
-        <v>-25830.65902880189</v>
+        <v>-4433.723335411367</v>
       </c>
       <c r="G63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>22485.01611665136</v>
+      </c>
+      <c r="H63">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I63">
+        <v>1258280.222579816</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
-        <v>42030</v>
+      <c r="B64">
+        <v>999</v>
       </c>
       <c r="C64">
-        <v>-3804381.894254189</v>
+        <v>-8328020.402900386</v>
       </c>
       <c r="D64">
-        <v>2749.617199645489</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E64">
-        <v>873553.3843273717</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F64">
-        <v>-123732.773984047</v>
+        <v>-22168.61667705683</v>
       </c>
       <c r="G64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>22566.19700321814</v>
+      </c>
+      <c r="H64">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I64">
+        <v>1236192.786789326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
-        <v>42031</v>
+      <c r="B65">
+        <v>1000</v>
       </c>
       <c r="C65">
-        <v>-3931178.607901194</v>
+        <v>-8350189.019577443</v>
       </c>
       <c r="D65">
-        <v>2588.357217384601</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E65">
-        <v>802908.408832703</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F65">
-        <v>20706.8577390768</v>
+        <v>3941.087409254548</v>
       </c>
       <c r="G65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>22647.59383977995</v>
+      </c>
+      <c r="H65">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I65">
+        <v>1240215.271035142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
-        <v>42032</v>
+      <c r="B66">
+        <v>1001</v>
       </c>
       <c r="C66">
-        <v>-3897783.24883308</v>
+        <v>-8346247.932168189</v>
       </c>
       <c r="D66">
-        <v>1530.982106631581</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E66">
-        <v>483177.9528529271</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F66">
-        <v>65832.230585158</v>
+        <v>21183.3448247432</v>
       </c>
       <c r="G66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>22730.15140756503</v>
+      </c>
+      <c r="H66">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I66">
+        <v>1261481.17342767</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
-        <v>42033</v>
+      <c r="B67">
+        <v>1002</v>
       </c>
       <c r="C67">
-        <v>-3831951.018247922</v>
+        <v>-8325064.587343445</v>
       </c>
       <c r="D67">
-        <v>2009.736392119953</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E67">
-        <v>623721.6892944273</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F67">
-        <v>-98477.08321387769</v>
+        <v>-24139.16038168411</v>
       </c>
       <c r="G67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>22811.38628163056</v>
+      </c>
+      <c r="H67">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I67">
+        <v>1237423.247920051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
-        <v>42034</v>
+      <c r="B68">
+        <v>1003</v>
       </c>
       <c r="C68">
-        <v>-3936207.167336557</v>
+        <v>-8349203.747725129</v>
       </c>
       <c r="D68">
-        <v>1932.68218045653</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E68">
-        <v>590820.942565561</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F68">
-        <v>48317.05451141324</v>
+        <v>12315.89815392046</v>
       </c>
       <c r="G68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>22893.29599943056</v>
+      </c>
+      <c r="H68">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I68">
+        <v>1249821.055791772</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
-        <v>42039</v>
+      <c r="B69">
+        <v>1004</v>
       </c>
       <c r="C69">
-        <v>-3884112.225894736</v>
+        <v>-8336887.849571208</v>
       </c>
       <c r="D69">
-        <v>1862.721311374906</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E69">
-        <v>584242.5393127392</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F69">
-        <v>24215.37704787378</v>
+        <v>6404.267040038641</v>
       </c>
       <c r="G69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>22975.55663597248</v>
+      </c>
+      <c r="H69">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I69">
+        <v>1256307.583468353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
-        <v>42040</v>
+      <c r="B70">
+        <v>1005</v>
       </c>
       <c r="C70">
-        <v>-3844154.348501585</v>
+        <v>-8330483.58253117</v>
       </c>
       <c r="D70">
-        <v>1469.15880274296</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E70">
-        <v>486144.6478276455</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F70">
-        <v>168953.2623154404</v>
+        <v>56653.13150803413</v>
       </c>
       <c r="G70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>23060.92155369292</v>
+      </c>
+      <c r="H70">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I70">
+        <v>1313046.079894107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
-        <v>42041</v>
+      <c r="B71">
+        <v>1006</v>
       </c>
       <c r="C71">
-        <v>-3641245.939523763</v>
+        <v>-8273830.451023136</v>
       </c>
       <c r="D71">
-        <v>1087.640300918453</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E71">
-        <v>365283.9950634625</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F71">
-        <v>27191.00752296132</v>
+        <v>12315.89815392046</v>
       </c>
       <c r="G71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>23146.96131514782</v>
+      </c>
+      <c r="H71">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I71">
+        <v>1325448.017809482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
-        <v>42044</v>
+      <c r="B72">
+        <v>1007</v>
       </c>
       <c r="C72">
-        <v>-3535744.830334674</v>
+        <v>-8261514.552869216</v>
       </c>
       <c r="D72">
-        <v>-1303.985355386256</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E72">
-        <v>439899.4596395533</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F72">
-        <v>28687.67781849762</v>
+        <v>-10837.99037545001</v>
       </c>
       <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>23232.40721411639</v>
+      </c>
+      <c r="H72">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I72">
+        <v>1314695.473333001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
-        <v>42045</v>
+      <c r="B73">
+        <v>1008</v>
       </c>
       <c r="C73">
-        <v>-3514477.457679431</v>
+        <v>-8272352.543244665</v>
       </c>
       <c r="D73">
-        <v>-1178.217471263284</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E73">
-        <v>395527.6051030845</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F73">
-        <v>42415.82896547823</v>
+        <v>-17734.89334164547</v>
       </c>
       <c r="G73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>23316.88133810734</v>
+      </c>
+      <c r="H73">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I73">
+        <v>1297045.054115346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
-        <v>42046</v>
+      <c r="B74">
+        <v>1009</v>
       </c>
       <c r="C74">
-        <v>-3477299.443441472</v>
+        <v>-8290087.436586311</v>
       </c>
       <c r="D74">
-        <v>-940.1349836488224</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E74">
-        <v>311654.7470795846</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F74">
-        <v>12221.75478743469</v>
+        <v>-6404.267040038641</v>
       </c>
       <c r="G74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>23401.00454335637</v>
+      </c>
+      <c r="H74">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I74">
+        <v>1290724.910280557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
-        <v>42047</v>
+      <c r="B75">
+        <v>1010</v>
       </c>
       <c r="C75">
-        <v>-3497982.413081746</v>
+        <v>-8296491.70362635</v>
       </c>
       <c r="D75">
-        <v>2847.939586489038</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E75">
-        <v>941101.6363553026</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>23485.1277486054</v>
+      </c>
+      <c r="H75">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I75">
+        <v>1290809.033485806</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
-        <v>42048</v>
+      <c r="B76">
+        <v>1011</v>
       </c>
       <c r="C76">
-        <v>-3497982.413081746</v>
+        <v>-8296491.70362635</v>
       </c>
       <c r="D76">
-        <v>2995.594158609893</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E76">
-        <v>993938.1418267626</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F76">
-        <v>-65903.07148941765</v>
+        <v>-10837.99037545001</v>
       </c>
       <c r="G76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>23568.6570913681</v>
+      </c>
+      <c r="H76">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I76">
+        <v>1280054.572453119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
-        <v>42051</v>
+      <c r="B77">
+        <v>1012</v>
       </c>
       <c r="C77">
-        <v>-3580738.145488388</v>
+        <v>-8307329.694001799</v>
       </c>
       <c r="D77">
-        <v>1310.3280668874</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E77">
-        <v>437125.4431136367</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F77">
-        <v>17034.2648695362</v>
+        <v>6404.267040038641</v>
       </c>
       <c r="G77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>23652.53735287273</v>
+      </c>
+      <c r="H77">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I77">
+        <v>1286542.719754662</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
-        <v>42052</v>
+      <c r="B78">
+        <v>1013</v>
       </c>
       <c r="C78">
-        <v>-3573648.437488046</v>
+        <v>-8300925.426961761</v>
       </c>
       <c r="D78">
-        <v>647.3576089411411</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E78">
-        <v>215375.8764947176</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F78">
-        <v>-9710.364134117115</v>
+        <v>-7389.538892352278</v>
       </c>
       <c r="G78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>23736.01270813667</v>
+      </c>
+      <c r="H78">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I78">
+        <v>1279236.656217574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
-        <v>42053</v>
+      <c r="B79">
+        <v>1014</v>
       </c>
       <c r="C79">
-        <v>-3582237.421175188</v>
+        <v>-8308314.965854113</v>
       </c>
       <c r="D79">
-        <v>423.0815195462261</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E79">
-        <v>140568.8348692336</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F79">
-        <v>4230.815195462261</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>23819.7580008944</v>
+      </c>
+      <c r="H79">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I79">
+        <v>1284246.7607719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
-        <v>42058</v>
+      <c r="B80">
+        <v>1015</v>
       </c>
       <c r="C80">
-        <v>-3578006.605979726</v>
+        <v>-8303388.606592544</v>
       </c>
       <c r="D80">
-        <v>899.7542749387218</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E80">
-        <v>296109.1318823333</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F80">
-        <v>-45887.46802187481</v>
+        <v>-25124.43223399774</v>
       </c>
       <c r="G80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>23902.12661243383</v>
+      </c>
+      <c r="H80">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I80">
+        <v>1259204.697149442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
-        <v>42059</v>
+      <c r="B81">
+        <v>1016</v>
       </c>
       <c r="C81">
-        <v>-3626091.710482323</v>
+        <v>-8328513.038826542</v>
       </c>
       <c r="D81">
-        <v>870.4524551957542</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E81">
-        <v>282287.7312199831</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F81">
-        <v>24372.66874548112</v>
+        <v>13793.80593239092</v>
       </c>
       <c r="G81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>23985.25104895586</v>
+      </c>
+      <c r="H81">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I81">
+        <v>1273081.627518354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
-        <v>42060</v>
+      <c r="B82">
+        <v>1017</v>
       </c>
       <c r="C82">
-        <v>-3601719.041736842</v>
+        <v>-8314719.232894151</v>
       </c>
       <c r="D82">
-        <v>1484.692581386075</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E82">
-        <v>485271.7702260386</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F82">
-        <v>-10392.84806970253</v>
+        <v>-3448.45148309773</v>
       </c>
       <c r="G82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>24068.18652923224</v>
+      </c>
+      <c r="H82">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I82">
+        <v>1269716.111515533</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
-        <v>42061</v>
+      <c r="B83">
+        <v>1018</v>
       </c>
       <c r="C83">
-        <v>-3634556.635922505</v>
+        <v>-8318167.684377249</v>
       </c>
       <c r="D83">
-        <v>362.4552755880724</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E83">
-        <v>118903.4531566672</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F83">
-        <v>5799.284409409159</v>
+        <v>7882.174818509096</v>
       </c>
       <c r="G83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>24151.55390949867</v>
+      </c>
+      <c r="H83">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I83">
+        <v>1277681.653714309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
-        <v>42062</v>
+      <c r="B84">
+        <v>1019</v>
       </c>
       <c r="C84">
-        <v>-3628757.351513096</v>
+        <v>-8310285.50955874</v>
       </c>
       <c r="D84">
-        <v>540.8934956046834</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E84">
-        <v>180442.0701337224</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F84">
-        <v>14604.12438132645</v>
+        <v>13301.1700062341</v>
       </c>
       <c r="G84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>24235.65012099832</v>
+      </c>
+      <c r="H84">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I84">
+        <v>1291066.919932042</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
-        <v>42065</v>
+      <c r="B85">
+        <v>1020</v>
       </c>
       <c r="C85">
-        <v>-3582781.404386697</v>
+        <v>-8296984.339552506</v>
       </c>
       <c r="D85">
-        <v>-768.5227303756138</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E85">
-        <v>263065.3306075726</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F85">
-        <v>-24592.72737201964</v>
+        <v>15764.34963701819</v>
       </c>
       <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>24320.61013247808</v>
+      </c>
+      <c r="H85">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I85">
+        <v>1306916.229580541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
-        <v>42066</v>
+      <c r="B86">
+        <v>1021</v>
       </c>
       <c r="C86">
-        <v>-3619473.166743887</v>
+        <v>-8281219.989915487</v>
       </c>
       <c r="D86">
-        <v>-531.2867502742429</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E86">
-        <v>182098.5336564967</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F86">
-        <v>-11688.30850603334</v>
+        <v>10837.99037545001</v>
       </c>
       <c r="G86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>24406.16400644417</v>
+      </c>
+      <c r="H86">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I86">
+        <v>1317839.773829957</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
-        <v>42067</v>
+      <c r="B87">
+        <v>1022</v>
       </c>
       <c r="C87">
-        <v>-3631161.47524992</v>
+        <v>-8270381.999540037</v>
       </c>
       <c r="D87">
-        <v>-1047.905337544745</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E87">
-        <v>361998.898854832</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F87">
-        <v>31437.16012634234</v>
+        <v>-14779.07778470456</v>
       </c>
       <c r="G87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>24490.9080679289</v>
+      </c>
+      <c r="H87">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I87">
+        <v>1303145.440106736</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
-        <v>42068</v>
+      <c r="B88">
+        <v>1023</v>
       </c>
       <c r="C88">
-        <v>-3515891.888119998</v>
+        <v>-8285161.077324742</v>
       </c>
       <c r="D88">
-        <v>745.4193043819205</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E88">
-        <v>253479.8344550721</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F88">
-        <v>-14162.96678325649</v>
+        <v>-9360.082596979551</v>
       </c>
       <c r="G88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>24575.13924817545</v>
+      </c>
+      <c r="H88">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I88">
+        <v>1293869.588690004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
-        <v>42069</v>
+      <c r="B89">
+        <v>1024</v>
       </c>
       <c r="C89">
-        <v>-3530054.854903254</v>
+        <v>-8294521.159921722</v>
       </c>
       <c r="D89">
-        <v>979.2363374554159</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E89">
-        <v>324616.8458664703</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F89">
-        <v>-15667.78139928665</v>
+        <v>-7882.174818509096</v>
       </c>
       <c r="G89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>24658.93852843194</v>
+      </c>
+      <c r="H89">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I89">
+        <v>1286071.213151751</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
-        <v>42072</v>
+      <c r="B90">
+        <v>1025</v>
       </c>
       <c r="C90">
-        <v>-3545722.636302541</v>
+        <v>-8302403.334740231</v>
       </c>
       <c r="D90">
-        <v>2395.480795264055</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E90">
-        <v>795898.4942264823</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F90">
-        <v>-59887.01988160139</v>
+        <v>-12315.89815392046</v>
       </c>
       <c r="G90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>24742.06296495396</v>
+      </c>
+      <c r="H90">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I90">
+        <v>1273838.439434353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
-        <v>42073</v>
+      <c r="B91">
+        <v>1026</v>
       </c>
       <c r="C91">
-        <v>-3694388.104190011</v>
+        <v>-8314719.232894151</v>
       </c>
       <c r="D91">
-        <v>1419.893454540229</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E91">
-        <v>464092.1756164738</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F91">
-        <v>-48276.37745436778</v>
+        <v>-16749.62148933183</v>
       </c>
       <c r="G91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>24824.26961399712</v>
+      </c>
+      <c r="H91">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I91">
+        <v>1257171.024594064</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
-        <v>42074</v>
+      <c r="B92">
+        <v>1027</v>
       </c>
       <c r="C92">
-        <v>-3742459.573365167</v>
+        <v>-8331468.854383484</v>
       </c>
       <c r="D92">
-        <v>1407.086687089485</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E92">
-        <v>460750.5356874518</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F92">
-        <v>45026.77398686351</v>
+        <v>15764.34963701819</v>
       </c>
       <c r="G92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>24907.34006302039</v>
+      </c>
+      <c r="H92">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I92">
+        <v>1273018.444680105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
-        <v>42075</v>
+      <c r="B93">
+        <v>1028</v>
       </c>
       <c r="C93">
-        <v>-3700810.001209327</v>
+        <v>-8315704.504746465</v>
       </c>
       <c r="D93">
-        <v>281.3527434151145</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E93">
-        <v>91749.12962766884</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F93">
-        <v>-7033.818585377862</v>
+        <v>-12315.89815392046</v>
       </c>
       <c r="G93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>24989.7356683092</v>
+      </c>
+      <c r="H93">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I93">
+        <v>1260784.942131474</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
-        <v>42076</v>
+      <c r="B94">
+        <v>1029</v>
       </c>
       <c r="C94">
-        <v>-3703060.823156647</v>
+        <v>-8328020.402900386</v>
       </c>
       <c r="D94">
-        <v>-833.5448654603553</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E94">
-        <v>269318.3460302408</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F94">
-        <v>-17504.44217466746</v>
+        <v>10345.35444929319</v>
       </c>
       <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>25072.69814233496</v>
+      </c>
+      <c r="H94">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I94">
+        <v>1271213.259054793</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
-        <v>42079</v>
+      <c r="B95">
+        <v>1030</v>
       </c>
       <c r="C95">
-        <v>-3769571.828958221</v>
+        <v>-8317675.048451092</v>
       </c>
       <c r="D95">
-        <v>-143.3115749405469</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E95">
-        <v>45809.54492974583</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F95">
-        <v>2722.919923870392</v>
+        <v>-9360.082596979551</v>
       </c>
       <c r="G95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>25155.14773512253</v>
+      </c>
+      <c r="H95">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I95">
+        <v>1261935.626050601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
-        <v>42080</v>
+      <c r="B96">
+        <v>1031</v>
       </c>
       <c r="C96">
-        <v>-3766848.909034351</v>
+        <v>-8327035.131048071</v>
       </c>
       <c r="D96">
-        <v>-705.4091049307935</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E96">
-        <v>224743.3408309508</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F96">
-        <v>46557.00092543237</v>
+        <v>-32513.97112635002</v>
       </c>
       <c r="G96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>25235.81574045111</v>
+      </c>
+      <c r="H96">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I96">
+        <v>1229502.32292958</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
-        <v>42081</v>
+      <c r="B97">
+        <v>1032</v>
       </c>
       <c r="C97">
-        <v>-3761872.805330813</v>
+        <v>-8359549.102174421</v>
       </c>
       <c r="D97">
-        <v>-221.9103000250388</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E97">
-        <v>70101.46377790977</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F97">
-        <v>-12648.88710142721</v>
+        <v>28080.24779093865</v>
       </c>
       <c r="G97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>25318.02238949428</v>
+      </c>
+      <c r="H97">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I97">
+        <v>1257664.777369562</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
-        <v>42082</v>
+      <c r="B98">
+        <v>1033</v>
       </c>
       <c r="C98">
-        <v>-3774521.692432241</v>
+        <v>-8331468.854383483</v>
       </c>
       <c r="D98">
-        <v>-1359.610284464745</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E98">
-        <v>435007.3105144952</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F98">
-        <v>16315.32341357694</v>
+        <v>-5911.631113881822</v>
       </c>
       <c r="G98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>25399.90511354489</v>
+      </c>
+      <c r="H98">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I98">
+        <v>1251835.02897973</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
-        <v>42083</v>
+      <c r="B99">
+        <v>1034</v>
       </c>
       <c r="C99">
-        <v>-3819515.053697207</v>
+        <v>-8337380.485497365</v>
       </c>
       <c r="D99">
-        <v>-401.6620863624946</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E99">
-        <v>127788.7927762276</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F99">
-        <v>16066.48345449978</v>
+        <v>-19705.43704627274</v>
       </c>
       <c r="G99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>25480.70808762037</v>
+      </c>
+      <c r="H99">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I99">
+        <v>1232210.394907533</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
-        <v>42086</v>
+      <c r="B100">
+        <v>1035</v>
       </c>
       <c r="C100">
-        <v>-3803448.570242708</v>
+        <v>-8357085.922543637</v>
       </c>
       <c r="D100">
-        <v>-1336.968179093108</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E100">
-        <v>425356.4261784724</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F100">
-        <v>2673.936358186217</v>
+        <v>-985.2718523136371</v>
       </c>
       <c r="G100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>25561.4570741971</v>
+      </c>
+      <c r="H100">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I100">
+        <v>1231305.872041796</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
-        <v>42087</v>
+      <c r="B101">
+        <v>1036</v>
       </c>
       <c r="C101">
-        <v>-3803384.15642646</v>
+        <v>-8358071.194395951</v>
       </c>
       <c r="D101">
-        <v>-1290.369562272779</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E101">
-        <v>407434.1892876299</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F101">
-        <v>41291.82599272893</v>
+        <v>-15764.34963701819</v>
       </c>
       <c r="G101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>25641.34226079371</v>
+      </c>
+      <c r="H101">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I101">
+        <v>1215621.407591374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
-        <v>42088</v>
+      <c r="B102">
+        <v>1037</v>
       </c>
       <c r="C102">
-        <v>-3762353.121819924</v>
+        <v>-8373835.54403297</v>
       </c>
       <c r="D102">
-        <v>-1225.17171572451</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E102">
-        <v>383172.4540928405</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F102">
-        <v>-8576.202010071571</v>
+        <v>3448.45148309773</v>
       </c>
       <c r="G102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>25721.41640363597</v>
+      </c>
+      <c r="H102">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I102">
+        <v>1219149.933217314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="2">
-        <v>42089</v>
+      <c r="B103">
+        <v>1038</v>
       </c>
       <c r="C103">
-        <v>-3770929.323829995</v>
+        <v>-8370387.092549872</v>
       </c>
       <c r="D103">
-        <v>-1324.730868936198</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E103">
-        <v>420270.8681700087</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F103">
-        <v>-37092.46433021354</v>
+        <v>13793.80593239092</v>
       </c>
       <c r="G103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>25802.24637146083</v>
+      </c>
+      <c r="H103">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I103">
+        <v>1233024.56911753</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="2">
-        <v>42090</v>
+      <c r="B104">
+        <v>1039</v>
       </c>
       <c r="C104">
-        <v>-3808021.788160209</v>
+        <v>-8356593.286617481</v>
       </c>
       <c r="D104">
-        <v>-1375.86459162023</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E104">
-        <v>432159.0682279142</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F104">
-        <v>15134.51050782253</v>
+        <v>-5418.995187725004</v>
       </c>
       <c r="G104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>25882.77940804253</v>
+      </c>
+      <c r="H104">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I104">
+        <v>1227686.106966387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="2">
-        <v>42093</v>
+      <c r="B105">
+        <v>1040</v>
       </c>
       <c r="C105">
-        <v>-3811855.035936255</v>
+        <v>-8362012.281805206</v>
       </c>
       <c r="D105">
-        <v>-863.2224758399962</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E105">
-        <v>272950.9468606068</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F105">
-        <v>-35392.12150943984</v>
+        <v>20198.07297242956</v>
       </c>
       <c r="G105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>25964.41918834874</v>
+      </c>
+      <c r="H105">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I105">
+        <v>1247965.819719123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="2">
-        <v>42094</v>
+      <c r="B106">
+        <v>1041</v>
       </c>
       <c r="C106">
-        <v>-3847247.157445694</v>
+        <v>-8341814.208832776</v>
       </c>
       <c r="D106">
-        <v>-1036.305980094316</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E106">
-        <v>325970.0460386671</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F106">
-        <v>13471.97774122611</v>
+        <v>-6404.267040038641</v>
       </c>
       <c r="G106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>26045.70804991303</v>
+      </c>
+      <c r="H106">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I106">
+        <v>1241642.841540648</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="2">
-        <v>42095</v>
+      <c r="B107">
+        <v>1042</v>
       </c>
       <c r="C107">
-        <v>-3862340.637457158</v>
+        <v>-8348218.475872815</v>
       </c>
       <c r="D107">
-        <v>-196.1454579563836</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E107">
-        <v>61579.86652540664</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F107">
-        <v>3922.909159127673</v>
+        <v>-9852.718523136371</v>
       </c>
       <c r="G107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>26126.45703648975</v>
+      </c>
+      <c r="H107">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I107">
+        <v>1231870.872004089</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="2">
-        <v>42096</v>
+      <c r="B108">
+        <v>1043</v>
       </c>
       <c r="C108">
-        <v>-3858417.72829803</v>
+        <v>-8358071.194395951</v>
       </c>
       <c r="D108">
-        <v>-294.9213040329958</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E108">
-        <v>92325.11422752932</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F108">
-        <v>-2359.370432263966</v>
+        <v>3941.087409254548</v>
       </c>
       <c r="G108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>26207.4219730615</v>
+      </c>
+      <c r="H108">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I108">
+        <v>1235892.924349915</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="2">
-        <v>42097</v>
+      <c r="B109">
+        <v>1044</v>
       </c>
       <c r="C109">
-        <v>-3860803.783297788</v>
+        <v>-8354130.106986697</v>
       </c>
       <c r="D109">
-        <v>-281.5790202863836</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E109">
-        <v>88866.33880238268</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F109">
-        <v>-3378.948243436604</v>
+        <v>5911.631113881822</v>
       </c>
       <c r="G109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>26288.71083462579</v>
+      </c>
+      <c r="H109">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I109">
+        <v>1241885.844325361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="2">
-        <v>42100</v>
+      <c r="B110">
+        <v>1045</v>
       </c>
       <c r="C110">
-        <v>-3864145.135820543</v>
+        <v>-8348218.475872815</v>
       </c>
       <c r="D110">
-        <v>-280.0751914591359</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E110">
-        <v>90660.33947532227</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F110">
-        <v>-8402.255743774076</v>
+        <v>14779.07778470456</v>
       </c>
       <c r="G110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>26370.80950867144</v>
+      </c>
+      <c r="H110">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I110">
+        <v>1256747.020784112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2">
-        <v>42101</v>
+      <c r="B111">
+        <v>1046</v>
       </c>
       <c r="C111">
-        <v>-3872547.391564317</v>
+        <v>-8333439.39808811</v>
       </c>
       <c r="D111">
-        <v>-280.3777414608508</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E111">
-        <v>90043.31167015222</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F111">
-        <v>4766.421604834462</v>
+        <v>-8374.810744665914</v>
       </c>
       <c r="G111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>26452.44928897765</v>
+      </c>
+      <c r="H111">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I111">
+        <v>1248453.849819752</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="2">
-        <v>42102</v>
+      <c r="B112">
+        <v>1047</v>
       </c>
       <c r="C112">
-        <v>-3867780.969959483</v>
+        <v>-8341814.208832775</v>
       </c>
       <c r="D112">
-        <v>-307.1194981237915</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E112">
-        <v>97433.66077977286</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F112">
-        <v>10442.06293620891</v>
+        <v>-16749.62148933183</v>
       </c>
       <c r="G112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>26533.17128180499</v>
+      </c>
+      <c r="H112">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I112">
+        <v>1231784.950323248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="2">
-        <v>42103</v>
+      <c r="B113">
+        <v>1048</v>
       </c>
       <c r="C113">
-        <v>-3857338.907023273</v>
+        <v>-8358563.830322107</v>
       </c>
       <c r="D113">
-        <v>-315.0172209732717</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E113">
-        <v>98001.85744478481</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F113">
-        <v>11340.61995503778</v>
+        <v>-17734.89334164547</v>
       </c>
       <c r="G113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>26612.92149965471</v>
+      </c>
+      <c r="H113">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I113">
+        <v>1214129.807199452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="2">
-        <v>42104</v>
+      <c r="B114">
+        <v>1049</v>
       </c>
       <c r="C114">
-        <v>-3845998.287068236</v>
+        <v>-8376298.723663753</v>
       </c>
       <c r="D114">
-        <v>-331.9358916545474</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E114">
-        <v>102169.8674512697</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F114">
-        <v>-331.9358916545474</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="G114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>26692.69871125381</v>
+      </c>
+      <c r="H114">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I114">
+        <v>1214702.220337208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="2">
-        <v>42107</v>
+      <c r="B115">
+        <v>1050</v>
       </c>
       <c r="C115">
-        <v>-3846330.22295989</v>
+        <v>-8375806.087737596</v>
       </c>
       <c r="D115">
-        <v>-335.3694034565804</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E115">
-        <v>104333.4214153422</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F115">
-        <v>5365.910455305287</v>
+        <v>-7882.174818509096</v>
       </c>
       <c r="G115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>26772.04402286285</v>
+      </c>
+      <c r="H115">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I115">
+        <v>1206899.390830308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="2">
-        <v>42108</v>
+      <c r="B116">
+        <v>1051</v>
       </c>
       <c r="C116">
-        <v>-3842373.190819086</v>
+        <v>-8383688.262556105</v>
       </c>
       <c r="D116">
-        <v>-311.8880982149028</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E116">
-        <v>96794.47128099507</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F116">
-        <v>-8109.090553587472</v>
+        <v>12808.53408007728</v>
       </c>
       <c r="G116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>26852.09117195574</v>
+      </c>
+      <c r="H116">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I116">
+        <v>1219787.972059478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="2">
-        <v>42109</v>
+      <c r="B117">
+        <v>1052</v>
       </c>
       <c r="C117">
-        <v>-3850482.281372673</v>
+        <v>-8370879.728476028</v>
       </c>
       <c r="D117">
-        <v>-582.7087342938627</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E117">
-        <v>182941.4071315582</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F117">
-        <v>3496.252405763176</v>
+        <v>-2955.815556940911</v>
       </c>
       <c r="G117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>26931.97635855235</v>
+      </c>
+      <c r="H117">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I117">
+        <v>1216912.041689134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="2">
-        <v>42110</v>
+      <c r="B118">
+        <v>1053</v>
       </c>
       <c r="C118">
-        <v>-3846986.02896691</v>
+        <v>-8373835.544032969</v>
       </c>
       <c r="D118">
-        <v>-603.9530257685383</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E118">
-        <v>190245.2031170895</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F118">
-        <v>16910.68472151907</v>
+        <v>-13793.80593239092</v>
       </c>
       <c r="G118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>27011.10572016636</v>
+      </c>
+      <c r="H118">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I118">
+        <v>1203197.365118357</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2">
-        <v>42111</v>
+      <c r="B119">
+        <v>1054</v>
       </c>
       <c r="C119">
-        <v>-3830075.344245391</v>
+        <v>-8387629.349965359</v>
       </c>
       <c r="D119">
-        <v>-799.4910149503459</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E119">
-        <v>249681.043968993</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F119">
-        <v>-4796.946089702075</v>
+        <v>2955.815556940911</v>
       </c>
       <c r="G119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>27090.39704427665</v>
+      </c>
+      <c r="H119">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I119">
+        <v>1206232.471999408</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="2">
-        <v>42114</v>
+      <c r="B120">
+        <v>1055</v>
       </c>
       <c r="C120">
-        <v>-3834927.30496626</v>
+        <v>-8384673.534408418</v>
       </c>
       <c r="D120">
-        <v>-794.9064623530963</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E120">
-        <v>250037.8277331665</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F120">
-        <v>8743.971085884059</v>
+        <v>-5418.995187725004</v>
       </c>
       <c r="G120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>27169.39143714377</v>
+      </c>
+      <c r="H120">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I120">
+        <v>1200892.47120455</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="2">
-        <v>42115</v>
+      <c r="B121">
+        <v>1056</v>
       </c>
       <c r="C121">
-        <v>-3826183.333880376</v>
+        <v>-8390092.529596144</v>
       </c>
       <c r="D121">
-        <v>-864.7356877297982</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E121">
-        <v>274985.9486980758</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F121">
-        <v>-8647.356877297982</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>27248.65576750468</v>
+      </c>
+      <c r="H121">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I121">
+        <v>1205898.094796479</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="2">
-        <v>42116</v>
+      <c r="B122">
+        <v>1057</v>
       </c>
       <c r="C122">
-        <v>-3834830.690757674</v>
+        <v>-8385166.170334576</v>
       </c>
       <c r="D122">
-        <v>-899.3568799688503</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E122">
-        <v>281813.4783382392</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F122">
-        <v>899.3568799688503</v>
+        <v>-492.6359261568185</v>
       </c>
       <c r="G122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>27327.89310411621</v>
+      </c>
+      <c r="H122">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I122">
+        <v>1205484.696206933</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="2">
-        <v>42117</v>
+      <c r="B123">
+        <v>1058</v>
       </c>
       <c r="C123">
-        <v>-3833931.333877705</v>
+        <v>-8385658.806260733</v>
       </c>
       <c r="D123">
-        <v>-934.4034947183331</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E123">
-        <v>292515.0140215742</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F123">
-        <v>934.4034947183331</v>
+        <v>-492.6359261568185</v>
       </c>
       <c r="G123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>27407.10344697836</v>
+      </c>
+      <c r="H123">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I123">
+        <v>1205071.270623638</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="2">
-        <v>42118</v>
+      <c r="B124">
+        <v>1059</v>
       </c>
       <c r="C124">
-        <v>-3832996.930382987</v>
+        <v>-8386151.44218689</v>
       </c>
       <c r="D124">
-        <v>-936.4973345654968</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E124">
-        <v>294856.1857879466</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F124">
-        <v>20602.94136044093</v>
+        <v>-10837.99037545001</v>
       </c>
       <c r="G124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>27485.71992735419</v>
+      </c>
+      <c r="H124">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I124">
+        <v>1194311.896728564</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="2">
-        <v>42121</v>
+      <c r="B125">
+        <v>1060</v>
       </c>
       <c r="C125">
-        <v>-3817766.514366289</v>
+        <v>-8396989.43256234</v>
       </c>
       <c r="D125">
-        <v>-858.6346484242939</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E125">
-        <v>266606.0583357433</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F125">
-        <v>27476.30874957741</v>
+        <v>-15764.34963701819</v>
       </c>
       <c r="G125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>27563.4726077499</v>
+      </c>
+      <c r="H125">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I125">
+        <v>1178625.299771941</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="2">
-        <v>42122</v>
+      <c r="B126">
+        <v>1061</v>
       </c>
       <c r="C126">
-        <v>-3799106.808422444</v>
+        <v>-8412753.782199359</v>
       </c>
       <c r="D126">
-        <v>-583.1158107451363</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E126">
-        <v>178258.5033447882</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F126">
-        <v>6997.389728941635</v>
+        <v>-5911.631113881822</v>
       </c>
       <c r="G126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>27640.90136315308</v>
+      </c>
+      <c r="H126">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I126">
+        <v>1172791.097413463</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="2">
-        <v>42123</v>
+      <c r="B127">
+        <v>1062</v>
       </c>
       <c r="C127">
-        <v>-3792168.516747446</v>
+        <v>-8418665.41331324</v>
       </c>
       <c r="D127">
-        <v>-571.2961999564576</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E127">
-        <v>172759.9708668328</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F127">
-        <v>-571.2961999564576</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="G127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>27718.35711230563</v>
+      </c>
+      <c r="H127">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I127">
+        <v>1173361.189088773</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="2">
-        <v>42124</v>
+      <c r="B128">
+        <v>1063</v>
       </c>
       <c r="C128">
-        <v>-3792739.812947403</v>
+        <v>-8418172.777387083</v>
       </c>
       <c r="D128">
-        <v>-631.1128230360774</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E128">
-        <v>192268.521537941</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F128">
-        <v>-3155.564115180387</v>
+        <v>2463.179630784093</v>
       </c>
       <c r="G128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>27795.94783020507</v>
+      </c>
+      <c r="H128">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I128">
+        <v>1175901.959437457</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="2">
-        <v>42129</v>
+      <c r="B129">
+        <v>1064</v>
       </c>
       <c r="C129">
-        <v>-3794278.968630666</v>
+        <v>-8415709.597756298</v>
       </c>
       <c r="D129">
-        <v>-578.970615554905</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E129">
-        <v>181594.1335687959</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F129">
-        <v>5210.735539994144</v>
+        <v>-4433.723335411367</v>
       </c>
       <c r="G129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>27873.29560436011</v>
+      </c>
+      <c r="H129">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I129">
+        <v>1171545.5838762</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="2">
-        <v>42130</v>
+      <c r="B130">
+        <v>1065</v>
       </c>
       <c r="C130">
-        <v>-3789068.233090672</v>
+        <v>-8420143.32109171</v>
       </c>
       <c r="D130">
-        <v>-615.1740189366794</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E130">
-        <v>195902.1663303855</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F130">
-        <v>-6151.740189366794</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>27950.91331600893</v>
+      </c>
+      <c r="H130">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I130">
+        <v>1176549.560849418</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="2">
-        <v>42131</v>
+      <c r="B131">
+        <v>1066</v>
       </c>
       <c r="C131">
-        <v>-3796185.479705825</v>
+        <v>-8415216.961830141</v>
       </c>
       <c r="D131">
-        <v>-590.417443916547</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E131">
-        <v>186158.6200668873</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F131">
-        <v>-3542.504663499282</v>
+        <v>2955.815556940911</v>
       </c>
       <c r="G131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>28028.69299015402</v>
+      </c>
+      <c r="H131">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I131">
+        <v>1179583.156080505</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="2">
-        <v>42132</v>
+      <c r="B132">
+        <v>1067</v>
       </c>
       <c r="C132">
-        <v>-3799727.984369324</v>
+        <v>-8412261.146273199</v>
       </c>
       <c r="D132">
-        <v>-626.8651513829544</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E132">
-        <v>196146.1058677264</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F132">
-        <v>-5014.921211063635</v>
+        <v>3941.087409254548</v>
       </c>
       <c r="G132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>28106.68861429414</v>
+      </c>
+      <c r="H132">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I132">
+        <v>1183602.239113899</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="2">
-        <v>42135</v>
+      <c r="B133">
+        <v>1068</v>
       </c>
       <c r="C133">
-        <v>-3804533.772186409</v>
+        <v>-8408320.058863945</v>
       </c>
       <c r="D133">
-        <v>-596.9889522431317</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E133">
-        <v>189752.9384704794</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F133">
-        <v>-7760.856379160712</v>
+        <v>6404.267040038641</v>
       </c>
       <c r="G133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>28185.03515717618</v>
+      </c>
+      <c r="H133">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I133">
+        <v>1190084.852696819</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="2">
-        <v>42136</v>
+      <c r="B134">
+        <v>1069</v>
       </c>
       <c r="C134">
-        <v>-3812294.628565569</v>
+        <v>-8401915.791823907</v>
       </c>
       <c r="D134">
-        <v>-622.3821980803466</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E134">
-        <v>200998.3308700479</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F134">
-        <v>-15559.55495200866</v>
+        <v>12315.89815392046</v>
       </c>
       <c r="G134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>28264.05654379269</v>
+      </c>
+      <c r="H134">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I134">
+        <v>1202479.772237356</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="2">
-        <v>42137</v>
+      <c r="B135">
+        <v>1070</v>
       </c>
       <c r="C135">
-        <v>-3828910.695656545</v>
+        <v>-8389599.893669987</v>
       </c>
       <c r="D135">
-        <v>-593.8278159461048</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E135">
-        <v>192043.9156769703</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F135">
-        <v>10688.90068702989</v>
+        <v>-8867.446670822734</v>
       </c>
       <c r="G135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>28342.59204292038</v>
+      </c>
+      <c r="H135">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I135">
+        <v>1193690.861065661</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="2">
-        <v>42138</v>
+      <c r="B136">
+        <v>1071</v>
       </c>
       <c r="C136">
-        <v>-3818221.794969515</v>
+        <v>-8398467.34034081</v>
       </c>
       <c r="D136">
-        <v>-644.9877921821708</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E136">
-        <v>206170.3477710309</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F136">
-        <v>-10319.80467491473</v>
+        <v>7882.174818509096</v>
       </c>
       <c r="G136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>28421.55944203812</v>
+      </c>
+      <c r="H136">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I136">
+        <v>1201652.003283287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="2">
-        <v>42139</v>
+      <c r="B137">
+        <v>1072</v>
       </c>
       <c r="C137">
-        <v>-3829304.186797395</v>
+        <v>-8390585.165522302</v>
       </c>
       <c r="D137">
-        <v>-615.657517068092</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E137">
-        <v>197718.4116064178</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F137">
-        <v>17238.41047790658</v>
+        <v>-13793.80593239092</v>
       </c>
       <c r="G137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>28499.77101617327</v>
+      </c>
+      <c r="H137">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I137">
+        <v>1187936.40892503</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="2">
-        <v>42142</v>
+      <c r="B138">
+        <v>1073</v>
       </c>
       <c r="C138">
-        <v>-3812065.776319489</v>
+        <v>-8404378.971454693</v>
       </c>
       <c r="D138">
-        <v>-653.7320209478164</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E138">
-        <v>207494.5434488369</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F138">
-        <v>-7844.784251373797</v>
+        <v>5911.631113881822</v>
       </c>
       <c r="G138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>28578.30651530096</v>
+      </c>
+      <c r="H138">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I138">
+        <v>1193926.575538039</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="2">
-        <v>42143</v>
+      <c r="B139">
+        <v>1074</v>
       </c>
       <c r="C139">
-        <v>-3820526.815506494</v>
+        <v>-8398467.340340812</v>
       </c>
       <c r="D139">
-        <v>-634.474054209345</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E139">
-        <v>200144.8404003379</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F139">
-        <v>3172.370271046725</v>
+        <v>-2463.179630784093</v>
       </c>
       <c r="G139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>28656.70704568176</v>
+      </c>
+      <c r="H139">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I139">
+        <v>1191541.796437636</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="2">
-        <v>42144</v>
+      <c r="B140">
+        <v>1075</v>
       </c>
       <c r="C140">
-        <v>-3817354.445235447</v>
+        <v>-8400930.519971596</v>
       </c>
       <c r="D140">
-        <v>-665.7539095346692</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E140">
-        <v>207815.082861247</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F140">
-        <v>-3328.769547673346</v>
+        <v>2463.179630784093</v>
       </c>
       <c r="G140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>28735.24254480945</v>
+      </c>
+      <c r="H140">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I140">
+        <v>1194083.511567548</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="2">
-        <v>42145</v>
+      <c r="B141">
+        <v>1076</v>
       </c>
       <c r="C141">
-        <v>-3821123.933855451</v>
+        <v>-8398467.340340812</v>
       </c>
       <c r="D141">
-        <v>-638.2089675139899</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E141">
-        <v>200748.6307315255</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F141">
-        <v>-11487.76141525182</v>
+        <v>8867.446670822734</v>
       </c>
       <c r="G141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>28814.26393142595</v>
+      </c>
+      <c r="H141">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I141">
+        <v>1203029.979624987</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="2">
-        <v>42146</v>
+      <c r="B142">
+        <v>1077</v>
       </c>
       <c r="C142">
-        <v>-3832611.695270703</v>
+        <v>-8389599.893669989</v>
       </c>
       <c r="D142">
-        <v>-663.2179206382708</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E142">
-        <v>207520.8873677149</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F142">
-        <v>9285.050888935792</v>
+        <v>-6896.902966195459</v>
       </c>
       <c r="G142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>28892.90740555115</v>
+      </c>
+      <c r="H142">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I142">
+        <v>1196211.720132916</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="2">
-        <v>42149</v>
+      <c r="B143">
+        <v>1078</v>
       </c>
       <c r="C143">
-        <v>-3824130.294997939</v>
+        <v>-8396496.796636185</v>
       </c>
       <c r="D143">
-        <v>-637.2937072133699</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E143">
-        <v>198931.2307066534</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F143">
-        <v>-7647.524486560438</v>
+        <v>5911.631113881822</v>
       </c>
       <c r="G143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>28971.8748046689</v>
+      </c>
+      <c r="H143">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I143">
+        <v>1202202.318645915</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="2">
-        <v>42150</v>
+      <c r="B144">
+        <v>1079</v>
       </c>
       <c r="C144">
-        <v>-3831777.8194845</v>
+        <v>-8390585.165522303</v>
       </c>
       <c r="D144">
-        <v>-649.781314929789</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E144">
-        <v>207117.7941338703</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F144">
-        <v>-18843.65813296388</v>
+        <v>14286.44185854774</v>
       </c>
       <c r="G144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>29051.62502251862</v>
+      </c>
+      <c r="H144">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I144">
+        <v>1216568.510722313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="2">
-        <v>42151</v>
+      <c r="B145">
+        <v>1080</v>
       </c>
       <c r="C145">
-        <v>-3851271.814860962</v>
+        <v>-8376298.723663756</v>
       </c>
       <c r="D145">
-        <v>-622.6839297840093</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E145">
-        <v>198854.1129765233</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F145">
-        <v>8717.57501697613</v>
+        <v>-6896.902966195459</v>
       </c>
       <c r="G145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>29130.99732787704</v>
+      </c>
+      <c r="H145">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I145">
+        <v>1209750.980061476</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="2">
-        <v>42152</v>
+      <c r="B146">
+        <v>1081</v>
       </c>
       <c r="C146">
-        <v>-3842554.239843986</v>
+        <v>-8383195.626629951</v>
       </c>
       <c r="D146">
-        <v>-643.5776513403098</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E146">
-        <v>207650.3292049509</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F146">
-        <v>-7722.931816083717</v>
+        <v>5911.631113881822</v>
       </c>
       <c r="G146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>29210.693558228</v>
+      </c>
+      <c r="H146">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I146">
+        <v>1215742.307405709</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="2">
-        <v>42153</v>
+      <c r="B147">
+        <v>1082</v>
       </c>
       <c r="C147">
-        <v>-3850277.17166007</v>
+        <v>-8377283.995516069</v>
       </c>
       <c r="D147">
-        <v>-652.2591917119223</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E147">
-        <v>210647.1059633653</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F147">
-        <v>-6522.591917119224</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>29290.65972607275</v>
+      </c>
+      <c r="H147">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I147">
+        <v>1220748.632835122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="2">
-        <v>42156</v>
+      <c r="B148">
+        <v>1083</v>
       </c>
       <c r="C148">
-        <v>-3856799.763577189</v>
+        <v>-8372357.636254501</v>
       </c>
       <c r="D148">
-        <v>-659.1364859973099</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E148">
-        <v>220184.5431474014</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F148">
-        <v>-22410.64052390854</v>
+        <v>16749.62148933183</v>
       </c>
       <c r="G148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>29371.54368139636</v>
+      </c>
+      <c r="H148">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I148">
+        <v>1237579.138279778</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="2">
-        <v>42157</v>
+      <c r="B149">
+        <v>1084</v>
       </c>
       <c r="C149">
-        <v>-3878860.393279443</v>
+        <v>-8355608.014765169</v>
       </c>
       <c r="D149">
-        <v>-637.2608096438915</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E149">
-        <v>217847.6077767643</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F149">
-        <v>8921.651335014481</v>
+        <v>-6896.902966195459</v>
       </c>
       <c r="G149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>29452.04972422868</v>
+      </c>
+      <c r="H149">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I149">
+        <v>1230762.741356415</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="2">
-        <v>42158</v>
+      <c r="B150">
+        <v>1085</v>
       </c>
       <c r="C150">
-        <v>-3869938.741944429</v>
+        <v>-8362504.917731364</v>
       </c>
       <c r="D150">
-        <v>-644.014765752323</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E150">
-        <v>216388.9612927805</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F150">
-        <v>7728.177189027876</v>
+        <v>-5911.631113881822</v>
       </c>
       <c r="G150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>29532.23184206846</v>
+      </c>
+      <c r="H150">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I150">
+        <v>1224931.292360372</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="2">
-        <v>42159</v>
+      <c r="B151">
+        <v>1086</v>
       </c>
       <c r="C151">
-        <v>-3862552.239640328</v>
+        <v>-8368416.548845246</v>
       </c>
       <c r="D151">
-        <v>-632.2328731686541</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E151">
-        <v>213852.7693492972</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F151">
-        <v>-21495.91768773424</v>
+        <v>16749.62148933183</v>
       </c>
       <c r="G151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>29613.3317473871</v>
+      </c>
+      <c r="H151">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I151">
+        <v>1241762.013755023</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="2">
-        <v>42160</v>
+      <c r="B152">
+        <v>1087</v>
       </c>
       <c r="C152">
-        <v>-3883824.283811848</v>
+        <v>-8351666.927355914</v>
       </c>
       <c r="D152">
-        <v>-617.3079720877481</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E152">
-        <v>210656.345474944</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F152">
-        <v>-14198.08335801821</v>
+        <v>11330.62630160683</v>
       </c>
       <c r="G152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>29695.05250894145</v>
+      </c>
+      <c r="H152">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I152">
+        <v>1253174.360818184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="2">
-        <v>42163</v>
+      <c r="B153">
+        <v>1088</v>
       </c>
       <c r="C153">
-        <v>-3937530.077383482</v>
+        <v>-8340336.301054307</v>
       </c>
       <c r="D153">
-        <v>639.6177039204656</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E153">
-        <v>219708.6812966799</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F153">
-        <v>-16630.06030193211</v>
+        <v>-12808.53408007728</v>
       </c>
       <c r="G153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>29776.07143301196</v>
+      </c>
+      <c r="H153">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I153">
+        <v>1240446.845662178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="2">
-        <v>42164</v>
+      <c r="B154">
+        <v>1089</v>
       </c>
       <c r="C154">
-        <v>-3954160.137685414</v>
+        <v>-8353144.835134384</v>
       </c>
       <c r="D154">
-        <v>964.4090238320475</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E154">
-        <v>325054.0614825916</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F154">
-        <v>15430.54438131276</v>
+        <v>7882.174818509096</v>
       </c>
       <c r="G154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>29857.52225707252</v>
+      </c>
+      <c r="H154">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I154">
+        <v>1248410.471304748</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="2">
-        <v>42165</v>
+      <c r="B155">
+        <v>1090</v>
       </c>
       <c r="C155">
-        <v>-3938729.593304102</v>
+        <v>-8345262.660315875</v>
       </c>
       <c r="D155">
-        <v>1018.599230802752</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E155">
-        <v>342707.7112035859</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F155">
-        <v>-17316.18692364679</v>
+        <v>-8374.810744665914</v>
       </c>
       <c r="G155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>29938.51418739364</v>
+      </c>
+      <c r="H155">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I155">
+        <v>1240116.652490403</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="2">
-        <v>42166</v>
+      <c r="B156">
+        <v>1091</v>
       </c>
       <c r="C156">
-        <v>-3956045.780227749</v>
+        <v>-8353637.471060541</v>
       </c>
       <c r="D156">
-        <v>2099.95568998687</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E156">
-        <v>703380.1583611022</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F156">
-        <v>20999.5568998687</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G156">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>30019.77605520856</v>
+      </c>
+      <c r="H156">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I156">
+        <v>1245124.273619787</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="2">
-        <v>42167</v>
+      <c r="B157">
+        <v>1092</v>
       </c>
       <c r="C157">
-        <v>-3964354.132115688</v>
+        <v>-8348711.111798972</v>
       </c>
       <c r="D157">
-        <v>1501.835102480573</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E157">
-        <v>498759.4375337982</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F157">
-        <v>18022.02122976687</v>
+        <v>5911.631113881822</v>
       </c>
       <c r="G157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>30101.36184801601</v>
+      </c>
+      <c r="H157">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I157">
+        <v>1251117.490526476</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="2">
-        <v>42170</v>
+      <c r="B158">
+        <v>1093</v>
       </c>
       <c r="C158">
-        <v>-3946332.110885921</v>
+        <v>-8342799.48068509</v>
       </c>
       <c r="D158">
-        <v>1950.893578635565</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E158">
-        <v>647891.7574648712</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F158">
-        <v>9754.467893177827</v>
+        <v>2463.179630784093</v>
       </c>
       <c r="G158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>30183.08260957036</v>
+      </c>
+      <c r="H158">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I158">
+        <v>1253662.390918815</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="2">
-        <v>42171</v>
+      <c r="B159">
+        <v>1094</v>
       </c>
       <c r="C159">
-        <v>-3950567.107048267</v>
+        <v>-8340336.301054305</v>
       </c>
       <c r="D159">
-        <v>1342.656011004121</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E159">
-        <v>448514.2404759267</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F159">
-        <v>25510.46420907831</v>
+        <v>9360.082596979551</v>
       </c>
       <c r="G159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>30265.3162523629</v>
+      </c>
+      <c r="H159">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I159">
+        <v>1263104.707158587</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="2">
-        <v>42172</v>
+      <c r="B160">
+        <v>1095</v>
       </c>
       <c r="C160">
-        <v>-3925056.642839189</v>
+        <v>-8330976.218457326</v>
       </c>
       <c r="D160">
-        <v>1469.088603997993</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E160">
-        <v>492071.2279091278</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F160">
-        <v>1469.088603997993</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="G160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>30347.57688890481</v>
+      </c>
+      <c r="H160">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I160">
+        <v>1263679.603721286</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="2">
-        <v>42173</v>
+      <c r="B161">
+        <v>1096</v>
       </c>
       <c r="C161">
-        <v>-3923587.554235191</v>
+        <v>-8330483.582531169</v>
       </c>
       <c r="D161">
-        <v>1530.991715622658</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E161">
-        <v>505227.2661554773</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F161">
-        <v>-50522.72661554773</v>
+        <v>-16256.98556317501</v>
       </c>
       <c r="G161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>30428.94673171724</v>
+      </c>
+      <c r="H161">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I161">
+        <v>1247503.988000924</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="2">
-        <v>42174</v>
+      <c r="B162">
+        <v>1097</v>
       </c>
       <c r="C162">
-        <v>-3979598.410279462</v>
+        <v>-8346740.568094344</v>
       </c>
       <c r="D162">
-        <v>1403.360798675596</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E162">
-        <v>461004.0223649332</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F162">
-        <v>11226.88638940476</v>
+        <v>3941.087409254548</v>
       </c>
       <c r="G162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>30510.53252452469</v>
+      </c>
+      <c r="H162">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I162">
+        <v>1251526.661202985</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="2">
-        <v>42177</v>
+      <c r="B163">
+        <v>1098</v>
       </c>
       <c r="C163">
-        <v>-3968749.768301281</v>
+        <v>-8342799.48068509</v>
       </c>
       <c r="D163">
-        <v>1361.333641872968</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E163">
-        <v>444135.1006610559</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F163">
-        <v>-29949.34012120531</v>
+        <v>-10837.99037545001</v>
       </c>
       <c r="G163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>30591.52445484582</v>
+      </c>
+      <c r="H163">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I163">
+        <v>1240769.662757856</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="2">
-        <v>42178</v>
+      <c r="B164">
+        <v>1099</v>
       </c>
       <c r="C164">
-        <v>-3998696.240423607</v>
+        <v>-8353637.47106054</v>
       </c>
       <c r="D164">
-        <v>1358.465642993648</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E164">
-        <v>443403.1858731267</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F164">
-        <v>-33961.6410748412</v>
+        <v>-12315.89815392046</v>
       </c>
       <c r="G164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>30671.84154143249</v>
+      </c>
+      <c r="H164">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I164">
+        <v>1228534.081690522</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="2">
-        <v>42179</v>
+      <c r="B165">
+        <v>1100</v>
       </c>
       <c r="C165">
-        <v>-4032657.881498449</v>
+        <v>-8365953.36921446</v>
       </c>
       <c r="D165">
-        <v>1392.513178905855</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E165">
-        <v>460364.8569462755</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F165">
-        <v>54308.01397732833</v>
+        <v>19212.80112011592</v>
       </c>
       <c r="G165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>30753.21138424491</v>
+      </c>
+      <c r="H165">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I165">
+        <v>1247828.252653451</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="2">
-        <v>42180</v>
+      <c r="B166">
+        <v>1101</v>
       </c>
       <c r="C166">
-        <v>-3978502.053551053</v>
+        <v>-8346740.568094344</v>
       </c>
       <c r="D166">
-        <v>1378.678085275643</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E166">
-        <v>458065.7938328322</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F166">
-        <v>-22058.84936441028</v>
+        <v>-7882.174818509096</v>
       </c>
       <c r="G166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>30834.14932706729</v>
+      </c>
+      <c r="H166">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I166">
+        <v>1240027.015777764</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="2">
-        <v>42181</v>
+      <c r="B167">
+        <v>1102</v>
       </c>
       <c r="C167">
-        <v>-4001061.629342869</v>
+        <v>-8354622.742912853</v>
       </c>
       <c r="D167">
-        <v>1323.041815563796</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E167">
-        <v>438588.3618593984</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F167">
-        <v>2646.083631127593</v>
+        <v>985.2718523136371</v>
       </c>
       <c r="G167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>30915.14125738842</v>
+      </c>
+      <c r="H167">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I167">
+        <v>1241093.279560399</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="2">
-        <v>42184</v>
+      <c r="B168">
+        <v>1103</v>
       </c>
       <c r="C168">
-        <v>-3996949.470337434</v>
+        <v>-8353637.47106054</v>
       </c>
       <c r="D168">
-        <v>1078.695919845842</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E168">
-        <v>357102.2842649661</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F168">
-        <v>-5393.479599229212</v>
+        <v>-2463.179630784093</v>
       </c>
       <c r="G168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>30995.99821896265</v>
+      </c>
+      <c r="H168">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I168">
+        <v>1238710.956891189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="2">
-        <v>42185</v>
+      <c r="B169">
+        <v>1104</v>
       </c>
       <c r="C169">
-        <v>-4020894.39255539</v>
+        <v>-8356100.650691324</v>
       </c>
       <c r="D169">
-        <v>603.0179039810513</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E169">
-        <v>196915.4965450123</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F169">
-        <v>-10854.32227165892</v>
+        <v>-8867.446670822734</v>
       </c>
       <c r="G169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>31076.36929304808</v>
+      </c>
+      <c r="H169">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I169">
+        <v>1229923.881294451</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="2">
-        <v>42186</v>
+      <c r="B170">
+        <v>1105</v>
       </c>
       <c r="C170">
-        <v>-4031748.714827049</v>
+        <v>-8364968.097362147</v>
       </c>
       <c r="D170">
-        <v>767.8100328146802</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E170">
-        <v>253146.9678190001</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F170">
-        <v>7678.100328146802</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>31157.01030462729</v>
+      </c>
+      <c r="H170">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I170">
+        <v>1234930.881567599</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="2">
-        <v>42187</v>
+      <c r="B171">
+        <v>1106</v>
       </c>
       <c r="C171">
-        <v>-4030394.470882128</v>
+        <v>-8360041.738100578</v>
       </c>
       <c r="D171">
-        <v>492.8597552831477</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E171">
-        <v>163235.1509497785</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F171">
-        <v>7885.756084530363</v>
+        <v>7882.174818509096</v>
       </c>
       <c r="G171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>31238.08321619655</v>
+      </c>
+      <c r="H171">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I171">
+        <v>1242894.129297678</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="2">
-        <v>42188</v>
+      <c r="B172">
+        <v>1107</v>
       </c>
       <c r="C172">
-        <v>-4020056.990814408</v>
+        <v>-8352159.563282069</v>
       </c>
       <c r="D172">
-        <v>363.8216509047507</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E172">
-        <v>120879.7435131034</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F172">
-        <v>-727.6433018095014</v>
+        <v>-985.2718523136371</v>
       </c>
       <c r="G172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>31319.10214026706</v>
+      </c>
+      <c r="H172">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I172">
+        <v>1241989.876369435</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="2">
-        <v>42191</v>
+      <c r="B173">
+        <v>1108</v>
       </c>
       <c r="C173">
-        <v>-4028101.904415644</v>
+        <v>-8353144.835134382</v>
       </c>
       <c r="D173">
-        <v>166.0575887580854</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E173">
-        <v>54325.74016220764</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F173">
-        <v>-1660.575887580854</v>
+        <v>-4926.359261568186</v>
       </c>
       <c r="G173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>31399.85112684378</v>
+      </c>
+      <c r="H173">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I173">
+        <v>1237144.266094443</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="2">
-        <v>42192</v>
+      <c r="B174">
+        <v>1109</v>
       </c>
       <c r="C174">
-        <v>-4033415.747255903</v>
+        <v>-8358071.194395951</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F174">
-        <v>-0</v>
+        <v>-11823.26222776364</v>
       </c>
       <c r="G174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>31479.95226343542</v>
+      </c>
+      <c r="H174">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I174">
+        <v>1225401.105003271</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="2">
-        <v>42193</v>
+      <c r="B175">
+        <v>1110</v>
       </c>
       <c r="C175">
-        <v>-4033415.747255903</v>
+        <v>-8369894.456623714</v>
       </c>
       <c r="D175">
-        <v>1181.236107534982</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E175">
-        <v>369608.7780476959</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F175">
-        <v>-2362.472215069964</v>
+        <v>-985.2718523136371</v>
       </c>
       <c r="G175">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>31559.9994125283</v>
+      </c>
+      <c r="H175">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I175">
+        <v>1224495.88030005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="2">
-        <v>42194</v>
+      <c r="B176">
+        <v>1111</v>
       </c>
       <c r="C176">
-        <v>-4035027.918201453</v>
+        <v>-8370879.728476028</v>
       </c>
       <c r="D176">
-        <v>430.9348380146321</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E176">
-        <v>137166.5589400574</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F176">
-        <v>10342.43611235117</v>
+        <v>11823.26222776364</v>
       </c>
       <c r="G176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>31640.69441160627</v>
+      </c>
+      <c r="H176">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I176">
+        <v>1236399.837526892</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="2">
-        <v>42195</v>
+      <c r="B177">
+        <v>1112</v>
       </c>
       <c r="C177">
-        <v>-4019214.044527629</v>
+        <v>-8359056.466248265</v>
       </c>
       <c r="D177">
-        <v>182.2331306749699</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E177">
-        <v>58469.49997706408</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F177">
-        <v>-2004.564437424669</v>
+        <v>-5418.995187725004</v>
       </c>
       <c r="G177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>31721.09247944107</v>
+      </c>
+      <c r="H177">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I177">
+        <v>1231061.240407002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="2">
-        <v>42198</v>
+      <c r="B178">
+        <v>1113</v>
       </c>
       <c r="C178">
-        <v>-4016845.013828855</v>
+        <v>-8364475.461435989</v>
       </c>
       <c r="D178">
-        <v>-564.863636419917</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E178">
-        <v>180728.1204725525</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F178">
-        <v>-12427.00000123818</v>
+        <v>10837.99037545001</v>
       </c>
       <c r="G178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>31802.0844097622</v>
+      </c>
+      <c r="H178">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I178">
+        <v>1241980.222712773</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="2">
-        <v>42199</v>
+      <c r="B179">
+        <v>1114</v>
       </c>
       <c r="C179">
-        <v>-4029272.013830093</v>
+        <v>-8353637.47106054</v>
       </c>
       <c r="D179">
-        <v>-652.8790837183377</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E179">
-        <v>211532.8231247414</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F179">
-        <v>9140.307172056728</v>
+        <v>-6896.902966195459</v>
       </c>
       <c r="G179">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>31882.69842759203</v>
+      </c>
+      <c r="H179">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I179">
+        <v>1235163.933764407</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="2">
-        <v>42200</v>
+      <c r="B180">
+        <v>1115</v>
       </c>
       <c r="C180">
-        <v>-4020131.706658036</v>
+        <v>-8360534.374026735</v>
       </c>
       <c r="D180">
-        <v>-890.2730741764741</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E180">
-        <v>285377.0339272688</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F180">
-        <v>9793.003815941214</v>
+        <v>-5418.995187725004</v>
       </c>
       <c r="G180">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>31963.0155141787</v>
+      </c>
+      <c r="H180">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I180">
+        <v>1229825.255663269</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="2">
-        <v>42201</v>
+      <c r="B181">
+        <v>1116</v>
       </c>
       <c r="C181">
-        <v>-4010434.530751136</v>
+        <v>-8365953.36921446</v>
       </c>
       <c r="D181">
-        <v>-887.5351339181541</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E181">
-        <v>283301.2147466748</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F181">
-        <v>-9762.886473099696</v>
+        <v>5418.995187725004</v>
       </c>
       <c r="G181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>32043.62953200853</v>
+      </c>
+      <c r="H181">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I181">
+        <v>1235324.864868823</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="2">
-        <v>42205</v>
+      <c r="B182">
+        <v>1117</v>
       </c>
       <c r="C182">
-        <v>-4020268.134951002</v>
+        <v>-8360534.374026735</v>
       </c>
       <c r="D182">
-        <v>-877.432601522998</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E182">
-        <v>279286.7970647702</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F182">
-        <v>-8774.326015229979</v>
+        <v>4926.359261568186</v>
       </c>
       <c r="G182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>32124.51348733214</v>
+      </c>
+      <c r="H182">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I182">
+        <v>1240332.108085715</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="2">
-        <v>42206</v>
+      <c r="B183">
+        <v>1118</v>
       </c>
       <c r="C183">
-        <v>-4028560.470617162</v>
+        <v>-8355608.014765167</v>
       </c>
       <c r="D183">
-        <v>-852.0646884140708</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E183">
-        <v>275046.4814200621</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F183">
-        <v>-23005.74658717991</v>
+        <v>13301.1700062341</v>
       </c>
       <c r="G183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>32206.12627388897</v>
+      </c>
+      <c r="H183">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I183">
+        <v>1253714.890878506</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="2">
-        <v>42207</v>
+      <c r="B184">
+        <v>1119</v>
       </c>
       <c r="C184">
-        <v>-4051123.461025523</v>
+        <v>-8342306.844758932</v>
       </c>
       <c r="D184">
-        <v>-818.0065208125799</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E184">
-        <v>263807.102962057</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F184">
-        <v>4908.03912487548</v>
+        <v>-2955.815556940911</v>
       </c>
       <c r="G184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>32287.57709794954</v>
+      </c>
+      <c r="H184">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I184">
+        <v>1250840.526145627</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="2">
-        <v>42208</v>
+      <c r="B185">
+        <v>1120</v>
       </c>
       <c r="C185">
-        <v>-4046858.749525361</v>
+        <v>-8345262.660315873</v>
       </c>
       <c r="D185">
-        <v>-768.5197804499742</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E185">
-        <v>245311.5139196317</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F185">
-        <v>768.5197804499742</v>
+        <v>-492.6359261568185</v>
       </c>
       <c r="G185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>32369.00092826072</v>
+      </c>
+      <c r="H185">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I185">
+        <v>1250429.31404978</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="2">
-        <v>42209</v>
+      <c r="B186">
+        <v>1121</v>
       </c>
       <c r="C186">
-        <v>-4047365.092894211</v>
+        <v>-8345755.29624203</v>
       </c>
       <c r="D186">
-        <v>-670.4533843499486</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E186">
-        <v>212299.0641544112</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F186">
-        <v>3352.266921749743</v>
+        <v>-2463.179630784093</v>
       </c>
       <c r="G186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>32450.28978982501</v>
+      </c>
+      <c r="H186">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I186">
+        <v>1248047.42328056</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="2">
-        <v>42212</v>
+      <c r="B187">
+        <v>1122</v>
       </c>
       <c r="C187">
-        <v>-4045104.461508712</v>
+        <v>-8348218.475872815</v>
       </c>
       <c r="D187">
-        <v>-640.1301750096549</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E187">
-        <v>200104.6927080181</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F187">
-        <v>10242.08280015448</v>
+        <v>-7882.174818509096</v>
       </c>
       <c r="G187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>32531.14675139925</v>
+      </c>
+      <c r="H187">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I187">
+        <v>1240246.105423625</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="2">
-        <v>42213</v>
+      <c r="B188">
+        <v>1123</v>
       </c>
       <c r="C188">
-        <v>-4034862.378708558</v>
+        <v>-8356100.650691324</v>
       </c>
       <c r="D188">
-        <v>-673.2513342557872</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E188">
-        <v>209246.5146866986</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F188">
-        <v>7405.76467681366</v>
+        <v>-5418.995187725004</v>
       </c>
       <c r="G188">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>32611.70678173033</v>
+      </c>
+      <c r="H188">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I188">
+        <v>1234907.670266232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="2">
-        <v>42214</v>
+      <c r="B189">
+        <v>1124</v>
       </c>
       <c r="C189">
-        <v>-4027456.614031744</v>
+        <v>-8361519.645879049</v>
       </c>
       <c r="D189">
-        <v>-838.7144909403994</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E189">
-        <v>260798.2709579172</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F189">
-        <v>23484.00574633118</v>
+        <v>-13793.80593239092</v>
       </c>
       <c r="G189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>32691.5109870788</v>
+      </c>
+      <c r="H189">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I189">
+        <v>1221193.66853919</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="2">
-        <v>42215</v>
+      <c r="B190">
+        <v>1125</v>
       </c>
       <c r="C190">
-        <v>-4004606.070411026</v>
+        <v>-8375313.451811439</v>
       </c>
       <c r="D190">
-        <v>-824.6375548156599</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E190">
-        <v>253947.1350054824</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F190">
-        <v>-4947.82532889396</v>
+        <v>2955.815556940911</v>
       </c>
       <c r="G190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>32771.47715492354</v>
+      </c>
+      <c r="H190">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I190">
+        <v>1224229.450263975</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="2">
-        <v>42216</v>
+      <c r="B191">
+        <v>1126</v>
       </c>
       <c r="C191">
-        <v>-4009553.89573992</v>
+        <v>-8372357.636254499</v>
       </c>
       <c r="D191">
-        <v>-891.6065055849153</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E191">
-        <v>275506.4102257388</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>32851.44332276829</v>
+      </c>
+      <c r="H191">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I191">
+        <v>1224309.41643182</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="2">
-        <v>42219</v>
+      <c r="B192">
+        <v>1127</v>
       </c>
       <c r="C192">
-        <v>-4009553.89573992</v>
+        <v>-8372357.636254499</v>
       </c>
       <c r="D192">
-        <v>-905.4215769615879</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E192">
-        <v>277330.6290233344</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F192">
-        <v>54325.29461769528</v>
+        <v>-29558.15556940911</v>
       </c>
       <c r="G192">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>32929.78986565033</v>
+      </c>
+      <c r="H192">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I192">
+        <v>1194829.607405292</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="2">
-        <v>42220</v>
+      <c r="B193">
+        <v>1128</v>
       </c>
       <c r="C193">
-        <v>-3955228.601122225</v>
+        <v>-8401915.791823909</v>
       </c>
       <c r="D193">
-        <v>-957.2781526121588</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E193">
-        <v>287183.4457836477</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F193">
-        <v>-957.2781526121588</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="G193">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>33008.16340228175</v>
+      </c>
+      <c r="H193">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I193">
+        <v>1195400.61686808</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="2">
-        <v>42221</v>
+      <c r="B194">
+        <v>1129</v>
       </c>
       <c r="C194">
-        <v>-3957038.760654554</v>
+        <v>-8401423.155897751</v>
       </c>
       <c r="D194">
-        <v>-939.1317402777679</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E194">
-        <v>283289.0894547887</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F194">
-        <v>26295.6887277775</v>
+        <v>-13793.80593239092</v>
       </c>
       <c r="G194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>33085.78111393058</v>
+      </c>
+      <c r="H194">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I194">
+        <v>1181684.428647338</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="2">
-        <v>42222</v>
+      <c r="B195">
+        <v>1130</v>
       </c>
       <c r="C195">
-        <v>-3933059.388672761</v>
+        <v>-8415216.961830143</v>
       </c>
       <c r="D195">
-        <v>-784.7106238788051</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E195">
-        <v>232823.6421048414</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F195">
-        <v>-21187.18684472774</v>
+        <v>13301.1700062341</v>
       </c>
       <c r="G195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>33164.12765681262</v>
+      </c>
+      <c r="H195">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I195">
+        <v>1195063.945196454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="2">
-        <v>42223</v>
+      <c r="B196">
+        <v>1131</v>
       </c>
       <c r="C196">
-        <v>-3953414.581049086</v>
+        <v>-8401915.791823909</v>
       </c>
       <c r="D196">
-        <v>-738.4887089675317</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E196">
-        <v>219331.1465633569</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F196">
-        <v>-738.4887089675317</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="G196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>33242.50119344404</v>
+      </c>
+      <c r="H196">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I196">
+        <v>1195634.954659243</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="2">
-        <v>42226</v>
+      <c r="B197">
+        <v>1132</v>
       </c>
       <c r="C197">
-        <v>-3955546.728140891</v>
+        <v>-8401423.155897751</v>
       </c>
       <c r="D197">
-        <v>-506.2123118278571</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E197">
-        <v>151180.3069273895</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F197">
-        <v>11642.88317204071</v>
+        <v>-11330.62630160683</v>
       </c>
       <c r="G197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>33320.25387383976</v>
+      </c>
+      <c r="H197">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I197">
+        <v>1184382.081038031</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="2">
-        <v>42227</v>
+      <c r="B198">
+        <v>1133</v>
       </c>
       <c r="C198">
-        <v>-3942820.150728852</v>
+        <v>-8412753.782199359</v>
       </c>
       <c r="D198">
-        <v>-422.8512164433657</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E198">
-        <v>126221.0881083447</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F198">
-        <v>5497.065813763755</v>
+        <v>-6404.267040038641</v>
       </c>
       <c r="G198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>33397.65563549355</v>
+      </c>
+      <c r="H198">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I198">
+        <v>1178055.215759647</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="2">
-        <v>42228</v>
+      <c r="B199">
+        <v>1134</v>
       </c>
       <c r="C199">
-        <v>-3945842.93817571</v>
+        <v>-8419158.049239397</v>
       </c>
       <c r="D199">
-        <v>-172.2672970133122</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E199">
-        <v>50853.30607832976</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F199">
-        <v>5684.820801439303</v>
+        <v>-16256.98556317501</v>
       </c>
       <c r="G199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>33474.16660341786</v>
+      </c>
+      <c r="H199">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I199">
+        <v>1161874.741164395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="2">
-        <v>42229</v>
+      <c r="B200">
+        <v>1135</v>
       </c>
       <c r="C200">
-        <v>-3934473.296572832</v>
+        <v>-8435415.034802573</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>22661.25260321365</v>
       </c>
       <c r="G200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>33551.91928381357</v>
+      </c>
+      <c r="H200">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I200">
+        <v>1184613.746448005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="2">
-        <v>42230</v>
+      <c r="B201">
+        <v>1136</v>
       </c>
       <c r="C201">
-        <v>-3934473.296572832</v>
+        <v>-8412753.782199359</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>492.6359261568185</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>168259.8005788614</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>8867.446670822734</v>
       </c>
       <c r="G201">
-        <v>4</v>
+        <v>33630.1578516981</v>
+      </c>
+      <c r="H201">
+        <v>270658.719447759</v>
+      </c>
+      <c r="I201">
+        <v>1193559.431686712</v>
       </c>
     </row>
   </sheetData>

--- a/HoldingPlot1136.xlsx
+++ b/HoldingPlot1136.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="12">
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>Close out</t>
   </si>
   <si>
     <t>Profit</t>
@@ -28,16 +31,25 @@
     <t>Deposit</t>
   </si>
   <si>
-    <t>HoldProfit</t>
-  </si>
-  <si>
     <t>riskfree</t>
   </si>
   <si>
     <t>cost</t>
   </si>
   <si>
+    <t>closeProfit</t>
+  </si>
+  <si>
     <t>totalAsset</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>price on hand</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -395,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,5805 +438,7614 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>937</v>
       </c>
-      <c r="C2">
-        <v>-8370387.092549875</v>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>492.6359261568185</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>168259.8005788614</v>
+        <v>360</v>
       </c>
       <c r="F2">
-        <v>19212.80112011592</v>
+        <v>1800000</v>
       </c>
       <c r="G2">
-        <v>17489.71105582426</v>
+        <v>104814.6040976616</v>
       </c>
       <c r="H2">
-        <v>270658.719447759</v>
+        <v>1702.24</v>
       </c>
       <c r="I2">
-        <v>1230131.028989615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>378000</v>
+      </c>
+      <c r="J2">
+        <v>10481112.36409766</v>
+      </c>
+      <c r="K2">
+        <v>8303112.364097662</v>
+      </c>
+      <c r="L2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>938</v>
       </c>
-      <c r="C3">
-        <v>-8351174.291429759</v>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>492.6359261568185</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>168259.8005788614</v>
+        <v>360</v>
       </c>
       <c r="F3">
-        <v>17734.89334164547</v>
+        <v>1800000</v>
       </c>
       <c r="G3">
-        <v>17571.8097298699</v>
+        <v>105269.5691587081</v>
       </c>
       <c r="H3">
-        <v>270658.719447759</v>
+        <v>1702.24</v>
       </c>
       <c r="I3">
-        <v>1247948.021005307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>828000</v>
+      </c>
+      <c r="J3">
+        <v>10931567.32915871</v>
+      </c>
+      <c r="K3">
+        <v>8303567.329158708</v>
+      </c>
+      <c r="L3">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>939</v>
       </c>
-      <c r="C4">
-        <v>-8333439.398088113</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>492.6359261568185</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>168259.8005788614</v>
+        <v>360</v>
       </c>
       <c r="F4">
-        <v>-2463.179630784093</v>
+        <v>1800000</v>
       </c>
       <c r="G4">
-        <v>17653.77343516866</v>
+        <v>105724.5591493469</v>
       </c>
       <c r="H4">
-        <v>270658.719447759</v>
+        <v>1702.24</v>
       </c>
       <c r="I4">
-        <v>1245566.805079821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1269000</v>
+      </c>
+      <c r="J4">
+        <v>11373022.31914935</v>
+      </c>
+      <c r="K4">
+        <v>8304022.319149347</v>
+      </c>
+      <c r="L4">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>940</v>
       </c>
-      <c r="C5">
-        <v>-8335902.577718898</v>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>492.6359261568185</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>168259.8005788614</v>
+        <v>360</v>
       </c>
       <c r="F5">
-        <v>11330.62630160683</v>
+        <v>1800000</v>
       </c>
       <c r="G5">
-        <v>17736.35799670311</v>
+        <v>106179.5740709441</v>
       </c>
       <c r="H5">
-        <v>270658.719447759</v>
+        <v>1702.24</v>
       </c>
       <c r="I5">
-        <v>1256980.015942963</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1305000</v>
+      </c>
+      <c r="J5">
+        <v>11409477.33407094</v>
+      </c>
+      <c r="K5">
+        <v>8304477.334070943</v>
+      </c>
+      <c r="L5">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>941</v>
       </c>
-      <c r="C6">
-        <v>-8324571.951417291</v>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>492.6359261568185</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>168259.8005788614</v>
+        <v>360</v>
       </c>
       <c r="F6">
-        <v>11330.62630160683</v>
+        <v>1800000</v>
       </c>
       <c r="G6">
-        <v>17819.56341447328</v>
+        <v>106634.6139248658</v>
       </c>
       <c r="H6">
-        <v>270658.719447759</v>
+        <v>1702.24</v>
       </c>
       <c r="I6">
-        <v>1268393.84766234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1620000</v>
+      </c>
+      <c r="J6">
+        <v>11724932.37392487</v>
+      </c>
+      <c r="K6">
+        <v>8304932.373924866</v>
+      </c>
+      <c r="L6">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>942</v>
       </c>
-      <c r="C7">
-        <v>-8313241.325115683</v>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E7">
-        <v>168259.8005788614</v>
+        <v>-746</v>
       </c>
       <c r="F7">
-        <v>-2955.815556940911</v>
+        <v>3730000</v>
       </c>
       <c r="G7">
-        <v>17902.60686974717</v>
+        <v>107064.5404387247</v>
       </c>
       <c r="H7">
-        <v>270658.719447759</v>
+        <v>6475.736</v>
       </c>
       <c r="I7">
-        <v>1265521.075560673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-634100</v>
+      </c>
+      <c r="J7">
+        <v>10942488.80443873</v>
+      </c>
+      <c r="K7">
+        <v>7846588.804438725</v>
+      </c>
+      <c r="L7">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>943</v>
       </c>
-      <c r="C8">
-        <v>-8316197.140672624</v>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E8">
-        <v>168259.8005788614</v>
+        <v>-746</v>
       </c>
       <c r="F8">
-        <v>-14779.07778470456</v>
+        <v>3730000</v>
       </c>
       <c r="G8">
-        <v>17984.8405125397</v>
+        <v>107494.4905102008</v>
       </c>
       <c r="H8">
-        <v>270658.719447759</v>
+        <v>6475.736</v>
       </c>
       <c r="I8">
-        <v>1250824.231418761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>55950</v>
+      </c>
+      <c r="J8">
+        <v>11632968.7545102</v>
+      </c>
+      <c r="K8">
+        <v>7847018.754510202</v>
+      </c>
+      <c r="L8">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>944</v>
       </c>
-      <c r="C9">
-        <v>-8330976.218457329</v>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E9">
-        <v>168259.8005788614</v>
+        <v>-746</v>
       </c>
       <c r="F9">
-        <v>-20690.70889858638</v>
+        <v>3730000</v>
       </c>
       <c r="G9">
-        <v>18065.94041785835</v>
+        <v>107924.464140585</v>
       </c>
       <c r="H9">
-        <v>270658.719447759</v>
+        <v>6475.736</v>
       </c>
       <c r="I9">
-        <v>1230214.622425493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>335700</v>
+      </c>
+      <c r="J9">
+        <v>11913148.72814059</v>
+      </c>
+      <c r="K9">
+        <v>7847448.728140585</v>
+      </c>
+      <c r="L9">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>945</v>
       </c>
-      <c r="C10">
-        <v>-8351666.927355915</v>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E10">
-        <v>168259.8005788614</v>
+        <v>-746</v>
       </c>
       <c r="F10">
-        <v>-23646.52445552729</v>
+        <v>3730000</v>
       </c>
       <c r="G10">
-        <v>18145.74462320682</v>
+        <v>108354.461331168</v>
       </c>
       <c r="H10">
-        <v>270658.719447759</v>
+        <v>6475.736</v>
       </c>
       <c r="I10">
-        <v>1206647.902175315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>764650</v>
+      </c>
+      <c r="J10">
+        <v>12342528.72533117</v>
+      </c>
+      <c r="K10">
+        <v>7847878.725331169</v>
+      </c>
+      <c r="L10">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>946</v>
       </c>
-      <c r="C11">
-        <v>-8375313.451811442</v>
+      <c r="C11" t="s">
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E11">
-        <v>168259.8005788614</v>
+        <v>-746</v>
       </c>
       <c r="F11">
-        <v>15271.71371086138</v>
+        <v>3730000</v>
       </c>
       <c r="G11">
-        <v>18226.38563478603</v>
+        <v>108784.4820832409</v>
       </c>
       <c r="H11">
-        <v>270658.719447759</v>
+        <v>6475.736</v>
       </c>
       <c r="I11">
-        <v>1222000.256897755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>969800</v>
+      </c>
+      <c r="J11">
+        <v>12548108.74608324</v>
+      </c>
+      <c r="K11">
+        <v>7848308.746083241</v>
+      </c>
+      <c r="L11">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>947</v>
       </c>
-      <c r="C12">
-        <v>-8360041.738100581</v>
+      <c r="C12" t="s">
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E12">
-        <v>168259.8005788614</v>
+        <v>-746</v>
       </c>
       <c r="F12">
-        <v>16749.62148933183</v>
+        <v>3730000</v>
       </c>
       <c r="G12">
-        <v>18307.94443384411</v>
+        <v>109214.5263980948</v>
       </c>
       <c r="H12">
-        <v>270658.719447759</v>
+        <v>6475.736</v>
       </c>
       <c r="I12">
-        <v>1238831.437186145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>410300</v>
+      </c>
+      <c r="J12">
+        <v>11989038.79039809</v>
+      </c>
+      <c r="K12">
+        <v>7848738.790398095</v>
+      </c>
+      <c r="L12">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>948</v>
       </c>
-      <c r="C13">
-        <v>-8343292.116611249</v>
+      <c r="C13" t="s">
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E13">
-        <v>168259.8005788614</v>
+        <v>-746</v>
       </c>
       <c r="F13">
-        <v>-9852.718523136371</v>
+        <v>3730000</v>
       </c>
       <c r="G13">
-        <v>18388.96335791461</v>
+        <v>109644.5942770207</v>
       </c>
       <c r="H13">
-        <v>270658.719447759</v>
+        <v>6475.736</v>
       </c>
       <c r="I13">
-        <v>1229059.73758708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>130550</v>
+      </c>
+      <c r="J13">
+        <v>11709718.85827702</v>
+      </c>
+      <c r="K13">
+        <v>7849168.858277021</v>
+      </c>
+      <c r="L13">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>949</v>
       </c>
-      <c r="C14">
-        <v>-8353144.835134385</v>
+      <c r="C14" t="s">
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E14">
-        <v>168259.8005788614</v>
+        <v>-843</v>
       </c>
       <c r="F14">
-        <v>-2955.815556940911</v>
+        <v>4215000</v>
       </c>
       <c r="G14">
-        <v>18469.82031948885</v>
+        <v>110048.0882256387</v>
       </c>
       <c r="H14">
-        <v>270658.719447759</v>
+        <v>6880.032</v>
       </c>
       <c r="I14">
-        <v>1226184.778991713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>832150.0000000005</v>
+      </c>
+      <c r="J14">
+        <v>12411318.05622564</v>
+      </c>
+      <c r="K14">
+        <v>7364168.056225639</v>
+      </c>
+      <c r="L14">
+        <v>2149.485172004745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>950</v>
       </c>
-      <c r="C15">
-        <v>-8356100.650691326</v>
+      <c r="C15" t="s">
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E15">
-        <v>168259.8005788614</v>
+        <v>-1015</v>
       </c>
       <c r="F15">
-        <v>-11823.26222776364</v>
+        <v>5075000</v>
       </c>
       <c r="G15">
-        <v>18550.029431078</v>
+        <v>110404.4420908565</v>
       </c>
       <c r="H15">
-        <v>270658.719447759</v>
+        <v>7590.048</v>
       </c>
       <c r="I15">
-        <v>1214441.725875539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>938849.9999999992</v>
+      </c>
+      <c r="J15">
+        <v>12517664.39409086</v>
+      </c>
+      <c r="K15">
+        <v>6503814.394090855</v>
+      </c>
+      <c r="L15">
+        <v>2134.999014778325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>951</v>
       </c>
-      <c r="C16">
-        <v>-8367923.912919089</v>
+      <c r="C16" t="s">
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E16">
-        <v>168259.8005788614</v>
+        <v>-1015</v>
       </c>
       <c r="F16">
-        <v>7882.174818509096</v>
+        <v>5075000</v>
       </c>
       <c r="G16">
-        <v>18630.67044265721</v>
+        <v>110760.8154823135</v>
       </c>
       <c r="H16">
-        <v>270658.719447759</v>
+        <v>7590.048</v>
       </c>
       <c r="I16">
-        <v>1222404.541705627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>1065724.999999999</v>
+      </c>
+      <c r="J16">
+        <v>12644895.76748231</v>
+      </c>
+      <c r="K16">
+        <v>6504170.767482312</v>
+      </c>
+      <c r="L16">
+        <v>2134.999014778325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
         <v>952</v>
       </c>
-      <c r="C17">
-        <v>-8360041.73810058</v>
+      <c r="C17" t="s">
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E17">
-        <v>168259.8005788614</v>
+        <v>-1015</v>
       </c>
       <c r="F17">
-        <v>11823.26222776364</v>
+        <v>5075000</v>
       </c>
       <c r="G17">
-        <v>18711.95930422151</v>
+        <v>111117.2084010797</v>
       </c>
       <c r="H17">
-        <v>270658.719447759</v>
+        <v>7590.048</v>
       </c>
       <c r="I17">
-        <v>1234309.092794955</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>507474.9999999992</v>
+      </c>
+      <c r="J17">
+        <v>12087002.16040108</v>
+      </c>
+      <c r="K17">
+        <v>6504527.16040108</v>
+      </c>
+      <c r="L17">
+        <v>2134.999014778325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
         <v>953</v>
       </c>
-      <c r="C18">
-        <v>-8348218.475872817</v>
+      <c r="C18" t="s">
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E18">
-        <v>168259.8005788614</v>
+        <v>-1015</v>
       </c>
       <c r="F18">
-        <v>1477.907778470455</v>
+        <v>5075000</v>
       </c>
       <c r="G18">
-        <v>18793.32914703393</v>
+        <v>111473.620848225</v>
       </c>
       <c r="H18">
-        <v>270658.719447759</v>
+        <v>7590.048</v>
       </c>
       <c r="I18">
-        <v>1235868.370416238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>101474.9999999992</v>
+      </c>
+      <c r="J18">
+        <v>11681358.57284823</v>
+      </c>
+      <c r="K18">
+        <v>6504883.572848225</v>
+      </c>
+      <c r="L18">
+        <v>2134.999014778325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
         <v>954</v>
       </c>
-      <c r="C19">
-        <v>-8346740.568094346</v>
+      <c r="C19" t="s">
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>492.6359261568185</v>
+        <v>1476000</v>
       </c>
       <c r="E19">
-        <v>168259.8005788614</v>
+        <v>-1015</v>
       </c>
       <c r="F19">
-        <v>-8867.446670822734</v>
+        <v>5075000</v>
       </c>
       <c r="G19">
-        <v>18874.21310235755</v>
+        <v>111830.0528248194</v>
       </c>
       <c r="H19">
-        <v>270658.719447759</v>
+        <v>7590.048</v>
       </c>
       <c r="I19">
-        <v>1227081.807700739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>608974.9999999992</v>
+      </c>
+      <c r="J19">
+        <v>12189215.00482482</v>
+      </c>
+      <c r="K19">
+        <v>6505240.004824819</v>
+      </c>
+      <c r="L19">
+        <v>2134.999014778325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
         <v>955</v>
       </c>
-      <c r="C20">
-        <v>-8355608.014765169</v>
+      <c r="C20" t="s">
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>492.6359261568185</v>
+        <v>1786260.443349753</v>
       </c>
       <c r="E20">
-        <v>168259.8005788614</v>
+        <v>-424</v>
       </c>
       <c r="F20">
-        <v>2463.179630784093</v>
+        <v>2120000</v>
       </c>
       <c r="G20">
-        <v>18955.23202642805</v>
+        <v>112365.285794692</v>
       </c>
       <c r="H20">
-        <v>270658.719447759</v>
+        <v>10088.796</v>
       </c>
       <c r="I20">
-        <v>1229626.006255594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>222589.556650246</v>
+      </c>
+      <c r="J20">
+        <v>12111126.48979469</v>
+      </c>
+      <c r="K20">
+        <v>9768536.933144445</v>
+      </c>
+      <c r="L20">
+        <v>2134.999014778325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
         <v>956</v>
       </c>
-      <c r="C21">
-        <v>-8353144.835134384</v>
+      <c r="C21" t="s">
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>492.6359261568185</v>
+        <v>1786260.443349753</v>
       </c>
       <c r="E21">
-        <v>168259.8005788614</v>
+        <v>-1299</v>
       </c>
       <c r="F21">
-        <v>-15764.34963701819</v>
+        <v>6495000</v>
       </c>
       <c r="G21">
-        <v>19035.38715051845</v>
+        <v>112660.6238595218</v>
       </c>
       <c r="H21">
-        <v>270658.719447759</v>
+        <v>13706.046</v>
       </c>
       <c r="I21">
-        <v>1213941.811742666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-545735.4433497515</v>
+      </c>
+      <c r="J21">
+        <v>11339479.57785952</v>
+      </c>
+      <c r="K21">
+        <v>5390215.021209273</v>
+      </c>
+      <c r="L21">
+        <v>2089.195213445735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
         <v>957</v>
       </c>
-      <c r="C22">
-        <v>-8368909.184771403</v>
+      <c r="C22" t="s">
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>492.6359261568185</v>
+        <v>1789827.969070563</v>
       </c>
       <c r="E22">
-        <v>168259.8005788614</v>
+        <v>-568</v>
       </c>
       <c r="F22">
-        <v>2955.815556940911</v>
+        <v>2840000</v>
       </c>
       <c r="G22">
-        <v>19115.70423710512</v>
+        <v>113156.2802117919</v>
       </c>
       <c r="H22">
-        <v>270658.719447759</v>
+        <v>16760.164</v>
       </c>
       <c r="I22">
-        <v>1216977.944386193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>2772.030929438915</v>
+      </c>
+      <c r="J22">
+        <v>11888996.11621179</v>
+      </c>
+      <c r="K22">
+        <v>9046224.085282354</v>
+      </c>
+      <c r="L22">
+        <v>2089.195213445735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
         <v>958</v>
       </c>
-      <c r="C23">
-        <v>-8365953.369214462</v>
+      <c r="C23" t="s">
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>492.6359261568185</v>
+        <v>1789827.969070563</v>
       </c>
       <c r="E23">
-        <v>168259.8005788614</v>
+        <v>-1173</v>
       </c>
       <c r="F23">
-        <v>10345.35444929319</v>
+        <v>5865000</v>
       </c>
       <c r="G23">
-        <v>19196.58819242873</v>
+        <v>113486.0729222184</v>
       </c>
       <c r="H23">
-        <v>270658.719447759</v>
+        <v>19267.284</v>
       </c>
       <c r="I23">
-        <v>1227404.18279081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-694227.9690705584</v>
+      </c>
+      <c r="J23">
+        <v>11189818.78892222</v>
+      </c>
+      <c r="K23">
+        <v>6019046.757992782</v>
+      </c>
+      <c r="L23">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
         <v>959</v>
       </c>
-      <c r="C24">
-        <v>-8355608.014765169</v>
+      <c r="C24" t="s">
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E24">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F24">
-        <v>-15764.34963701819</v>
+        <v>2655000</v>
       </c>
       <c r="G24">
-        <v>19276.60834777223</v>
+        <v>113976.9629563039</v>
       </c>
       <c r="H24">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I24">
-        <v>1211719.853309135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-221341.8811393576</v>
+      </c>
+      <c r="J24">
+        <v>11392892.13095631</v>
+      </c>
+      <c r="K24">
+        <v>8959234.012095666</v>
+      </c>
+      <c r="L24">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
         <v>960</v>
       </c>
-      <c r="C25">
-        <v>-8371372.364402187</v>
+      <c r="C25" t="s">
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E25">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F25">
-        <v>-1970.543704627274</v>
+        <v>2655000</v>
       </c>
       <c r="G25">
-        <v>19356.52052811822</v>
+        <v>114467.8798884736</v>
       </c>
       <c r="H25">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I25">
-        <v>1209829.221784854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>535333.1188606423</v>
+      </c>
+      <c r="J25">
+        <v>12150058.04788848</v>
+      </c>
+      <c r="K25">
+        <v>8959724.929027835</v>
+      </c>
+      <c r="L25">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
         <v>961</v>
       </c>
-      <c r="C26">
-        <v>-8373342.908106814</v>
+      <c r="C26" t="s">
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E26">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F26">
-        <v>-6404.267040038641</v>
+        <v>2655000</v>
       </c>
       <c r="G26">
-        <v>19436.0817897223</v>
+        <v>114958.8237202011</v>
       </c>
       <c r="H26">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I26">
-        <v>1203504.51600642</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>1172533.118860642</v>
+      </c>
+      <c r="J26">
+        <v>12787748.99172021</v>
+      </c>
+      <c r="K26">
+        <v>8960215.872859564</v>
+      </c>
+      <c r="L26">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
         <v>962</v>
       </c>
-      <c r="C27">
-        <v>-8379747.175146853</v>
+      <c r="C27" t="s">
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E27">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F27">
-        <v>985.2718523136371</v>
+        <v>2655000</v>
       </c>
       <c r="G27">
-        <v>19515.69703882512</v>
+        <v>115449.7944529605</v>
       </c>
       <c r="H27">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I27">
-        <v>1204569.403107836</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>960133.1188606423</v>
+      </c>
+      <c r="J27">
+        <v>12575839.96245296</v>
+      </c>
+      <c r="K27">
+        <v>8960706.843592322</v>
+      </c>
+      <c r="L27">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
         <v>963</v>
       </c>
-      <c r="C28">
-        <v>-8378761.903294539</v>
+      <c r="C28" t="s">
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E28">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F28">
-        <v>31528.69927403639</v>
+        <v>2655000</v>
       </c>
       <c r="G28">
-        <v>19597.03988788817</v>
+        <v>115940.7920882259</v>
       </c>
       <c r="H28">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I28">
-        <v>1236179.445230935</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>508783.1188606424</v>
+      </c>
+      <c r="J28">
+        <v>12124980.96008823</v>
+      </c>
+      <c r="K28">
+        <v>8961197.841227587</v>
+      </c>
+      <c r="L28">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
         <v>964</v>
       </c>
-      <c r="C29">
-        <v>-8347233.204020503</v>
+      <c r="C29" t="s">
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E29">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F29">
-        <v>-4926.359261568186</v>
+        <v>2655000</v>
       </c>
       <c r="G29">
-        <v>19678.11279945743</v>
+        <v>116431.8166274712</v>
       </c>
       <c r="H29">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I29">
-        <v>1231334.158880936</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>442408.1188606424</v>
+      </c>
+      <c r="J29">
+        <v>12059096.98462747</v>
+      </c>
+      <c r="K29">
+        <v>8961688.865766833</v>
+      </c>
+      <c r="L29">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
         <v>965</v>
       </c>
-      <c r="C30">
-        <v>-8352159.563282072</v>
+      <c r="C30" t="s">
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E30">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F30">
-        <v>985.2718523136371</v>
+        <v>2655000</v>
       </c>
       <c r="G30">
-        <v>19759.23969852546</v>
+        <v>116922.8680721708</v>
       </c>
       <c r="H30">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I30">
-        <v>1232400.557632318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>561883.1188606423</v>
+      </c>
+      <c r="J30">
+        <v>12179063.03607217</v>
+      </c>
+      <c r="K30">
+        <v>8962179.917211533</v>
+      </c>
+      <c r="L30">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
         <v>966</v>
       </c>
-      <c r="C31">
-        <v>-8351174.291429758</v>
+      <c r="C31" t="s">
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E31">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F31">
-        <v>-11823.26222776364</v>
+        <v>2655000</v>
       </c>
       <c r="G31">
-        <v>19839.71874760839</v>
+        <v>117413.9464237988</v>
       </c>
       <c r="H31">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I31">
-        <v>1220657.774453637</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>203458.1188606424</v>
+      </c>
+      <c r="J31">
+        <v>11821129.1144238</v>
+      </c>
+      <c r="K31">
+        <v>8962670.995563161</v>
+      </c>
+      <c r="L31">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
         <v>967</v>
       </c>
-      <c r="C32">
-        <v>-8362997.553657521</v>
+      <c r="C32" t="s">
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E32">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F32">
-        <v>-14286.44185854774</v>
+        <v>2655000</v>
       </c>
       <c r="G32">
-        <v>19919.41497795936</v>
+        <v>117905.0516838297</v>
       </c>
       <c r="H32">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I32">
-        <v>1206451.02882544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>654808.1188606423</v>
+      </c>
+      <c r="J32">
+        <v>12272970.21968383</v>
+      </c>
+      <c r="K32">
+        <v>8963162.100823192</v>
+      </c>
+      <c r="L32">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
         <v>968</v>
       </c>
-      <c r="C33">
-        <v>-8377283.995516069</v>
+      <c r="C33" t="s">
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E33">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F33">
-        <v>14286.44185854774</v>
+        <v>2655000</v>
       </c>
       <c r="G33">
-        <v>19999.89402704229</v>
+        <v>118396.1838537378</v>
       </c>
       <c r="H33">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I33">
-        <v>1220817.949733071</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>522058.1188606424</v>
+      </c>
+      <c r="J33">
+        <v>12140711.35185374</v>
+      </c>
+      <c r="K33">
+        <v>8963653.2329931</v>
+      </c>
+      <c r="L33">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
         <v>969</v>
       </c>
-      <c r="C34">
-        <v>-8362997.553657521</v>
+      <c r="C34" t="s">
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E34">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F34">
-        <v>15271.71371086138</v>
+        <v>2655000</v>
       </c>
       <c r="G34">
-        <v>20081.20988235596</v>
+        <v>118887.3429349977</v>
       </c>
       <c r="H34">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I34">
-        <v>1236170.979299246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>283108.1188606424</v>
+      </c>
+      <c r="J34">
+        <v>11902252.510935</v>
+      </c>
+      <c r="K34">
+        <v>8964144.39207436</v>
+      </c>
+      <c r="L34">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
         <v>970</v>
       </c>
-      <c r="C35">
-        <v>-8347725.83994666</v>
+      <c r="C35" t="s">
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E35">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F35">
-        <v>-12808.53408007728</v>
+        <v>2655000</v>
       </c>
       <c r="G35">
-        <v>20161.82390018579</v>
+        <v>119378.5289290839</v>
       </c>
       <c r="H35">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I35">
-        <v>1223443.059236999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>17608.11886064236</v>
+      </c>
+      <c r="J35">
+        <v>11637243.69692909</v>
+      </c>
+      <c r="K35">
+        <v>8964635.578068446</v>
+      </c>
+      <c r="L35">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
         <v>971</v>
       </c>
-      <c r="C36">
-        <v>-8360534.374026737</v>
+      <c r="C36" t="s">
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E36">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F36">
-        <v>-8867.446670822734</v>
+        <v>2655000</v>
       </c>
       <c r="G36">
-        <v>20241.95203052681</v>
+        <v>119869.7418374713</v>
       </c>
       <c r="H36">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I36">
-        <v>1214655.740696517</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>415858.1188606424</v>
+      </c>
+      <c r="J36">
+        <v>12035984.90983748</v>
+      </c>
+      <c r="K36">
+        <v>8965126.790976834</v>
+      </c>
+      <c r="L36">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
         <v>972</v>
       </c>
-      <c r="C37">
-        <v>-8369401.82069756</v>
+      <c r="C37" t="s">
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E37">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F37">
-        <v>-13793.80593239092</v>
+        <v>2655000</v>
       </c>
       <c r="G37">
-        <v>20321.32433588523</v>
+        <v>120360.9816616344</v>
       </c>
       <c r="H37">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I37">
-        <v>1200941.307069485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>933583.1188606423</v>
+      </c>
+      <c r="J37">
+        <v>12554201.14966164</v>
+      </c>
+      <c r="K37">
+        <v>8965618.030800996</v>
+      </c>
+      <c r="L37">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
         <v>973</v>
       </c>
-      <c r="C38">
-        <v>-8383195.62662995</v>
+      <c r="C38" t="s">
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E38">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F38">
-        <v>10345.35444929319</v>
+        <v>2655000</v>
       </c>
       <c r="G38">
-        <v>20401.2635099806</v>
+        <v>120852.2484030481</v>
       </c>
       <c r="H38">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I38">
-        <v>1211366.600692874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>1132708.118860642</v>
+      </c>
+      <c r="J38">
+        <v>12753817.41640305</v>
+      </c>
+      <c r="K38">
+        <v>8966109.29754241</v>
+      </c>
+      <c r="L38">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
         <v>974</v>
       </c>
-      <c r="C39">
-        <v>-8372850.272180657</v>
+      <c r="C39" t="s">
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E39">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F39">
-        <v>3941.087409254548</v>
+        <v>2655000</v>
       </c>
       <c r="G39">
-        <v>20481.418634071</v>
+        <v>121343.5420631874</v>
       </c>
       <c r="H39">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I39">
-        <v>1215387.843226218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>774283.1188606423</v>
+      </c>
+      <c r="J39">
+        <v>12395883.71006319</v>
+      </c>
+      <c r="K39">
+        <v>8966600.59120255</v>
+      </c>
+      <c r="L39">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
         <v>975</v>
       </c>
-      <c r="C40">
-        <v>-8368909.184771403</v>
+      <c r="C40" t="s">
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E40">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F40">
-        <v>8374.810744665914</v>
+        <v>2655000</v>
       </c>
       <c r="G40">
-        <v>20562.03265190083</v>
+        <v>121834.8626435273</v>
       </c>
       <c r="H40">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I40">
-        <v>1223843.267988714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>893758.1188606423</v>
+      </c>
+      <c r="J40">
+        <v>12515850.03064353</v>
+      </c>
+      <c r="K40">
+        <v>8967091.911782889</v>
+      </c>
+      <c r="L40">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
         <v>976</v>
       </c>
-      <c r="C41">
-        <v>-8360534.374026737</v>
+      <c r="C41" t="s">
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E41">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F41">
-        <v>1477.907778470455</v>
+        <v>2655000</v>
       </c>
       <c r="G41">
-        <v>20642.7276509788</v>
+        <v>122326.2101455428</v>
       </c>
       <c r="H41">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I41">
-        <v>1225401.870766263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>628258.1188606423</v>
+      </c>
+      <c r="J41">
+        <v>12250841.37814555</v>
+      </c>
+      <c r="K41">
+        <v>8967583.259284904</v>
+      </c>
+      <c r="L41">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
         <v>977</v>
       </c>
-      <c r="C42">
-        <v>-8359056.466248266</v>
+      <c r="C42" t="s">
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E42">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F42">
-        <v>21183.3448247432</v>
+        <v>2655000</v>
       </c>
       <c r="G42">
-        <v>20724.58338128003</v>
+        <v>122817.5845707091</v>
       </c>
       <c r="H42">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I42">
-        <v>1246667.071321307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>83983.11886064235</v>
+      </c>
+      <c r="J42">
+        <v>11707057.75257071</v>
+      </c>
+      <c r="K42">
+        <v>8968074.633710071</v>
+      </c>
+      <c r="L42">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
         <v>978</v>
       </c>
-      <c r="C43">
-        <v>-8337873.121423523</v>
+      <c r="C43" t="s">
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E43">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F43">
-        <v>2463.179630784093</v>
+        <v>2655000</v>
       </c>
       <c r="G43">
-        <v>20806.57408032817</v>
+        <v>123308.9859205014</v>
       </c>
       <c r="H43">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I43">
-        <v>1249212.24165114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-221341.8811393576</v>
+      </c>
+      <c r="J43">
+        <v>11402224.15392051</v>
+      </c>
+      <c r="K43">
+        <v>8968566.035059864</v>
+      </c>
+      <c r="L43">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
         <v>979</v>
       </c>
-      <c r="C44">
-        <v>-8335409.941792739</v>
+      <c r="C44" t="s">
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E44">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F44">
-        <v>24139.16038168411</v>
+        <v>2655000</v>
       </c>
       <c r="G44">
-        <v>20889.88747309584</v>
+        <v>123800.4141963951</v>
       </c>
       <c r="H44">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I44">
-        <v>1273434.715425591</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-407191.8811393576</v>
+      </c>
+      <c r="J44">
+        <v>11216865.5821964</v>
+      </c>
+      <c r="K44">
+        <v>8969057.463335756</v>
+      </c>
+      <c r="L44">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
         <v>980</v>
       </c>
-      <c r="C45">
-        <v>-8311270.781411055</v>
+      <c r="C45" t="s">
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E45">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F45">
-        <v>-3941.087409254548</v>
+        <v>2655000</v>
       </c>
       <c r="G45">
-        <v>20972.98491586849</v>
+        <v>124291.8693998656</v>
       </c>
       <c r="H45">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I45">
-        <v>1269576.72545911</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>-1150591.881139358</v>
+      </c>
+      <c r="J45">
+        <v>10473957.03739987</v>
+      </c>
+      <c r="K45">
+        <v>8969548.918539228</v>
+      </c>
+      <c r="L45">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
         <v>981</v>
       </c>
-      <c r="C46">
-        <v>-8315211.868820309</v>
+      <c r="C46" t="s">
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E46">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F46">
-        <v>-7882.174818509096</v>
+        <v>2655000</v>
       </c>
       <c r="G46">
-        <v>21055.65045865108</v>
+        <v>124783.3515323883</v>
       </c>
       <c r="H46">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I46">
-        <v>1261777.216183383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>-1110766.881139358</v>
+      </c>
+      <c r="J46">
+        <v>10514273.51953239</v>
+      </c>
+      <c r="K46">
+        <v>8970040.40067175</v>
+      </c>
+      <c r="L46">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
         <v>982</v>
       </c>
-      <c r="C47">
-        <v>-8323094.043638818</v>
+      <c r="C47" t="s">
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E47">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F47">
-        <v>-4926.359261568186</v>
+        <v>2655000</v>
       </c>
       <c r="G47">
-        <v>21138.04606393989</v>
+        <v>125274.8605954388</v>
       </c>
       <c r="H47">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I47">
-        <v>1256933.252527103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-885091.8811393577</v>
+      </c>
+      <c r="J47">
+        <v>10740440.02859544</v>
+      </c>
+      <c r="K47">
+        <v>8970531.9097348</v>
+      </c>
+      <c r="L47">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
         <v>983</v>
       </c>
-      <c r="C48">
-        <v>-8328020.402900387</v>
+      <c r="C48" t="s">
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E48">
-        <v>168259.8005788614</v>
+        <v>-531</v>
       </c>
       <c r="F48">
-        <v>18720.1651939591</v>
+        <v>2655000</v>
       </c>
       <c r="G48">
-        <v>21221.46743170508</v>
+        <v>125766.3965904927</v>
       </c>
       <c r="H48">
-        <v>270658.719447759</v>
+        <v>21959.832</v>
       </c>
       <c r="I48">
-        <v>1275736.839088828</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-845266.8811393577</v>
+      </c>
+      <c r="J48">
+        <v>10780756.5645905</v>
+      </c>
+      <c r="K48">
+        <v>8971023.445729855</v>
+      </c>
+      <c r="L48">
+        <v>2080.326411966903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
         <v>984</v>
       </c>
-      <c r="C49">
-        <v>-8309300.237706427</v>
+      <c r="C49" t="s">
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E49">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F49">
-        <v>-9360.082596979551</v>
+        <v>5235000</v>
       </c>
       <c r="G49">
-        <v>21304.37591823208</v>
+        <v>126116.4697178204</v>
       </c>
       <c r="H49">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I49">
-        <v>1266459.664978376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>-1456066.881139359</v>
+      </c>
+      <c r="J49">
+        <v>10168117.76571782</v>
+      </c>
+      <c r="K49">
+        <v>6389184.646857183</v>
+      </c>
+      <c r="L49">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
         <v>985</v>
       </c>
-      <c r="C50">
-        <v>-8318660.320303407</v>
+      <c r="C50" t="s">
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E50">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F50">
-        <v>4433.723335411367</v>
+        <v>5235000</v>
       </c>
       <c r="G50">
-        <v>21387.52734850348</v>
+        <v>126466.5620272372</v>
       </c>
       <c r="H50">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I50">
-        <v>1270976.539744058</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-1796341.881139359</v>
+      </c>
+      <c r="J50">
+        <v>9828192.85802724</v>
+      </c>
+      <c r="K50">
+        <v>6389534.739166599</v>
+      </c>
+      <c r="L50">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
         <v>986</v>
       </c>
-      <c r="C51">
-        <v>-8314226.596967995</v>
+      <c r="C51" t="s">
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E51">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F51">
-        <v>19705.43704627274</v>
+        <v>5235000</v>
       </c>
       <c r="G51">
-        <v>21471.75852875003</v>
+        <v>126816.6735197943</v>
       </c>
       <c r="H51">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I51">
-        <v>1290766.207970578</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-2450716.881139359</v>
+      </c>
+      <c r="J51">
+        <v>9174167.969519798</v>
+      </c>
+      <c r="K51">
+        <v>6389884.850659156</v>
+      </c>
+      <c r="L51">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
         <v>987</v>
       </c>
-      <c r="C52">
-        <v>-8294521.159921722</v>
+      <c r="C52" t="s">
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E52">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F52">
-        <v>16749.62148933183</v>
+        <v>5235000</v>
       </c>
       <c r="G52">
-        <v>21556.90749647544</v>
+        <v>127166.8041965427</v>
       </c>
       <c r="H52">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I52">
-        <v>1307600.978427635</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-3602416.881139359</v>
+      </c>
+      <c r="J52">
+        <v>8022818.100196546</v>
+      </c>
+      <c r="K52">
+        <v>6390234.981335904</v>
+      </c>
+      <c r="L52">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
         <v>988</v>
       </c>
-      <c r="C53">
-        <v>-8277771.53843239</v>
+      <c r="C53" t="s">
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E53">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F53">
-        <v>-11823.26222776364</v>
+        <v>5235000</v>
       </c>
       <c r="G53">
-        <v>21641.40861421577</v>
+        <v>127516.9540585338</v>
       </c>
       <c r="H53">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I53">
-        <v>1295862.217317612</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>-3707116.881139359</v>
+      </c>
+      <c r="J53">
+        <v>7918468.250058537</v>
+      </c>
+      <c r="K53">
+        <v>6390585.131197896</v>
+      </c>
+      <c r="L53">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
         <v>989</v>
       </c>
-      <c r="C54">
-        <v>-8289594.800660154</v>
+      <c r="C54" t="s">
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E54">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F54">
-        <v>4926.359261568186</v>
+        <v>5235000</v>
       </c>
       <c r="G54">
-        <v>21726.17966944988</v>
+        <v>127867.1231068186</v>
       </c>
       <c r="H54">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I54">
-        <v>1300873.347634415</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>-3419191.881139359</v>
+      </c>
+      <c r="J54">
+        <v>8206743.419106822</v>
+      </c>
+      <c r="K54">
+        <v>6390935.300246181</v>
+      </c>
+      <c r="L54">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
         <v>990</v>
       </c>
-      <c r="C55">
-        <v>-8284668.441398585</v>
+      <c r="C55" t="s">
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E55">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F55">
-        <v>12315.89815392046</v>
+        <v>5235000</v>
       </c>
       <c r="G55">
-        <v>21811.62556841845</v>
+        <v>128217.3113424485</v>
       </c>
       <c r="H55">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I55">
-        <v>1313274.691687304</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-3393016.881139359</v>
+      </c>
+      <c r="J55">
+        <v>8233268.607342452</v>
+      </c>
+      <c r="K55">
+        <v>6391285.48848181</v>
+      </c>
+      <c r="L55">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
         <v>991</v>
       </c>
-      <c r="C56">
-        <v>-8272352.543244665</v>
+      <c r="C56" t="s">
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E56">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F56">
-        <v>-1970.543704627274</v>
+        <v>5235000</v>
       </c>
       <c r="G56">
-        <v>21896.96349238951</v>
+        <v>128567.5187664749</v>
       </c>
       <c r="H56">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I56">
-        <v>1311389.485906648</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-2712466.881139359</v>
+      </c>
+      <c r="J56">
+        <v>8914168.81476648</v>
+      </c>
+      <c r="K56">
+        <v>6391635.695905838</v>
+      </c>
+      <c r="L56">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
         <v>992</v>
       </c>
-      <c r="C57">
-        <v>-8274323.086949292</v>
+      <c r="C57" t="s">
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E57">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F57">
-        <v>4926.359261568186</v>
+        <v>5235000</v>
       </c>
       <c r="G57">
-        <v>21982.57135385436</v>
+        <v>128917.7453799492</v>
       </c>
       <c r="H57">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I57">
-        <v>1316401.453029681</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>-3707116.881139359</v>
+      </c>
+      <c r="J57">
+        <v>7919869.041379953</v>
+      </c>
+      <c r="K57">
+        <v>6391985.922519311</v>
+      </c>
+      <c r="L57">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
         <v>993</v>
       </c>
-      <c r="C58">
-        <v>-8269396.727687723</v>
+      <c r="C58" t="s">
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E58">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F58">
-        <v>-16749.62148933183</v>
+        <v>5235000</v>
       </c>
       <c r="G58">
-        <v>22067.26142784033</v>
+        <v>129267.9911839229</v>
       </c>
       <c r="H58">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I58">
-        <v>1299736.521614335</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-3288316.881139359</v>
+      </c>
+      <c r="J58">
+        <v>8339019.287183927</v>
+      </c>
+      <c r="K58">
+        <v>6392336.168323286</v>
+      </c>
+      <c r="L58">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
         <v>994</v>
       </c>
-      <c r="C59">
-        <v>-8286146.349177055</v>
+      <c r="C59" t="s">
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E59">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F59">
-        <v>-5911.631113881822</v>
+        <v>5235000</v>
       </c>
       <c r="G59">
-        <v>22151.62757683377</v>
+        <v>129618.2561794474</v>
       </c>
       <c r="H59">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I59">
-        <v>1293909.256649447</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>-2869516.881139359</v>
+      </c>
+      <c r="J59">
+        <v>8758169.552179452</v>
+      </c>
+      <c r="K59">
+        <v>6392686.433318811</v>
+      </c>
+      <c r="L59">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
         <v>995</v>
       </c>
-      <c r="C60">
-        <v>-8292057.980290937</v>
+      <c r="C60" t="s">
+        <v>11</v>
       </c>
       <c r="D60">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E60">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F60">
-        <v>8867.446670822734</v>
+        <v>5235000</v>
       </c>
       <c r="G60">
-        <v>22236.47961331602</v>
+        <v>129968.5403675745</v>
       </c>
       <c r="H60">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I60">
-        <v>1302861.555356752</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-3131266.881139359</v>
+      </c>
+      <c r="J60">
+        <v>8496769.836367579</v>
+      </c>
+      <c r="K60">
+        <v>6393036.717506938</v>
+      </c>
+      <c r="L60">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
         <v>996</v>
       </c>
-      <c r="C61">
-        <v>-8283190.533620114</v>
+      <c r="C61" t="s">
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E61">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F61">
-        <v>-24631.79630784093</v>
+        <v>5235000</v>
       </c>
       <c r="G61">
-        <v>22319.98196232934</v>
+        <v>130318.8437493557</v>
       </c>
       <c r="H61">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I61">
-        <v>1278313.261397924</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-3026566.881139359</v>
+      </c>
+      <c r="J61">
+        <v>8601820.139749359</v>
+      </c>
+      <c r="K61">
+        <v>6393387.020888718</v>
+      </c>
+      <c r="L61">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
         <v>997</v>
       </c>
-      <c r="C62">
-        <v>-8307822.329927956</v>
+      <c r="C62" t="s">
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E62">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F62">
-        <v>-15764.34963701819</v>
+        <v>5235000</v>
       </c>
       <c r="G62">
-        <v>22402.62051136255</v>
+        <v>130669.1663258427</v>
       </c>
       <c r="H62">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I62">
-        <v>1262631.550309938</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-1743991.881139359</v>
+      </c>
+      <c r="J62">
+        <v>9884745.462325847</v>
+      </c>
+      <c r="K62">
+        <v>6393737.343465205</v>
+      </c>
+      <c r="L62">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
         <v>998</v>
       </c>
-      <c r="C63">
-        <v>-8323586.679564974</v>
+      <c r="C63" t="s">
+        <v>11</v>
       </c>
       <c r="D63">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E63">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F63">
-        <v>-4433.723335411367</v>
+        <v>5235000</v>
       </c>
       <c r="G63">
-        <v>22485.01611665136</v>
+        <v>131019.5080980874</v>
       </c>
       <c r="H63">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I63">
-        <v>1258280.222579816</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-723166.8811393589</v>
+      </c>
+      <c r="J63">
+        <v>10905920.80409809</v>
+      </c>
+      <c r="K63">
+        <v>6394087.685237451</v>
+      </c>
+      <c r="L63">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
         <v>999</v>
       </c>
-      <c r="C64">
-        <v>-8328020.402900386</v>
+      <c r="C64" t="s">
+        <v>11</v>
       </c>
       <c r="D64">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E64">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F64">
-        <v>-22168.61667705683</v>
+        <v>5235000</v>
       </c>
       <c r="G64">
-        <v>22566.19700321814</v>
+        <v>131369.8690671415</v>
       </c>
       <c r="H64">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I64">
-        <v>1236192.786789326</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-461416.8811393588</v>
+      </c>
+      <c r="J64">
+        <v>11168021.16506715</v>
+      </c>
+      <c r="K64">
+        <v>6394438.046206504</v>
+      </c>
+      <c r="L64">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
         <v>1000</v>
       </c>
-      <c r="C65">
-        <v>-8350189.019577443</v>
+      <c r="C65" t="s">
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E65">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F65">
-        <v>3941.087409254548</v>
+        <v>5235000</v>
       </c>
       <c r="G65">
-        <v>22647.59383977995</v>
+        <v>131720.2492340569</v>
       </c>
       <c r="H65">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I65">
-        <v>1240215.271035142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>847333.1188606411</v>
+      </c>
+      <c r="J65">
+        <v>12477121.54523406</v>
+      </c>
+      <c r="K65">
+        <v>6394788.426373418</v>
+      </c>
+      <c r="L65">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
         <v>1001</v>
       </c>
-      <c r="C66">
-        <v>-8346247.932168189</v>
+      <c r="C66" t="s">
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E66">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F66">
-        <v>21183.3448247432</v>
+        <v>5235000</v>
       </c>
       <c r="G66">
-        <v>22730.15140756503</v>
+        <v>132070.6485998856</v>
       </c>
       <c r="H66">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I66">
-        <v>1261481.17342767</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-94966.88113935881</v>
+      </c>
+      <c r="J66">
+        <v>11535171.94459989</v>
+      </c>
+      <c r="K66">
+        <v>6395138.825739248</v>
+      </c>
+      <c r="L66">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
         <v>1002</v>
       </c>
-      <c r="C67">
-        <v>-8325064.587343445</v>
+      <c r="C67" t="s">
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>492.6359261568185</v>
+        <v>1522216.881139362</v>
       </c>
       <c r="E67">
-        <v>168259.8005788614</v>
+        <v>-1047</v>
       </c>
       <c r="F67">
-        <v>-24139.16038168411</v>
+        <v>5235000</v>
       </c>
       <c r="G67">
-        <v>22811.38628163056</v>
+        <v>132421.0671656796</v>
       </c>
       <c r="H67">
-        <v>270658.719447759</v>
+        <v>24148.704</v>
       </c>
       <c r="I67">
-        <v>1237423.247920051</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>821158.1188606411</v>
+      </c>
+      <c r="J67">
+        <v>12451647.36316568</v>
+      </c>
+      <c r="K67">
+        <v>6395489.244305043</v>
+      </c>
+      <c r="L67">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
         <v>1003</v>
       </c>
-      <c r="C68">
-        <v>-8349203.747725129</v>
+      <c r="C68" t="s">
+        <v>11</v>
       </c>
       <c r="D68">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E68">
-        <v>168259.8005788614</v>
+        <v>-573</v>
       </c>
       <c r="F68">
-        <v>12315.89815392046</v>
+        <v>2865000</v>
       </c>
       <c r="G68">
-        <v>22893.29599943056</v>
+        <v>132941.7610625538</v>
       </c>
       <c r="H68">
-        <v>270658.719447759</v>
+        <v>26080.728</v>
       </c>
       <c r="I68">
-        <v>1249821.055791772</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>893476.721210265</v>
+      </c>
+      <c r="J68">
+        <v>13261661.03306256</v>
+      </c>
+      <c r="K68">
+        <v>9503184.311852291</v>
+      </c>
+      <c r="L68">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
         <v>1004</v>
       </c>
-      <c r="C69">
-        <v>-8336887.849571208</v>
+      <c r="C69" t="s">
+        <v>11</v>
       </c>
       <c r="D69">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E69">
-        <v>168259.8005788614</v>
+        <v>-573</v>
       </c>
       <c r="F69">
-        <v>6404.267040038641</v>
+        <v>2865000</v>
       </c>
       <c r="G69">
-        <v>22975.55663597248</v>
+        <v>133462.4834906005</v>
       </c>
       <c r="H69">
-        <v>270658.719447759</v>
+        <v>26080.728</v>
       </c>
       <c r="I69">
-        <v>1256307.583468353</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>134251.721210265</v>
+      </c>
+      <c r="J69">
+        <v>12502956.7554906</v>
+      </c>
+      <c r="K69">
+        <v>9503705.034280339</v>
+      </c>
+      <c r="L69">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
         <v>1005</v>
       </c>
-      <c r="C70">
-        <v>-8330483.58253117</v>
+      <c r="C70" t="s">
+        <v>11</v>
       </c>
       <c r="D70">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E70">
-        <v>168259.8005788614</v>
+        <v>-573</v>
       </c>
       <c r="F70">
-        <v>56653.13150803413</v>
+        <v>2865000</v>
       </c>
       <c r="G70">
-        <v>23060.92155369292</v>
+        <v>133983.234451383</v>
       </c>
       <c r="H70">
-        <v>270658.719447759</v>
+        <v>26080.728</v>
       </c>
       <c r="I70">
-        <v>1313046.079894107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-1513123.278789735</v>
+      </c>
+      <c r="J70">
+        <v>10856102.50645139</v>
+      </c>
+      <c r="K70">
+        <v>9504225.785241121</v>
+      </c>
+      <c r="L70">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
         <v>1006</v>
       </c>
-      <c r="C71">
-        <v>-8273830.451023136</v>
+      <c r="C71" t="s">
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E71">
-        <v>168259.8005788614</v>
+        <v>-573</v>
       </c>
       <c r="F71">
-        <v>12315.89815392046</v>
+        <v>2865000</v>
       </c>
       <c r="G71">
-        <v>23146.96131514782</v>
+        <v>134504.0139464647</v>
       </c>
       <c r="H71">
-        <v>270658.719447759</v>
+        <v>26080.728</v>
       </c>
       <c r="I71">
-        <v>1325448.017809482</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-1985848.278789735</v>
+      </c>
+      <c r="J71">
+        <v>10383898.28594647</v>
+      </c>
+      <c r="K71">
+        <v>9504746.564736202</v>
+      </c>
+      <c r="L71">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
         <v>1007</v>
       </c>
-      <c r="C72">
-        <v>-8261514.552869216</v>
+      <c r="C72" t="s">
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E72">
-        <v>168259.8005788614</v>
+        <v>-573</v>
       </c>
       <c r="F72">
-        <v>-10837.99037545001</v>
+        <v>2865000</v>
       </c>
       <c r="G72">
-        <v>23232.40721411639</v>
+        <v>135024.8219774092</v>
       </c>
       <c r="H72">
-        <v>270658.719447759</v>
+        <v>26080.728</v>
       </c>
       <c r="I72">
-        <v>1314695.473333001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-2129098.278789735</v>
+      </c>
+      <c r="J72">
+        <v>10241169.09397741</v>
+      </c>
+      <c r="K72">
+        <v>9505267.372767147</v>
+      </c>
+      <c r="L72">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
         <v>1008</v>
       </c>
-      <c r="C73">
-        <v>-8272352.543244665</v>
+      <c r="C73" t="s">
+        <v>11</v>
       </c>
       <c r="D73">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E73">
-        <v>168259.8005788614</v>
+        <v>-573</v>
       </c>
       <c r="F73">
-        <v>-17734.89334164547</v>
+        <v>2865000</v>
       </c>
       <c r="G73">
-        <v>23316.88133810734</v>
+        <v>135545.65854578</v>
       </c>
       <c r="H73">
-        <v>270658.719447759</v>
+        <v>26080.728</v>
       </c>
       <c r="I73">
-        <v>1297045.054115346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-1971523.278789735</v>
+      </c>
+      <c r="J73">
+        <v>10399264.93054578</v>
+      </c>
+      <c r="K73">
+        <v>9505788.209335517</v>
+      </c>
+      <c r="L73">
+        <v>2100.371847902985</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
         <v>1009</v>
       </c>
-      <c r="C74">
-        <v>-8290087.436586311</v>
+      <c r="C74" t="s">
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E74">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F74">
-        <v>-6404.267040038641</v>
+        <v>8290000</v>
       </c>
       <c r="G74">
-        <v>23401.00454335637</v>
+        <v>135769.0055950587</v>
       </c>
       <c r="H74">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I74">
-        <v>1290724.910280557</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-2709673.27878973</v>
+      </c>
+      <c r="J74">
+        <v>9656633.717595065</v>
+      </c>
+      <c r="K74">
+        <v>4076306.996384796</v>
+      </c>
+      <c r="L74">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
         <v>1010</v>
       </c>
-      <c r="C75">
-        <v>-8296491.70362635</v>
+      <c r="C75" t="s">
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E75">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>8290000</v>
       </c>
       <c r="G75">
-        <v>23485.1277486054</v>
+        <v>135992.3648825318</v>
       </c>
       <c r="H75">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I75">
-        <v>1290809.033485806</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-2419523.27878973</v>
+      </c>
+      <c r="J75">
+        <v>9947007.076882539</v>
+      </c>
+      <c r="K75">
+        <v>4076530.35567227</v>
+      </c>
+      <c r="L75">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
         <v>1011</v>
       </c>
-      <c r="C76">
-        <v>-8296491.70362635</v>
+      <c r="C76" t="s">
+        <v>11</v>
       </c>
       <c r="D76">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E76">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F76">
-        <v>-10837.99037545001</v>
+        <v>8290000</v>
       </c>
       <c r="G76">
-        <v>23568.6570913681</v>
+        <v>136215.73640887</v>
       </c>
       <c r="H76">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I76">
-        <v>1280054.572453119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-2792573.27878973</v>
+      </c>
+      <c r="J76">
+        <v>9574180.448408877</v>
+      </c>
+      <c r="K76">
+        <v>4076753.727198608</v>
+      </c>
+      <c r="L76">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
         <v>1012</v>
       </c>
-      <c r="C77">
-        <v>-8307329.694001799</v>
+      <c r="C77" t="s">
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E77">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F77">
-        <v>6404.267040038641</v>
+        <v>8290000</v>
       </c>
       <c r="G77">
-        <v>23652.53735287273</v>
+        <v>136439.1201747439</v>
       </c>
       <c r="H77">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I77">
-        <v>1286542.719754662</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-3289973.27878973</v>
+      </c>
+      <c r="J77">
+        <v>9077003.83217475</v>
+      </c>
+      <c r="K77">
+        <v>4076977.110964481</v>
+      </c>
+      <c r="L77">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
         <v>1013</v>
       </c>
-      <c r="C78">
-        <v>-8300925.426961761</v>
+      <c r="C78" t="s">
+        <v>11</v>
       </c>
       <c r="D78">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E78">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F78">
-        <v>-7389.538892352278</v>
+        <v>8290000</v>
       </c>
       <c r="G78">
-        <v>23736.01270813667</v>
+        <v>136662.5161808242</v>
       </c>
       <c r="H78">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I78">
-        <v>1279236.656217574</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>-3041273.27878973</v>
+      </c>
+      <c r="J78">
+        <v>9325927.228180831</v>
+      </c>
+      <c r="K78">
+        <v>4077200.506970562</v>
+      </c>
+      <c r="L78">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
         <v>1014</v>
       </c>
-      <c r="C79">
-        <v>-8308314.965854113</v>
+      <c r="C79" t="s">
+        <v>11</v>
       </c>
       <c r="D79">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E79">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F79">
-        <v>4926.359261568186</v>
+        <v>8290000</v>
       </c>
       <c r="G79">
-        <v>23819.7580008944</v>
+        <v>136885.9244277815</v>
       </c>
       <c r="H79">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I79">
-        <v>1284246.7607719</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>-2916923.27878973</v>
+      </c>
+      <c r="J79">
+        <v>9450500.636427788</v>
+      </c>
+      <c r="K79">
+        <v>4077423.915217519</v>
+      </c>
+      <c r="L79">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
         <v>1015</v>
       </c>
-      <c r="C80">
-        <v>-8303388.606592544</v>
+      <c r="C80" t="s">
+        <v>11</v>
       </c>
       <c r="D80">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E80">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F80">
-        <v>-25124.43223399774</v>
+        <v>8290000</v>
       </c>
       <c r="G80">
-        <v>23902.12661243383</v>
+        <v>137109.3449162865</v>
       </c>
       <c r="H80">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I80">
-        <v>1259204.697149442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-2046473.278789731</v>
+      </c>
+      <c r="J80">
+        <v>10321174.05691629</v>
+      </c>
+      <c r="K80">
+        <v>4077647.335706023</v>
+      </c>
+      <c r="L80">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
         <v>1016</v>
       </c>
-      <c r="C81">
-        <v>-8328513.038826542</v>
+      <c r="C81" t="s">
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E81">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F81">
-        <v>13793.80593239092</v>
+        <v>8290000</v>
       </c>
       <c r="G81">
-        <v>23985.25104895586</v>
+        <v>137332.7776470101</v>
       </c>
       <c r="H81">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I81">
-        <v>1273081.627518354</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-720073.2787897304</v>
+      </c>
+      <c r="J81">
+        <v>11647797.48964702</v>
+      </c>
+      <c r="K81">
+        <v>4077870.768436749</v>
+      </c>
+      <c r="L81">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
         <v>1017</v>
       </c>
-      <c r="C82">
-        <v>-8314719.232894151</v>
+      <c r="C82" t="s">
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E82">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F82">
-        <v>-3448.45148309773</v>
+        <v>8290000</v>
       </c>
       <c r="G82">
-        <v>24068.18652923224</v>
+        <v>137556.2226206231</v>
       </c>
       <c r="H82">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I82">
-        <v>1269716.111515533</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-1424723.278789731</v>
+      </c>
+      <c r="J82">
+        <v>10943370.93462063</v>
+      </c>
+      <c r="K82">
+        <v>4078094.213410361</v>
+      </c>
+      <c r="L82">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
         <v>1018</v>
       </c>
-      <c r="C83">
-        <v>-8318167.684377249</v>
+      <c r="C83" t="s">
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E83">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F83">
-        <v>7882.174818509096</v>
+        <v>8290000</v>
       </c>
       <c r="G83">
-        <v>24151.55390949867</v>
+        <v>137779.6798377963</v>
       </c>
       <c r="H83">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I83">
-        <v>1277681.653714309</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-1756323.278789731</v>
+      </c>
+      <c r="J83">
+        <v>10611994.3918378</v>
+      </c>
+      <c r="K83">
+        <v>4078317.670627534</v>
+      </c>
+      <c r="L83">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
         <v>1019</v>
       </c>
-      <c r="C84">
-        <v>-8310285.50955874</v>
+      <c r="C84" t="s">
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E84">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F84">
-        <v>13301.1700062341</v>
+        <v>8290000</v>
       </c>
       <c r="G84">
-        <v>24235.65012099832</v>
+        <v>138003.1492992005</v>
       </c>
       <c r="H84">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I84">
-        <v>1291066.919932042</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-3289973.27878973</v>
+      </c>
+      <c r="J84">
+        <v>9078567.861299207</v>
+      </c>
+      <c r="K84">
+        <v>4078541.140088938</v>
+      </c>
+      <c r="L84">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
         <v>1020</v>
       </c>
-      <c r="C85">
-        <v>-8296984.339552506</v>
+      <c r="C85" t="s">
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E85">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F85">
-        <v>15764.34963701819</v>
+        <v>8290000</v>
       </c>
       <c r="G85">
-        <v>24320.61013247808</v>
+        <v>138226.6310055068</v>
       </c>
       <c r="H85">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I85">
-        <v>1306916.229580541</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-5694073.278789731</v>
+      </c>
+      <c r="J85">
+        <v>6674691.343005514</v>
+      </c>
+      <c r="K85">
+        <v>4078764.621795245</v>
+      </c>
+      <c r="L85">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
         <v>1021</v>
       </c>
-      <c r="C86">
-        <v>-8281219.989915487</v>
+      <c r="C86" t="s">
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E86">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F86">
-        <v>10837.99037545001</v>
+        <v>8290000</v>
       </c>
       <c r="G86">
-        <v>24406.16400644417</v>
+        <v>138450.1249573859</v>
       </c>
       <c r="H86">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I86">
-        <v>1317839.773829957</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-5818423.278789731</v>
+      </c>
+      <c r="J86">
+        <v>6550564.836957393</v>
+      </c>
+      <c r="K86">
+        <v>4078988.115747124</v>
+      </c>
+      <c r="L86">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
         <v>1022</v>
       </c>
-      <c r="C87">
-        <v>-8270381.999540037</v>
+      <c r="C87" t="s">
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E87">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F87">
-        <v>-14779.07778470456</v>
+        <v>8290000</v>
       </c>
       <c r="G87">
-        <v>24490.9080679289</v>
+        <v>138673.6311555091</v>
       </c>
       <c r="H87">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I87">
-        <v>1303145.440106736</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-6564523.278789731</v>
+      </c>
+      <c r="J87">
+        <v>5804688.343155516</v>
+      </c>
+      <c r="K87">
+        <v>4079211.621945247</v>
+      </c>
+      <c r="L87">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
         <v>1023</v>
       </c>
-      <c r="C88">
-        <v>-8285161.077324742</v>
+      <c r="C88" t="s">
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E88">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F88">
-        <v>-9360.082596979551</v>
+        <v>8290000</v>
       </c>
       <c r="G88">
-        <v>24575.13924817545</v>
+        <v>138897.1496005472</v>
       </c>
       <c r="H88">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I88">
-        <v>1293869.588690004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-5072323.278789731</v>
+      </c>
+      <c r="J88">
+        <v>7297111.861600554</v>
+      </c>
+      <c r="K88">
+        <v>4079435.140390284</v>
+      </c>
+      <c r="L88">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
         <v>1024</v>
       </c>
-      <c r="C89">
-        <v>-8294521.159921722</v>
+      <c r="C89" t="s">
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E89">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F89">
-        <v>-7882.174818509096</v>
+        <v>8290000</v>
       </c>
       <c r="G89">
-        <v>24658.93852843194</v>
+        <v>139120.6802931713</v>
       </c>
       <c r="H89">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I89">
-        <v>1286071.213151751</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-2709673.27878973</v>
+      </c>
+      <c r="J89">
+        <v>9659985.392293178</v>
+      </c>
+      <c r="K89">
+        <v>4079658.671082908</v>
+      </c>
+      <c r="L89">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
         <v>1025</v>
       </c>
-      <c r="C90">
-        <v>-8302403.334740231</v>
+      <c r="C90" t="s">
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E90">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F90">
-        <v>-12315.89815392046</v>
+        <v>8290000</v>
       </c>
       <c r="G90">
-        <v>24742.06296495396</v>
+        <v>139344.2232340525</v>
       </c>
       <c r="H90">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I90">
-        <v>1273838.439434353</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-2916923.27878973</v>
+      </c>
+      <c r="J90">
+        <v>9452958.935234059</v>
+      </c>
+      <c r="K90">
+        <v>4079882.214023789</v>
+      </c>
+      <c r="L90">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
         <v>1026</v>
       </c>
-      <c r="C91">
-        <v>-8314719.232894151</v>
+      <c r="C91" t="s">
+        <v>11</v>
       </c>
       <c r="D91">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E91">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F91">
-        <v>-16749.62148933183</v>
+        <v>8290000</v>
       </c>
       <c r="G91">
-        <v>24824.26961399712</v>
+        <v>139567.7784238621</v>
       </c>
       <c r="H91">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I91">
-        <v>1257171.024594064</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>-1424723.278789731</v>
+      </c>
+      <c r="J91">
+        <v>10945382.49042387</v>
+      </c>
+      <c r="K91">
+        <v>4080105.7692136</v>
+      </c>
+      <c r="L91">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
         <v>1027</v>
       </c>
-      <c r="C92">
-        <v>-8331468.854383484</v>
+      <c r="C92" t="s">
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E92">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F92">
-        <v>15764.34963701819</v>
+        <v>8290000</v>
       </c>
       <c r="G92">
-        <v>24907.34006302039</v>
+        <v>139791.345863271</v>
       </c>
       <c r="H92">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I92">
-        <v>1273018.444680105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-1590523.278789731</v>
+      </c>
+      <c r="J92">
+        <v>10779806.05786328</v>
+      </c>
+      <c r="K92">
+        <v>4080329.336653009</v>
+      </c>
+      <c r="L92">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
         <v>1028</v>
       </c>
-      <c r="C93">
-        <v>-8315704.504746465</v>
+      <c r="C93" t="s">
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E93">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F93">
-        <v>-12315.89815392046</v>
+        <v>8290000</v>
       </c>
       <c r="G93">
-        <v>24989.7356683092</v>
+        <v>140014.9255529506</v>
       </c>
       <c r="H93">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I93">
-        <v>1260784.942131474</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-1217473.278789731</v>
+      </c>
+      <c r="J93">
+        <v>11153079.63755296</v>
+      </c>
+      <c r="K93">
+        <v>4080552.916342689</v>
+      </c>
+      <c r="L93">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
         <v>1029</v>
       </c>
-      <c r="C94">
-        <v>-8328020.402900386</v>
+      <c r="C94" t="s">
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E94">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F94">
-        <v>10345.35444929319</v>
+        <v>8290000</v>
       </c>
       <c r="G94">
-        <v>25072.69814233496</v>
+        <v>140238.5174935722</v>
       </c>
       <c r="H94">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I94">
-        <v>1271213.259054793</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>-388473.2787897304</v>
+      </c>
+      <c r="J94">
+        <v>11982303.22949358</v>
+      </c>
+      <c r="K94">
+        <v>4080776.50828331</v>
+      </c>
+      <c r="L94">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
         <v>1030</v>
       </c>
-      <c r="C95">
-        <v>-8317675.048451092</v>
+      <c r="C95" t="s">
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E95">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F95">
-        <v>-9360.082596979551</v>
+        <v>8290000</v>
       </c>
       <c r="G95">
-        <v>25155.14773512253</v>
+        <v>140462.1216858069</v>
       </c>
       <c r="H95">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I95">
-        <v>1261935.626050601</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>564876.7212102696</v>
+      </c>
+      <c r="J95">
+        <v>12935876.83368581</v>
+      </c>
+      <c r="K95">
+        <v>4081000.112475544</v>
+      </c>
+      <c r="L95">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
         <v>1031</v>
       </c>
-      <c r="C96">
-        <v>-8327035.131048071</v>
+      <c r="C96" t="s">
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E96">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F96">
-        <v>-32513.97112635002</v>
+        <v>8290000</v>
       </c>
       <c r="G96">
-        <v>25235.81574045111</v>
+        <v>140685.7381303261</v>
       </c>
       <c r="H96">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I96">
-        <v>1229502.32292958</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>855026.7212102696</v>
+      </c>
+      <c r="J96">
+        <v>13226250.45013033</v>
+      </c>
+      <c r="K96">
+        <v>4081223.728920063</v>
+      </c>
+      <c r="L96">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
         <v>1032</v>
       </c>
-      <c r="C97">
-        <v>-8359549.102174421</v>
+      <c r="C97" t="s">
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E97">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F97">
-        <v>28080.24779093865</v>
+        <v>8290000</v>
       </c>
       <c r="G97">
-        <v>25318.02238949428</v>
+        <v>140909.3668278011</v>
       </c>
       <c r="H97">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I97">
-        <v>1257664.777369562</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>1601126.721210269</v>
+      </c>
+      <c r="J97">
+        <v>13972574.07882781</v>
+      </c>
+      <c r="K97">
+        <v>4081447.357617538</v>
+      </c>
+      <c r="L97">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
         <v>1033</v>
       </c>
-      <c r="C98">
-        <v>-8331468.854383483</v>
+      <c r="C98" t="s">
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E98">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F98">
-        <v>-5911.631113881822</v>
+        <v>8290000</v>
       </c>
       <c r="G98">
-        <v>25399.90511354489</v>
+        <v>141133.0077789035</v>
       </c>
       <c r="H98">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I98">
-        <v>1251835.02897973</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>481976.7212102696</v>
+      </c>
+      <c r="J98">
+        <v>12853647.71977891</v>
+      </c>
+      <c r="K98">
+        <v>4081670.998568641</v>
+      </c>
+      <c r="L98">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
         <v>1034</v>
       </c>
-      <c r="C99">
-        <v>-8337380.485497365</v>
+      <c r="C99" t="s">
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>492.6359261568185</v>
+        <v>2261323.278789738</v>
       </c>
       <c r="E99">
-        <v>168259.8005788614</v>
+        <v>-1658</v>
       </c>
       <c r="F99">
-        <v>-19705.43704627274</v>
+        <v>8290000</v>
       </c>
       <c r="G99">
-        <v>25480.70808762037</v>
+        <v>141356.6609843045</v>
       </c>
       <c r="H99">
-        <v>270658.719447759</v>
+        <v>30785.288</v>
       </c>
       <c r="I99">
-        <v>1232210.394907533</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>979376.7212102696</v>
+      </c>
+      <c r="J99">
+        <v>13351271.37298431</v>
+      </c>
+      <c r="K99">
+        <v>4081894.651774041</v>
+      </c>
+      <c r="L99">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
         <v>1035</v>
       </c>
-      <c r="C100">
-        <v>-8357085.922543637</v>
+      <c r="C100" t="s">
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E100">
-        <v>168259.8005788614</v>
+        <v>-294</v>
       </c>
       <c r="F100">
-        <v>-985.2718523136371</v>
+        <v>1470000</v>
       </c>
       <c r="G100">
-        <v>25561.4570741971</v>
+        <v>141997.8566102102</v>
       </c>
       <c r="H100">
-        <v>270658.719447759</v>
+        <v>36571.376</v>
       </c>
       <c r="I100">
-        <v>1231305.872041796</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>173665.1122049573</v>
+      </c>
+      <c r="J100">
+        <v>13346126.48061022</v>
+      </c>
+      <c r="K100">
+        <v>11702461.36840526</v>
+      </c>
+      <c r="L100">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
         <v>1036</v>
       </c>
-      <c r="C101">
-        <v>-8358071.194395951</v>
+      <c r="C101" t="s">
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E101">
-        <v>168259.8005788614</v>
+        <v>-294</v>
       </c>
       <c r="F101">
-        <v>-15764.34963701819</v>
+        <v>1470000</v>
       </c>
       <c r="G101">
-        <v>25641.34226079371</v>
+        <v>142639.0873701228</v>
       </c>
       <c r="H101">
-        <v>270658.719447759</v>
+        <v>36571.376</v>
       </c>
       <c r="I101">
-        <v>1215621.407591374</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>291265.1122049573</v>
+      </c>
+      <c r="J101">
+        <v>13464367.71137013</v>
+      </c>
+      <c r="K101">
+        <v>11703102.59916517</v>
+      </c>
+      <c r="L101">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
         <v>1037</v>
       </c>
-      <c r="C102">
-        <v>-8373835.54403297</v>
+      <c r="C102" t="s">
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E102">
-        <v>168259.8005788614</v>
+        <v>-294</v>
       </c>
       <c r="F102">
-        <v>3448.45148309773</v>
+        <v>1470000</v>
       </c>
       <c r="G102">
-        <v>25721.41640363597</v>
+        <v>143280.3532659675</v>
       </c>
       <c r="H102">
-        <v>270658.719447759</v>
+        <v>36571.376</v>
       </c>
       <c r="I102">
-        <v>1219149.933217314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>438265.1122049573</v>
+      </c>
+      <c r="J102">
+        <v>13612008.97726597</v>
+      </c>
+      <c r="K102">
+        <v>11703743.86506102</v>
+      </c>
+      <c r="L102">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
         <v>1038</v>
       </c>
-      <c r="C103">
-        <v>-8370387.092549872</v>
+      <c r="C103" t="s">
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E103">
-        <v>168259.8005788614</v>
+        <v>-294</v>
       </c>
       <c r="F103">
-        <v>13793.80593239092</v>
+        <v>1470000</v>
       </c>
       <c r="G103">
-        <v>25802.24637146083</v>
+        <v>143921.6542996695</v>
       </c>
       <c r="H103">
-        <v>270658.719447759</v>
+        <v>36571.376</v>
       </c>
       <c r="I103">
-        <v>1233024.56911753</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>217765.1122049573</v>
+      </c>
+      <c r="J103">
+        <v>13392150.27829968</v>
+      </c>
+      <c r="K103">
+        <v>11704385.16609472</v>
+      </c>
+      <c r="L103">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
         <v>1039</v>
       </c>
-      <c r="C104">
-        <v>-8356593.286617481</v>
+      <c r="C104" t="s">
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E104">
-        <v>168259.8005788614</v>
+        <v>-294</v>
       </c>
       <c r="F104">
-        <v>-5418.995187725004</v>
+        <v>1470000</v>
       </c>
       <c r="G104">
-        <v>25882.77940804253</v>
+        <v>144562.9904731541</v>
       </c>
       <c r="H104">
-        <v>270658.719447759</v>
+        <v>36571.376</v>
       </c>
       <c r="I104">
-        <v>1227686.106966387</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>372115.1122049573</v>
+      </c>
+      <c r="J104">
+        <v>13547141.61447316</v>
+      </c>
+      <c r="K104">
+        <v>11705026.5022682</v>
+      </c>
+      <c r="L104">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
         <v>1040</v>
       </c>
-      <c r="C105">
-        <v>-8362012.281805206</v>
+      <c r="C105" t="s">
+        <v>11</v>
       </c>
       <c r="D105">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E105">
-        <v>168259.8005788614</v>
+        <v>-294</v>
       </c>
       <c r="F105">
-        <v>20198.07297242956</v>
+        <v>1470000</v>
       </c>
       <c r="G105">
-        <v>25964.41918834874</v>
+        <v>145204.3617883469</v>
       </c>
       <c r="H105">
-        <v>270658.719447759</v>
+        <v>36571.376</v>
       </c>
       <c r="I105">
-        <v>1247965.819719123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>269215.1122049573</v>
+      </c>
+      <c r="J105">
+        <v>13444882.98578835</v>
+      </c>
+      <c r="K105">
+        <v>11705667.8735834</v>
+      </c>
+      <c r="L105">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
         <v>1041</v>
       </c>
-      <c r="C106">
-        <v>-8341814.208832776</v>
+      <c r="C106" t="s">
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E106">
-        <v>168259.8005788614</v>
+        <v>-294</v>
       </c>
       <c r="F106">
-        <v>-6404.267040038641</v>
+        <v>1470000</v>
       </c>
       <c r="G106">
-        <v>26045.70804991303</v>
+        <v>145845.7682471734</v>
       </c>
       <c r="H106">
-        <v>270658.719447759</v>
+        <v>36571.376</v>
       </c>
       <c r="I106">
-        <v>1241642.841540648</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>350065.1122049573</v>
+      </c>
+      <c r="J106">
+        <v>13526374.39224718</v>
+      </c>
+      <c r="K106">
+        <v>11706309.28004222</v>
+      </c>
+      <c r="L106">
+        <v>2144.627906422443</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
         <v>1042</v>
       </c>
-      <c r="C107">
-        <v>-8348218.475872815</v>
+      <c r="C107" t="s">
+        <v>11</v>
       </c>
       <c r="D107">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E107">
-        <v>168259.8005788614</v>
+        <v>-2312</v>
       </c>
       <c r="F107">
-        <v>-9852.718523136371</v>
+        <v>11560000</v>
       </c>
       <c r="G107">
-        <v>26126.45703648975</v>
+        <v>145933.8769053675</v>
       </c>
       <c r="H107">
-        <v>270658.719447759</v>
+        <v>44897.644</v>
       </c>
       <c r="I107">
-        <v>1231870.872004089</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>-1134034.887795032</v>
+      </c>
+      <c r="J107">
+        <v>12034036.23290538</v>
+      </c>
+      <c r="K107">
+        <v>1608071.120700417</v>
+      </c>
+      <c r="L107">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
         <v>1043</v>
       </c>
-      <c r="C108">
-        <v>-8358071.194395951</v>
+      <c r="C108" t="s">
+        <v>11</v>
       </c>
       <c r="D108">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E108">
-        <v>168259.8005788614</v>
+        <v>-2312</v>
       </c>
       <c r="F108">
-        <v>3941.087409254548</v>
+        <v>11560000</v>
       </c>
       <c r="G108">
-        <v>26207.4219730615</v>
+        <v>146021.9903914332</v>
       </c>
       <c r="H108">
-        <v>270658.719447759</v>
+        <v>44897.644</v>
       </c>
       <c r="I108">
-        <v>1235892.924349915</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>-787234.8877950325</v>
+      </c>
+      <c r="J108">
+        <v>12380924.34639145</v>
+      </c>
+      <c r="K108">
+        <v>1608159.234186484</v>
+      </c>
+      <c r="L108">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
         <v>1044</v>
       </c>
-      <c r="C109">
-        <v>-8354130.106986697</v>
+      <c r="C109" t="s">
+        <v>11</v>
       </c>
       <c r="D109">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E109">
-        <v>168259.8005788614</v>
+        <v>-2312</v>
       </c>
       <c r="F109">
-        <v>5911.631113881822</v>
+        <v>11560000</v>
       </c>
       <c r="G109">
-        <v>26288.71083462579</v>
+        <v>146110.1087056352</v>
       </c>
       <c r="H109">
-        <v>270658.719447759</v>
+        <v>44897.644</v>
       </c>
       <c r="I109">
-        <v>1241885.844325361</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>-1769834.887795032</v>
+      </c>
+      <c r="J109">
+        <v>11398412.46470565</v>
+      </c>
+      <c r="K109">
+        <v>1608247.352500686</v>
+      </c>
+      <c r="L109">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
         <v>1045</v>
       </c>
-      <c r="C110">
-        <v>-8348218.475872815</v>
+      <c r="C110" t="s">
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E110">
-        <v>168259.8005788614</v>
+        <v>-2312</v>
       </c>
       <c r="F110">
-        <v>14779.07778470456</v>
+        <v>11560000</v>
       </c>
       <c r="G110">
-        <v>26370.80950867144</v>
+        <v>146198.231848238</v>
       </c>
       <c r="H110">
-        <v>270658.719447759</v>
+        <v>44897.644</v>
       </c>
       <c r="I110">
-        <v>1256747.020784112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>-4891034.887795032</v>
+      </c>
+      <c r="J110">
+        <v>8277300.587848256</v>
+      </c>
+      <c r="K110">
+        <v>1608335.475643288</v>
+      </c>
+      <c r="L110">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
         <v>1046</v>
       </c>
-      <c r="C111">
-        <v>-8333439.39808811</v>
+      <c r="C111" t="s">
+        <v>11</v>
       </c>
       <c r="D111">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E111">
-        <v>168259.8005788614</v>
+        <v>-2312</v>
       </c>
       <c r="F111">
-        <v>-8374.810744665914</v>
+        <v>11560000</v>
       </c>
       <c r="G111">
-        <v>26452.44928897765</v>
+        <v>146286.3598195061</v>
       </c>
       <c r="H111">
-        <v>270658.719447759</v>
+        <v>44897.644</v>
       </c>
       <c r="I111">
-        <v>1248453.849819752</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>-3908434.887795032</v>
+      </c>
+      <c r="J111">
+        <v>9259988.715819523</v>
+      </c>
+      <c r="K111">
+        <v>1608423.603614556</v>
+      </c>
+      <c r="L111">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
         <v>1047</v>
       </c>
-      <c r="C112">
-        <v>-8341814.208832775</v>
+      <c r="C112" t="s">
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E112">
-        <v>168259.8005788614</v>
+        <v>-2312</v>
       </c>
       <c r="F112">
-        <v>-16749.62148933183</v>
+        <v>11560000</v>
       </c>
       <c r="G112">
-        <v>26533.17128180499</v>
+        <v>146374.4926197042</v>
       </c>
       <c r="H112">
-        <v>270658.719447759</v>
+        <v>44897.644</v>
       </c>
       <c r="I112">
-        <v>1231784.950323248</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>-2405634.887795032</v>
+      </c>
+      <c r="J112">
+        <v>10762876.84861972</v>
+      </c>
+      <c r="K112">
+        <v>1608511.736414755</v>
+      </c>
+      <c r="L112">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
         <v>1048</v>
       </c>
-      <c r="C113">
-        <v>-8358563.830322107</v>
+      <c r="C113" t="s">
+        <v>11</v>
       </c>
       <c r="D113">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E113">
-        <v>168259.8005788614</v>
+        <v>-2312</v>
       </c>
       <c r="F113">
-        <v>-17734.89334164547</v>
+        <v>11560000</v>
       </c>
       <c r="G113">
-        <v>26612.92149965471</v>
+        <v>146462.6302490968</v>
       </c>
       <c r="H113">
-        <v>270658.719447759</v>
+        <v>44897.644</v>
       </c>
       <c r="I113">
-        <v>1214129.807199452</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>-35834.88779503241</v>
+      </c>
+      <c r="J113">
+        <v>13132764.98624911</v>
+      </c>
+      <c r="K113">
+        <v>1608599.874044146</v>
+      </c>
+      <c r="L113">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
         <v>1049</v>
       </c>
-      <c r="C114">
-        <v>-8376298.723663753</v>
+      <c r="C114" t="s">
+        <v>11</v>
       </c>
       <c r="D114">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E114">
-        <v>168259.8005788614</v>
+        <v>-2312</v>
       </c>
       <c r="F114">
-        <v>492.6359261568185</v>
+        <v>11560000</v>
       </c>
       <c r="G114">
-        <v>26692.69871125381</v>
+        <v>146550.7727079485</v>
       </c>
       <c r="H114">
-        <v>270658.719447759</v>
+        <v>44897.644</v>
       </c>
       <c r="I114">
-        <v>1214702.220337208</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>1235765.112204968</v>
+      </c>
+      <c r="J114">
+        <v>14404453.12870797</v>
+      </c>
+      <c r="K114">
+        <v>1608688.016502999</v>
+      </c>
+      <c r="L114">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
         <v>1050</v>
       </c>
-      <c r="C115">
-        <v>-8375806.087737596</v>
+      <c r="C115" t="s">
+        <v>11</v>
       </c>
       <c r="D115">
-        <v>492.6359261568185</v>
+        <v>3067034.887795051</v>
       </c>
       <c r="E115">
-        <v>168259.8005788614</v>
+        <v>-2312</v>
       </c>
       <c r="F115">
-        <v>-7882.174818509096</v>
+        <v>11560000</v>
       </c>
       <c r="G115">
-        <v>26772.04402286285</v>
+        <v>146638.919996524</v>
       </c>
       <c r="H115">
-        <v>270658.719447759</v>
+        <v>44897.644</v>
       </c>
       <c r="I115">
-        <v>1206899.390830308</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>-35834.88779503241</v>
+      </c>
+      <c r="J115">
+        <v>13132941.27599654</v>
+      </c>
+      <c r="K115">
+        <v>1608776.163791575</v>
+      </c>
+      <c r="L115">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
         <v>1051</v>
       </c>
-      <c r="C116">
-        <v>-8383688.262556105</v>
+      <c r="C116" t="s">
+        <v>11</v>
       </c>
       <c r="D116">
-        <v>492.6359261568185</v>
+        <v>3314724.975947143</v>
       </c>
       <c r="E116">
-        <v>168259.8005788614</v>
+        <v>-50</v>
       </c>
       <c r="F116">
-        <v>12808.53408007728</v>
+        <v>250000</v>
       </c>
       <c r="G116">
-        <v>26852.09117195574</v>
+        <v>147359.8573168497</v>
       </c>
       <c r="H116">
-        <v>270658.719447759</v>
+        <v>54257.8</v>
       </c>
       <c r="I116">
-        <v>1219787.972059478</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>5475.024052875597</v>
+      </c>
+      <c r="J116">
+        <v>13413302.05731687</v>
+      </c>
+      <c r="K116">
+        <v>13157827.03326399</v>
+      </c>
+      <c r="L116">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
         <v>1052</v>
       </c>
-      <c r="C117">
-        <v>-8370879.728476028</v>
+      <c r="C117" t="s">
+        <v>11</v>
       </c>
       <c r="D117">
-        <v>492.6359261568185</v>
+        <v>3314724.975947143</v>
       </c>
       <c r="E117">
-        <v>168259.8005788614</v>
+        <v>-50</v>
       </c>
       <c r="F117">
-        <v>-2955.815556940911</v>
+        <v>250000</v>
       </c>
       <c r="G117">
-        <v>26931.97635855235</v>
+        <v>148080.8341405902</v>
       </c>
       <c r="H117">
-        <v>270658.719447759</v>
+        <v>54257.8</v>
       </c>
       <c r="I117">
-        <v>1216912.041689134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>-24524.9759471244</v>
+      </c>
+      <c r="J117">
+        <v>13384023.03414061</v>
+      </c>
+      <c r="K117">
+        <v>13158548.01008773</v>
+      </c>
+      <c r="L117">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
         <v>1053</v>
       </c>
-      <c r="C118">
-        <v>-8373835.544032969</v>
+      <c r="C118" t="s">
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>492.6359261568185</v>
+        <v>3314724.975947143</v>
       </c>
       <c r="E118">
-        <v>168259.8005788614</v>
+        <v>-50</v>
       </c>
       <c r="F118">
-        <v>-13793.80593239092</v>
+        <v>250000</v>
       </c>
       <c r="G118">
-        <v>27011.10572016636</v>
+        <v>148801.85046991</v>
       </c>
       <c r="H118">
-        <v>270658.719447759</v>
+        <v>54257.8</v>
       </c>
       <c r="I118">
-        <v>1203197.365118357</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>-33274.9759471244</v>
+      </c>
+      <c r="J118">
+        <v>13375994.05046993</v>
+      </c>
+      <c r="K118">
+        <v>13159269.02641705</v>
+      </c>
+      <c r="L118">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
         <v>1054</v>
       </c>
-      <c r="C119">
-        <v>-8387629.349965359</v>
+      <c r="C119" t="s">
+        <v>11</v>
       </c>
       <c r="D119">
-        <v>492.6359261568185</v>
+        <v>3314724.975947143</v>
       </c>
       <c r="E119">
-        <v>168259.8005788614</v>
+        <v>-50</v>
       </c>
       <c r="F119">
-        <v>2955.815556940911</v>
+        <v>250000</v>
       </c>
       <c r="G119">
-        <v>27090.39704427665</v>
+        <v>149522.906306974</v>
       </c>
       <c r="H119">
-        <v>270658.719447759</v>
+        <v>54257.8</v>
       </c>
       <c r="I119">
-        <v>1206232.471999408</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>-10774.9759471244</v>
+      </c>
+      <c r="J119">
+        <v>13399215.10630699</v>
+      </c>
+      <c r="K119">
+        <v>13159990.08225412</v>
+      </c>
+      <c r="L119">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
         <v>1055</v>
       </c>
-      <c r="C120">
-        <v>-8384673.534408418</v>
+      <c r="C120" t="s">
+        <v>11</v>
       </c>
       <c r="D120">
-        <v>492.6359261568185</v>
+        <v>3314724.975947143</v>
       </c>
       <c r="E120">
-        <v>168259.8005788614</v>
+        <v>-50</v>
       </c>
       <c r="F120">
-        <v>-5418.995187725004</v>
+        <v>250000</v>
       </c>
       <c r="G120">
-        <v>27169.39143714377</v>
+        <v>150244.0016539468</v>
       </c>
       <c r="H120">
-        <v>270658.719447759</v>
+        <v>54257.8</v>
       </c>
       <c r="I120">
-        <v>1200892.47120455</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>-29524.9759471244</v>
+      </c>
+      <c r="J120">
+        <v>13381186.20165396</v>
+      </c>
+      <c r="K120">
+        <v>13160711.17760109</v>
+      </c>
+      <c r="L120">
+        <v>2073.3800192423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
         <v>1056</v>
       </c>
-      <c r="C121">
-        <v>-8390092.529596144</v>
+      <c r="C121" t="s">
+        <v>11</v>
       </c>
       <c r="D121">
-        <v>492.6359261568185</v>
+        <v>3314724.975947143</v>
       </c>
       <c r="E121">
-        <v>168259.8005788614</v>
+        <v>-2602</v>
       </c>
       <c r="F121">
-        <v>4926.359261568186</v>
+        <v>13010000</v>
       </c>
       <c r="G121">
-        <v>27248.65576750468</v>
+        <v>150265.3755959524</v>
       </c>
       <c r="H121">
-        <v>270658.719447759</v>
+        <v>64894.53600000001</v>
       </c>
       <c r="I121">
-        <v>1205898.094796479</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>-2355074.975947127</v>
+      </c>
+      <c r="J121">
+        <v>11045020.83959597</v>
+      </c>
+      <c r="K121">
+        <v>390095.8155430928</v>
+      </c>
+      <c r="L121">
+        <v>2083.795926580367</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
         <v>1057</v>
       </c>
-      <c r="C122">
-        <v>-8385166.170334576</v>
+      <c r="C122" t="s">
+        <v>11</v>
       </c>
       <c r="D122">
-        <v>492.6359261568185</v>
+        <v>2976590.305506488</v>
       </c>
       <c r="E122">
-        <v>168259.8005788614</v>
+        <v>-3</v>
       </c>
       <c r="F122">
-        <v>-492.6359261568185</v>
+        <v>15000</v>
       </c>
       <c r="G122">
-        <v>27327.89310411621</v>
+        <v>150979.6825835196</v>
       </c>
       <c r="H122">
-        <v>270658.719447759</v>
+        <v>75753.15800000001</v>
       </c>
       <c r="I122">
-        <v>1205484.696206933</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>-390.3055064724754</v>
+      </c>
+      <c r="J122">
+        <v>13051426.52458354</v>
+      </c>
+      <c r="K122">
+        <v>13036816.83009001</v>
+      </c>
+      <c r="L122">
+        <v>2083.795926580367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
         <v>1058</v>
       </c>
-      <c r="C123">
-        <v>-8385658.806260733</v>
+      <c r="C123" t="s">
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>492.6359261568185</v>
+        <v>2976590.305506488</v>
       </c>
       <c r="E123">
-        <v>168259.8005788614</v>
+        <v>-2577</v>
       </c>
       <c r="F123">
-        <v>-492.6359261568185</v>
+        <v>12885000</v>
       </c>
       <c r="G123">
-        <v>27407.10344697836</v>
+        <v>150988.2424245108</v>
       </c>
       <c r="H123">
-        <v>270658.719447759</v>
+        <v>86352.89000000001</v>
       </c>
       <c r="I123">
-        <v>1205071.270623638</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>-1802040.305506469</v>
+      </c>
+      <c r="J123">
+        <v>11239185.35242453</v>
+      </c>
+      <c r="K123">
+        <v>156225.6579309981</v>
+      </c>
+      <c r="L123">
+        <v>2059.028866037928</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
         <v>1059</v>
       </c>
-      <c r="C124">
-        <v>-8386151.44218689</v>
+      <c r="C124" t="s">
+        <v>11</v>
       </c>
       <c r="D124">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E124">
-        <v>168259.8005788614</v>
+        <v>-0</v>
       </c>
       <c r="F124">
-        <v>-10837.99037545001</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>27485.71992735419</v>
+        <v>151561.1337728081</v>
       </c>
       <c r="H124">
-        <v>270658.719447759</v>
+        <v>97171.13600000001</v>
       </c>
       <c r="I124">
-        <v>1194311.896728564</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>-0</v>
+      </c>
+      <c r="J124">
+        <v>10455839.99777283</v>
+      </c>
+      <c r="K124">
+        <v>10455839.99777283</v>
+      </c>
+      <c r="L124">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
         <v>1060</v>
       </c>
-      <c r="C125">
-        <v>-8396989.43256234</v>
+      <c r="C125" t="s">
+        <v>11</v>
       </c>
       <c r="D125">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E125">
-        <v>168259.8005788614</v>
+        <v>-0</v>
       </c>
       <c r="F125">
-        <v>-15764.34963701819</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>27563.4726077499</v>
+        <v>152134.0565124121</v>
       </c>
       <c r="H125">
-        <v>270658.719447759</v>
+        <v>97171.13600000001</v>
       </c>
       <c r="I125">
-        <v>1178625.299771941</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>10456412.92051243</v>
+      </c>
+      <c r="K125">
+        <v>10456412.92051243</v>
+      </c>
+      <c r="L125">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
         <v>1061</v>
       </c>
-      <c r="C126">
-        <v>-8412753.782199359</v>
+      <c r="C126" t="s">
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E126">
-        <v>168259.8005788614</v>
+        <v>-420</v>
       </c>
       <c r="F126">
-        <v>-5911.631113881822</v>
+        <v>2100000</v>
       </c>
       <c r="G126">
-        <v>27640.90136315308</v>
+        <v>152591.8501891525</v>
       </c>
       <c r="H126">
-        <v>270658.719447759</v>
+        <v>98849.45600000002</v>
       </c>
       <c r="I126">
-        <v>1172791.097413463</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>-420000</v>
+      </c>
+      <c r="J126">
+        <v>10035192.39418917</v>
+      </c>
+      <c r="K126">
+        <v>8355192.394189171</v>
+      </c>
+      <c r="L126">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
         <v>1062</v>
       </c>
-      <c r="C127">
-        <v>-8418665.41331324</v>
+      <c r="C127" t="s">
+        <v>11</v>
       </c>
       <c r="D127">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E127">
-        <v>168259.8005788614</v>
+        <v>-420</v>
       </c>
       <c r="F127">
-        <v>492.6359261568185</v>
+        <v>2100000</v>
       </c>
       <c r="G127">
-        <v>27718.35711230563</v>
+        <v>153049.6689504779</v>
       </c>
       <c r="H127">
-        <v>270658.719447759</v>
+        <v>98849.45600000002</v>
       </c>
       <c r="I127">
-        <v>1173361.189088773</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>-189000</v>
+      </c>
+      <c r="J127">
+        <v>10266650.2129505</v>
+      </c>
+      <c r="K127">
+        <v>8355650.212950496</v>
+      </c>
+      <c r="L127">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
         <v>1063</v>
       </c>
-      <c r="C128">
-        <v>-8418172.777387083</v>
+      <c r="C128" t="s">
+        <v>11</v>
       </c>
       <c r="D128">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E128">
-        <v>168259.8005788614</v>
+        <v>-420</v>
       </c>
       <c r="F128">
-        <v>2463.179630784093</v>
+        <v>2100000</v>
       </c>
       <c r="G128">
-        <v>27795.94783020507</v>
+        <v>153507.5127977629</v>
       </c>
       <c r="H128">
-        <v>270658.719447759</v>
+        <v>98849.45600000002</v>
       </c>
       <c r="I128">
-        <v>1175901.959437457</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>-346500</v>
+      </c>
+      <c r="J128">
+        <v>10109608.05679778</v>
+      </c>
+      <c r="K128">
+        <v>8356108.056797782</v>
+      </c>
+      <c r="L128">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
         <v>1064</v>
       </c>
-      <c r="C129">
-        <v>-8415709.597756298</v>
+      <c r="C129" t="s">
+        <v>11</v>
       </c>
       <c r="D129">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E129">
-        <v>168259.8005788614</v>
+        <v>-420</v>
       </c>
       <c r="F129">
-        <v>-4433.723335411367</v>
+        <v>2100000</v>
       </c>
       <c r="G129">
-        <v>27873.29560436011</v>
+        <v>153965.3817323819</v>
       </c>
       <c r="H129">
-        <v>270658.719447759</v>
+        <v>98849.45600000002</v>
       </c>
       <c r="I129">
-        <v>1171545.5838762</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>-976500</v>
+      </c>
+      <c r="J129">
+        <v>9480065.9257324</v>
+      </c>
+      <c r="K129">
+        <v>8356565.9257324</v>
+      </c>
+      <c r="L129">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
         <v>1065</v>
       </c>
-      <c r="C130">
-        <v>-8420143.32109171</v>
+      <c r="C130" t="s">
+        <v>11</v>
       </c>
       <c r="D130">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E130">
-        <v>168259.8005788614</v>
+        <v>-420</v>
       </c>
       <c r="F130">
-        <v>4926.359261568186</v>
+        <v>2100000</v>
       </c>
       <c r="G130">
-        <v>27950.91331600893</v>
+        <v>154423.2757557097</v>
       </c>
       <c r="H130">
-        <v>270658.719447759</v>
+        <v>98849.45600000002</v>
       </c>
       <c r="I130">
-        <v>1176549.560849418</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>-1312500</v>
+      </c>
+      <c r="J130">
+        <v>9144523.819755727</v>
+      </c>
+      <c r="K130">
+        <v>8357023.819755727</v>
+      </c>
+      <c r="L130">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
         <v>1066</v>
       </c>
-      <c r="C131">
-        <v>-8415216.961830141</v>
+      <c r="C131" t="s">
+        <v>11</v>
       </c>
       <c r="D131">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E131">
-        <v>168259.8005788614</v>
+        <v>-420</v>
       </c>
       <c r="F131">
-        <v>2955.815556940911</v>
+        <v>2100000</v>
       </c>
       <c r="G131">
-        <v>28028.69299015402</v>
+        <v>154881.194869121</v>
       </c>
       <c r="H131">
-        <v>270658.719447759</v>
+        <v>98849.45600000002</v>
       </c>
       <c r="I131">
-        <v>1179583.156080505</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>-1092000</v>
+      </c>
+      <c r="J131">
+        <v>9365481.73886914</v>
+      </c>
+      <c r="K131">
+        <v>8357481.73886914</v>
+      </c>
+      <c r="L131">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
         <v>1067</v>
       </c>
-      <c r="C132">
-        <v>-8412261.146273199</v>
+      <c r="C132" t="s">
+        <v>11</v>
       </c>
       <c r="D132">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E132">
-        <v>168259.8005788614</v>
+        <v>-420</v>
       </c>
       <c r="F132">
-        <v>3941.087409254548</v>
+        <v>2100000</v>
       </c>
       <c r="G132">
-        <v>28106.68861429414</v>
+        <v>155339.1390739905</v>
       </c>
       <c r="H132">
-        <v>270658.719447759</v>
+        <v>98849.45600000002</v>
       </c>
       <c r="I132">
-        <v>1183602.239113899</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>-924000</v>
+      </c>
+      <c r="J132">
+        <v>9533939.683074009</v>
+      </c>
+      <c r="K132">
+        <v>8357939.683074009</v>
+      </c>
+      <c r="L132">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
         <v>1068</v>
       </c>
-      <c r="C133">
-        <v>-8408320.058863945</v>
+      <c r="C133" t="s">
+        <v>11</v>
       </c>
       <c r="D133">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E133">
-        <v>168259.8005788614</v>
+        <v>-420</v>
       </c>
       <c r="F133">
-        <v>6404.267040038641</v>
+        <v>2100000</v>
       </c>
       <c r="G133">
-        <v>28185.03515717618</v>
+        <v>155797.1083716932</v>
       </c>
       <c r="H133">
-        <v>270658.719447759</v>
+        <v>98849.45600000002</v>
       </c>
       <c r="I133">
-        <v>1190084.852696819</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>-1270500</v>
+      </c>
+      <c r="J133">
+        <v>9187897.652371712</v>
+      </c>
+      <c r="K133">
+        <v>8358397.652371712</v>
+      </c>
+      <c r="L133">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
         <v>1069</v>
       </c>
-      <c r="C134">
-        <v>-8401915.791823907</v>
+      <c r="C134" t="s">
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E134">
-        <v>168259.8005788614</v>
+        <v>-1641</v>
       </c>
       <c r="F134">
-        <v>12315.89815392046</v>
+        <v>8205000</v>
       </c>
       <c r="G134">
-        <v>28264.05654379269</v>
+        <v>155920.2988098506</v>
       </c>
       <c r="H134">
-        <v>270658.719447759</v>
+        <v>104021.612</v>
       </c>
       <c r="I134">
-        <v>1202479.772237356</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>-2695874.999999994</v>
+      </c>
+      <c r="J134">
+        <v>7757473.686809875</v>
+      </c>
+      <c r="K134">
+        <v>2248348.686809869</v>
+      </c>
+      <c r="L134">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
         <v>1070</v>
       </c>
-      <c r="C135">
-        <v>-8389599.893669987</v>
+      <c r="C135" t="s">
+        <v>11</v>
       </c>
       <c r="D135">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E135">
-        <v>168259.8005788614</v>
+        <v>-1641</v>
       </c>
       <c r="F135">
-        <v>-8867.446670822734</v>
+        <v>8205000</v>
       </c>
       <c r="G135">
-        <v>28342.59204292038</v>
+        <v>156043.4959981689</v>
       </c>
       <c r="H135">
-        <v>270658.719447759</v>
+        <v>104021.612</v>
       </c>
       <c r="I135">
-        <v>1193690.861065661</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>-2818949.999999994</v>
+      </c>
+      <c r="J135">
+        <v>7634521.883998193</v>
+      </c>
+      <c r="K135">
+        <v>2248471.883998187</v>
+      </c>
+      <c r="L135">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
         <v>1071</v>
       </c>
-      <c r="C136">
-        <v>-8398467.34034081</v>
+      <c r="C136" t="s">
+        <v>11</v>
       </c>
       <c r="D136">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E136">
-        <v>168259.8005788614</v>
+        <v>-1641</v>
       </c>
       <c r="F136">
-        <v>7882.174818509096</v>
+        <v>8205000</v>
       </c>
       <c r="G136">
-        <v>28421.55944203812</v>
+        <v>156166.6999370182</v>
       </c>
       <c r="H136">
-        <v>270658.719447759</v>
+        <v>104021.612</v>
       </c>
       <c r="I136">
-        <v>1201652.003283287</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>-1793324.999999994</v>
+      </c>
+      <c r="J136">
+        <v>8660270.087937042</v>
+      </c>
+      <c r="K136">
+        <v>2248595.087937037</v>
+      </c>
+      <c r="L136">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
         <v>1072</v>
       </c>
-      <c r="C137">
-        <v>-8390585.165522302</v>
+      <c r="C137" t="s">
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E137">
-        <v>168259.8005788614</v>
+        <v>-1641</v>
       </c>
       <c r="F137">
-        <v>-13793.80593239092</v>
+        <v>8205000</v>
       </c>
       <c r="G137">
-        <v>28499.77101617327</v>
+        <v>156289.9106267681</v>
       </c>
       <c r="H137">
-        <v>270658.719447759</v>
+        <v>104021.612</v>
       </c>
       <c r="I137">
-        <v>1187936.40892503</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>-2203574.999999994</v>
+      </c>
+      <c r="J137">
+        <v>8250143.298626794</v>
+      </c>
+      <c r="K137">
+        <v>2248718.298626788</v>
+      </c>
+      <c r="L137">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
         <v>1073</v>
       </c>
-      <c r="C138">
-        <v>-8404378.971454693</v>
+      <c r="C138" t="s">
+        <v>11</v>
       </c>
       <c r="D138">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E138">
-        <v>168259.8005788614</v>
+        <v>-1641</v>
       </c>
       <c r="F138">
-        <v>5911.631113881822</v>
+        <v>8205000</v>
       </c>
       <c r="G138">
-        <v>28578.30651530096</v>
+        <v>156413.1280677888</v>
       </c>
       <c r="H138">
-        <v>270658.719447759</v>
+        <v>104021.612</v>
       </c>
       <c r="I138">
-        <v>1193926.575538039</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>-1177949.999999994</v>
+      </c>
+      <c r="J138">
+        <v>9275891.516067814</v>
+      </c>
+      <c r="K138">
+        <v>2248841.516067808</v>
+      </c>
+      <c r="L138">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
         <v>1074</v>
       </c>
-      <c r="C139">
-        <v>-8398467.340340812</v>
+      <c r="C139" t="s">
+        <v>11</v>
       </c>
       <c r="D139">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E139">
-        <v>168259.8005788614</v>
+        <v>-1641</v>
       </c>
       <c r="F139">
-        <v>-2463.179630784093</v>
+        <v>8205000</v>
       </c>
       <c r="G139">
-        <v>28656.70704568176</v>
+        <v>156536.35226045</v>
       </c>
       <c r="H139">
-        <v>270658.719447759</v>
+        <v>104021.612</v>
       </c>
       <c r="I139">
-        <v>1191541.796437636</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>-644624.9999999938</v>
+      </c>
+      <c r="J139">
+        <v>9809339.740260474</v>
+      </c>
+      <c r="K139">
+        <v>2248964.740260469</v>
+      </c>
+      <c r="L139">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
         <v>1075</v>
       </c>
-      <c r="C140">
-        <v>-8400930.519971596</v>
+      <c r="C140" t="s">
+        <v>11</v>
       </c>
       <c r="D140">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E140">
-        <v>168259.8005788614</v>
+        <v>-1641</v>
       </c>
       <c r="F140">
-        <v>2463.179630784093</v>
+        <v>8205000</v>
       </c>
       <c r="G140">
-        <v>28735.24254480945</v>
+        <v>156659.5832051219</v>
       </c>
       <c r="H140">
-        <v>270658.719447759</v>
+        <v>104021.612</v>
       </c>
       <c r="I140">
-        <v>1194083.511567548</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>257925.0000000062</v>
+      </c>
+      <c r="J140">
+        <v>10712012.97120515</v>
+      </c>
+      <c r="K140">
+        <v>2249087.971205141</v>
+      </c>
+      <c r="L140">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
         <v>1076</v>
       </c>
-      <c r="C141">
-        <v>-8398467.340340812</v>
+      <c r="C141" t="s">
+        <v>11</v>
       </c>
       <c r="D141">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E141">
-        <v>168259.8005788614</v>
+        <v>-1641</v>
       </c>
       <c r="F141">
-        <v>8867.446670822734</v>
+        <v>8205000</v>
       </c>
       <c r="G141">
-        <v>28814.26393142595</v>
+        <v>156782.8209021742</v>
       </c>
       <c r="H141">
-        <v>270658.719447759</v>
+        <v>104021.612</v>
       </c>
       <c r="I141">
-        <v>1203029.979624987</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>-398474.9999999938</v>
+      </c>
+      <c r="J141">
+        <v>10055736.2089022</v>
+      </c>
+      <c r="K141">
+        <v>2249211.208902193</v>
+      </c>
+      <c r="L141">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
         <v>1077</v>
       </c>
-      <c r="C142">
-        <v>-8389599.893669989</v>
+      <c r="C142" t="s">
+        <v>11</v>
       </c>
       <c r="D142">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E142">
-        <v>168259.8005788614</v>
+        <v>-1641</v>
       </c>
       <c r="F142">
-        <v>-6896.902966195459</v>
+        <v>8205000</v>
       </c>
       <c r="G142">
-        <v>28892.90740555115</v>
+        <v>156906.065351977</v>
       </c>
       <c r="H142">
-        <v>270658.719447759</v>
+        <v>104021.612</v>
       </c>
       <c r="I142">
-        <v>1196211.720132916</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>52800.00000000621</v>
+      </c>
+      <c r="J142">
+        <v>10507134.453352</v>
+      </c>
+      <c r="K142">
+        <v>2249334.453351997</v>
+      </c>
+      <c r="L142">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
         <v>1078</v>
       </c>
-      <c r="C143">
-        <v>-8396496.796636185</v>
+      <c r="C143" t="s">
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>492.6359261568185</v>
+        <v>401450.0000000196</v>
       </c>
       <c r="E143">
-        <v>168259.8005788614</v>
+        <v>-1641</v>
       </c>
       <c r="F143">
-        <v>5911.631113881822</v>
+        <v>8205000</v>
       </c>
       <c r="G143">
-        <v>28971.8748046689</v>
+        <v>157029.3165549004</v>
       </c>
       <c r="H143">
-        <v>270658.719447759</v>
+        <v>104021.612</v>
       </c>
       <c r="I143">
-        <v>1202202.318645915</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>257925.0000000062</v>
+      </c>
+      <c r="J143">
+        <v>10712382.70455492</v>
+      </c>
+      <c r="K143">
+        <v>2249457.704554919</v>
+      </c>
+      <c r="L143">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
         <v>1079</v>
       </c>
-      <c r="C144">
-        <v>-8390585.165522303</v>
+      <c r="C144" t="s">
+        <v>11</v>
       </c>
       <c r="D144">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E144">
-        <v>168259.8005788614</v>
+        <v>-40</v>
       </c>
       <c r="F144">
-        <v>14286.44185854774</v>
+        <v>200000</v>
       </c>
       <c r="G144">
-        <v>29051.62502251862</v>
+        <v>157508.121565007</v>
       </c>
       <c r="H144">
-        <v>270658.719447759</v>
+        <v>110825.862</v>
       </c>
       <c r="I144">
-        <v>1216568.510722313</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>-37712.97989031063</v>
+      </c>
+      <c r="J144">
+        <v>8900957.259565033</v>
+      </c>
+      <c r="K144">
+        <v>8738670.239455344</v>
+      </c>
+      <c r="L144">
+        <v>2087.287020109689</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
         <v>1080</v>
       </c>
-      <c r="C145">
-        <v>-8376298.723663756</v>
+      <c r="C145" t="s">
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E145">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F145">
-        <v>-6896.902966195459</v>
+        <v>8580000</v>
       </c>
       <c r="G145">
-        <v>29130.99732787704</v>
+        <v>157527.3888355525</v>
       </c>
       <c r="H145">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I145">
-        <v>1209750.980061476</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>-1214912.979890307</v>
+      </c>
+      <c r="J145">
+        <v>7716733.974835582</v>
+      </c>
+      <c r="K145">
+        <v>351646.9547258895</v>
+      </c>
+      <c r="L145">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
         <v>1081</v>
       </c>
-      <c r="C146">
-        <v>-8383195.626629951</v>
+      <c r="C146" t="s">
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E146">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F146">
-        <v>5911.631113881822</v>
+        <v>8580000</v>
       </c>
       <c r="G146">
-        <v>29210.693558228</v>
+        <v>157546.6571618389</v>
       </c>
       <c r="H146">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I146">
-        <v>1215742.307405709</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>-2158712.979890307</v>
+      </c>
+      <c r="J146">
+        <v>6772953.243161868</v>
+      </c>
+      <c r="K146">
+        <v>351666.2230521757</v>
+      </c>
+      <c r="L146">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
         <v>1082</v>
       </c>
-      <c r="C147">
-        <v>-8377283.995516069</v>
+      <c r="C147" t="s">
+        <v>11</v>
       </c>
       <c r="D147">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E147">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F147">
-        <v>4926.359261568186</v>
+        <v>8580000</v>
       </c>
       <c r="G147">
-        <v>29290.65972607275</v>
+        <v>157565.9265439239</v>
       </c>
       <c r="H147">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I147">
-        <v>1220748.632835122</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>-2244512.979890307</v>
+      </c>
+      <c r="J147">
+        <v>6687172.512543952</v>
+      </c>
+      <c r="K147">
+        <v>351685.4924342595</v>
+      </c>
+      <c r="L147">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
         <v>1083</v>
       </c>
-      <c r="C148">
-        <v>-8372357.636254501</v>
+      <c r="C148" t="s">
+        <v>11</v>
       </c>
       <c r="D148">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E148">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F148">
-        <v>16749.62148933183</v>
+        <v>8580000</v>
       </c>
       <c r="G148">
-        <v>29371.54368139636</v>
+        <v>157585.1969818655</v>
       </c>
       <c r="H148">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I148">
-        <v>1237579.138279778</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>-5419112.979890307</v>
+      </c>
+      <c r="J148">
+        <v>3512591.782981895</v>
+      </c>
+      <c r="K148">
+        <v>351704.7628722023</v>
+      </c>
+      <c r="L148">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
         <v>1084</v>
       </c>
-      <c r="C149">
-        <v>-8355608.014765169</v>
+      <c r="C149" t="s">
+        <v>11</v>
       </c>
       <c r="D149">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E149">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F149">
-        <v>-6896.902966195459</v>
+        <v>8580000</v>
       </c>
       <c r="G149">
-        <v>29452.04972422868</v>
+        <v>157604.4684757215</v>
       </c>
       <c r="H149">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I149">
-        <v>1230762.741356415</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>-7649912.979890307</v>
+      </c>
+      <c r="J149">
+        <v>1281811.054475751</v>
+      </c>
+      <c r="K149">
+        <v>351724.0343660582</v>
+      </c>
+      <c r="L149">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
         <v>1085</v>
       </c>
-      <c r="C150">
-        <v>-8362504.917731364</v>
+      <c r="C150" t="s">
+        <v>11</v>
       </c>
       <c r="D150">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E150">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F150">
-        <v>-5911.631113881822</v>
+        <v>8580000</v>
       </c>
       <c r="G150">
-        <v>29532.23184206846</v>
+        <v>157623.7410255498</v>
       </c>
       <c r="H150">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I150">
-        <v>1224931.292360372</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>-5976812.979890307</v>
+      </c>
+      <c r="J150">
+        <v>2954930.327025579</v>
+      </c>
+      <c r="K150">
+        <v>351743.3069158867</v>
+      </c>
+      <c r="L150">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
         <v>1086</v>
       </c>
-      <c r="C151">
-        <v>-8368416.548845246</v>
+      <c r="C151" t="s">
+        <v>11</v>
       </c>
       <c r="D151">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E151">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F151">
-        <v>16749.62148933183</v>
+        <v>8580000</v>
       </c>
       <c r="G151">
-        <v>29613.3317473871</v>
+        <v>157643.0146314082</v>
       </c>
       <c r="H151">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I151">
-        <v>1241762.013755023</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>-6620312.979890307</v>
+      </c>
+      <c r="J151">
+        <v>2311449.600631436</v>
+      </c>
+      <c r="K151">
+        <v>351762.5805217437</v>
+      </c>
+      <c r="L151">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
         <v>1087</v>
       </c>
-      <c r="C152">
-        <v>-8351666.927355914</v>
+      <c r="C152" t="s">
+        <v>11</v>
       </c>
       <c r="D152">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E152">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F152">
-        <v>11330.62630160683</v>
+        <v>8580000</v>
       </c>
       <c r="G152">
-        <v>29695.05250894145</v>
+        <v>157662.2892933546</v>
       </c>
       <c r="H152">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I152">
-        <v>1253174.360818184</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>-7478312.979890307</v>
+      </c>
+      <c r="J152">
+        <v>1453468.875293383</v>
+      </c>
+      <c r="K152">
+        <v>351781.8551836908</v>
+      </c>
+      <c r="L152">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
         <v>1088</v>
       </c>
-      <c r="C153">
-        <v>-8340336.301054307</v>
+      <c r="C153" t="s">
+        <v>11</v>
       </c>
       <c r="D153">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E153">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F153">
-        <v>-12808.53408007728</v>
+        <v>8580000</v>
       </c>
       <c r="G153">
-        <v>29776.07143301196</v>
+        <v>157681.5650114469</v>
       </c>
       <c r="H153">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I153">
-        <v>1240446.845662178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>-8121812.979890307</v>
+      </c>
+      <c r="J153">
+        <v>809988.1510114763</v>
+      </c>
+      <c r="K153">
+        <v>351801.1309017837</v>
+      </c>
+      <c r="L153">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
         <v>1089</v>
       </c>
-      <c r="C154">
-        <v>-8353144.835134384</v>
+      <c r="C154" t="s">
+        <v>11</v>
       </c>
       <c r="D154">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E154">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F154">
-        <v>7882.174818509096</v>
+        <v>8580000</v>
       </c>
       <c r="G154">
-        <v>29857.52225707252</v>
+        <v>157700.8417857428</v>
       </c>
       <c r="H154">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I154">
-        <v>1248410.471304748</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>-6277112.979890307</v>
+      </c>
+      <c r="J154">
+        <v>2654707.427785771</v>
+      </c>
+      <c r="K154">
+        <v>351820.4076760784</v>
+      </c>
+      <c r="L154">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
         <v>1090</v>
       </c>
-      <c r="C155">
-        <v>-8345262.660315875</v>
+      <c r="C155" t="s">
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E155">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F155">
-        <v>-8374.810744665914</v>
+        <v>8580000</v>
       </c>
       <c r="G155">
-        <v>29938.51418739364</v>
+        <v>157720.1196163004</v>
       </c>
       <c r="H155">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I155">
-        <v>1240116.652490403</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>-6105512.979890307</v>
+      </c>
+      <c r="J155">
+        <v>2826326.705616329</v>
+      </c>
+      <c r="K155">
+        <v>351839.6855066363</v>
+      </c>
+      <c r="L155">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
         <v>1091</v>
       </c>
-      <c r="C156">
-        <v>-8353637.471060541</v>
+      <c r="C156" t="s">
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E156">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F156">
-        <v>4926.359261568186</v>
+        <v>8580000</v>
       </c>
       <c r="G156">
-        <v>30019.77605520856</v>
+        <v>157739.3985031775</v>
       </c>
       <c r="H156">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I156">
-        <v>1245124.273619787</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>-5676512.979890307</v>
+      </c>
+      <c r="J156">
+        <v>3255345.984503206</v>
+      </c>
+      <c r="K156">
+        <v>351858.9643935133</v>
+      </c>
+      <c r="L156">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
         <v>1092</v>
       </c>
-      <c r="C157">
-        <v>-8348711.111798972</v>
+      <c r="C157" t="s">
+        <v>11</v>
       </c>
       <c r="D157">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E157">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F157">
-        <v>5911.631113881822</v>
+        <v>8580000</v>
       </c>
       <c r="G157">
-        <v>30101.36184801601</v>
+        <v>157758.678446432</v>
       </c>
       <c r="H157">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I157">
-        <v>1251117.490526476</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>-4861412.979890307</v>
+      </c>
+      <c r="J157">
+        <v>4070465.264446462</v>
+      </c>
+      <c r="K157">
+        <v>351878.244336769</v>
+      </c>
+      <c r="L157">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
         <v>1093</v>
       </c>
-      <c r="C158">
-        <v>-8342799.48068509</v>
+      <c r="C158" t="s">
+        <v>11</v>
       </c>
       <c r="D158">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E158">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F158">
-        <v>2463.179630784093</v>
+        <v>8580000</v>
       </c>
       <c r="G158">
-        <v>30183.08260957036</v>
+        <v>157777.9594461216</v>
       </c>
       <c r="H158">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I158">
-        <v>1253662.390918815</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>-4861412.979890307</v>
+      </c>
+      <c r="J158">
+        <v>4070484.54544615</v>
+      </c>
+      <c r="K158">
+        <v>351897.5253364574</v>
+      </c>
+      <c r="L158">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
         <v>1094</v>
       </c>
-      <c r="C159">
-        <v>-8340336.301054305</v>
+      <c r="C159" t="s">
+        <v>11</v>
       </c>
       <c r="D159">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E159">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F159">
-        <v>9360.082596979551</v>
+        <v>8580000</v>
       </c>
       <c r="G159">
-        <v>30265.3162523629</v>
+        <v>157797.2415023045</v>
       </c>
       <c r="H159">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I159">
-        <v>1263104.707158587</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>-5419112.979890307</v>
+      </c>
+      <c r="J159">
+        <v>3512803.827502333</v>
+      </c>
+      <c r="K159">
+        <v>351916.80739264</v>
+      </c>
+      <c r="L159">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
         <v>1095</v>
       </c>
-      <c r="C160">
-        <v>-8330976.218457326</v>
+      <c r="C160" t="s">
+        <v>11</v>
       </c>
       <c r="D160">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E160">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F160">
-        <v>492.6359261568185</v>
+        <v>8580000</v>
       </c>
       <c r="G160">
-        <v>30347.57688890481</v>
+        <v>157816.5246150383</v>
       </c>
       <c r="H160">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I160">
-        <v>1263679.603721286</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>-5676512.979890307</v>
+      </c>
+      <c r="J160">
+        <v>3255423.110615067</v>
+      </c>
+      <c r="K160">
+        <v>351936.0905053746</v>
+      </c>
+      <c r="L160">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
         <v>1096</v>
       </c>
-      <c r="C161">
-        <v>-8330483.582531169</v>
+      <c r="C161" t="s">
+        <v>11</v>
       </c>
       <c r="D161">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E161">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F161">
-        <v>-16256.98556317501</v>
+        <v>8580000</v>
       </c>
       <c r="G161">
-        <v>30428.94673171724</v>
+        <v>157835.8087843811</v>
       </c>
       <c r="H161">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I161">
-        <v>1247503.988000924</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>-4260812.979890307</v>
+      </c>
+      <c r="J161">
+        <v>4671142.39478441</v>
+      </c>
+      <c r="K161">
+        <v>351955.374674717</v>
+      </c>
+      <c r="L161">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
         <v>1097</v>
       </c>
-      <c r="C162">
-        <v>-8346740.568094344</v>
+      <c r="C162" t="s">
+        <v>11</v>
       </c>
       <c r="D162">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E162">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F162">
-        <v>3941.087409254548</v>
+        <v>8580000</v>
       </c>
       <c r="G162">
-        <v>30510.53252452469</v>
+        <v>157855.0940103907</v>
       </c>
       <c r="H162">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I162">
-        <v>1251526.661202985</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>-3831812.979890307</v>
+      </c>
+      <c r="J162">
+        <v>5100161.680010419</v>
+      </c>
+      <c r="K162">
+        <v>351974.6599007268</v>
+      </c>
+      <c r="L162">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
         <v>1098</v>
       </c>
-      <c r="C163">
-        <v>-8342799.48068509</v>
+      <c r="C163" t="s">
+        <v>11</v>
       </c>
       <c r="D163">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E163">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F163">
-        <v>-10837.99037545001</v>
+        <v>8580000</v>
       </c>
       <c r="G163">
-        <v>30591.52445484582</v>
+        <v>157874.3802931249</v>
       </c>
       <c r="H163">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I163">
-        <v>1240769.662757856</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>-3188312.979890307</v>
+      </c>
+      <c r="J163">
+        <v>5743680.966293154</v>
+      </c>
+      <c r="K163">
+        <v>351993.9461834617</v>
+      </c>
+      <c r="L163">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
         <v>1099</v>
       </c>
-      <c r="C164">
-        <v>-8353637.47106054</v>
+      <c r="C164" t="s">
+        <v>11</v>
       </c>
       <c r="D164">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E164">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F164">
-        <v>-12315.89815392046</v>
+        <v>8580000</v>
       </c>
       <c r="G164">
-        <v>30671.84154143249</v>
+        <v>157893.6676326419</v>
       </c>
       <c r="H164">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I164">
-        <v>1228534.081690522</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>-3231212.979890307</v>
+      </c>
+      <c r="J164">
+        <v>5700800.25363267</v>
+      </c>
+      <c r="K164">
+        <v>352013.2335229777</v>
+      </c>
+      <c r="L164">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
         <v>1100</v>
       </c>
-      <c r="C165">
-        <v>-8365953.36921446</v>
+      <c r="C165" t="s">
+        <v>11</v>
       </c>
       <c r="D165">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E165">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F165">
-        <v>19212.80112011592</v>
+        <v>8580000</v>
       </c>
       <c r="G165">
-        <v>30753.21138424491</v>
+        <v>157912.9560289993</v>
       </c>
       <c r="H165">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I165">
-        <v>1247828.252653451</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>-4432412.979890307</v>
+      </c>
+      <c r="J165">
+        <v>4499619.542029029</v>
+      </c>
+      <c r="K165">
+        <v>352032.5219193362</v>
+      </c>
+      <c r="L165">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
         <v>1101</v>
       </c>
-      <c r="C166">
-        <v>-8346740.568094344</v>
+      <c r="C166" t="s">
+        <v>11</v>
       </c>
       <c r="D166">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E166">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F166">
-        <v>-7882.174818509096</v>
+        <v>8580000</v>
       </c>
       <c r="G166">
-        <v>30834.14932706729</v>
+        <v>157932.2454822551</v>
       </c>
       <c r="H166">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I166">
-        <v>1240027.015777764</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>-4904312.979890307</v>
+      </c>
+      <c r="J166">
+        <v>4027738.831482284</v>
+      </c>
+      <c r="K166">
+        <v>352051.8113725912</v>
+      </c>
+      <c r="L166">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
         <v>1102</v>
       </c>
-      <c r="C167">
-        <v>-8354622.742912853</v>
+      <c r="C167" t="s">
+        <v>11</v>
       </c>
       <c r="D167">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E167">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F167">
-        <v>985.2718523136371</v>
+        <v>8580000</v>
       </c>
       <c r="G167">
-        <v>30915.14125738842</v>
+        <v>157951.5359924673</v>
       </c>
       <c r="H167">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I167">
-        <v>1241093.279560399</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>-4689812.979890307</v>
+      </c>
+      <c r="J167">
+        <v>4242258.121992497</v>
+      </c>
+      <c r="K167">
+        <v>352071.1018828042</v>
+      </c>
+      <c r="L167">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
         <v>1103</v>
       </c>
-      <c r="C168">
-        <v>-8353637.47106054</v>
+      <c r="C168" t="s">
+        <v>11</v>
       </c>
       <c r="D168">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E168">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F168">
-        <v>-2463.179630784093</v>
+        <v>8580000</v>
       </c>
       <c r="G168">
-        <v>30995.99821896265</v>
+        <v>157970.8275596938</v>
       </c>
       <c r="H168">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I168">
-        <v>1238710.956891189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>-4561112.979890307</v>
+      </c>
+      <c r="J168">
+        <v>4370977.413559724</v>
+      </c>
+      <c r="K168">
+        <v>352090.3934500311</v>
+      </c>
+      <c r="L168">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
         <v>1104</v>
       </c>
-      <c r="C169">
-        <v>-8356100.650691324</v>
+      <c r="C169" t="s">
+        <v>11</v>
       </c>
       <c r="D169">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E169">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F169">
-        <v>-8867.446670822734</v>
+        <v>8580000</v>
       </c>
       <c r="G169">
-        <v>31076.36929304808</v>
+        <v>157990.1201839924</v>
       </c>
       <c r="H169">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I169">
-        <v>1229923.881294451</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>-3274112.979890307</v>
+      </c>
+      <c r="J169">
+        <v>5657996.706184022</v>
+      </c>
+      <c r="K169">
+        <v>352109.6860743295</v>
+      </c>
+      <c r="L169">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
         <v>1105</v>
       </c>
-      <c r="C170">
-        <v>-8364968.097362147</v>
+      <c r="C170" t="s">
+        <v>11</v>
       </c>
       <c r="D170">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E170">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F170">
-        <v>4926.359261568186</v>
+        <v>8580000</v>
       </c>
       <c r="G170">
-        <v>31157.01030462729</v>
+        <v>158009.4138654211</v>
       </c>
       <c r="H170">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I170">
-        <v>1234930.881567599</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>-4175012.979890307</v>
+      </c>
+      <c r="J170">
+        <v>4757115.99986545</v>
+      </c>
+      <c r="K170">
+        <v>352128.9797557574</v>
+      </c>
+      <c r="L170">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
         <v>1106</v>
       </c>
-      <c r="C171">
-        <v>-8360041.738100578</v>
+      <c r="C171" t="s">
+        <v>11</v>
       </c>
       <c r="D171">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E171">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F171">
-        <v>7882.174818509096</v>
+        <v>8580000</v>
       </c>
       <c r="G171">
-        <v>31238.08321619655</v>
+        <v>158028.7086040379</v>
       </c>
       <c r="H171">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I171">
-        <v>1242894.129297678</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>-4604012.979890307</v>
+      </c>
+      <c r="J171">
+        <v>4328135.294604067</v>
+      </c>
+      <c r="K171">
+        <v>352148.2744943742</v>
+      </c>
+      <c r="L171">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
         <v>1107</v>
       </c>
-      <c r="C172">
-        <v>-8352159.563282069</v>
+      <c r="C172" t="s">
+        <v>11</v>
       </c>
       <c r="D172">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E172">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F172">
-        <v>-985.2718523136371</v>
+        <v>8580000</v>
       </c>
       <c r="G172">
-        <v>31319.10214026706</v>
+        <v>158048.0043999006</v>
       </c>
       <c r="H172">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I172">
-        <v>1241989.876369435</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>-4904312.979890307</v>
+      </c>
+      <c r="J172">
+        <v>4027854.59039993</v>
+      </c>
+      <c r="K172">
+        <v>352167.5702902377</v>
+      </c>
+      <c r="L172">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
         <v>1108</v>
       </c>
-      <c r="C173">
-        <v>-8353144.835134382</v>
+      <c r="C173" t="s">
+        <v>11</v>
       </c>
       <c r="D173">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E173">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F173">
-        <v>-4926.359261568186</v>
+        <v>8580000</v>
       </c>
       <c r="G173">
-        <v>31399.85112684378</v>
+        <v>158067.3012530672</v>
       </c>
       <c r="H173">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I173">
-        <v>1237144.266094443</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>-3445712.979890307</v>
+      </c>
+      <c r="J173">
+        <v>5486473.887253096</v>
+      </c>
+      <c r="K173">
+        <v>352186.8671434037</v>
+      </c>
+      <c r="L173">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
         <v>1109</v>
       </c>
-      <c r="C174">
-        <v>-8358071.194395951</v>
+      <c r="C174" t="s">
+        <v>11</v>
       </c>
       <c r="D174">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E174">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F174">
-        <v>-11823.26222776364</v>
+        <v>8580000</v>
       </c>
       <c r="G174">
-        <v>31479.95226343542</v>
+        <v>158086.5991635956</v>
       </c>
       <c r="H174">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I174">
-        <v>1225401.105003271</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>-3274112.979890307</v>
+      </c>
+      <c r="J174">
+        <v>5658093.185163625</v>
+      </c>
+      <c r="K174">
+        <v>352206.165053932</v>
+      </c>
+      <c r="L174">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
         <v>1110</v>
       </c>
-      <c r="C175">
-        <v>-8369894.456623714</v>
+      <c r="C175" t="s">
+        <v>11</v>
       </c>
       <c r="D175">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E175">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F175">
-        <v>-985.2718523136371</v>
+        <v>8580000</v>
       </c>
       <c r="G175">
-        <v>31559.9994125283</v>
+        <v>158105.8981315438</v>
       </c>
       <c r="H175">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I175">
-        <v>1224495.88030005</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>629787.0201096929</v>
+      </c>
+      <c r="J175">
+        <v>9562012.484131573</v>
+      </c>
+      <c r="K175">
+        <v>352225.4640218802</v>
+      </c>
+      <c r="L175">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
         <v>1111</v>
       </c>
-      <c r="C176">
-        <v>-8370879.728476028</v>
+      <c r="C176" t="s">
+        <v>11</v>
       </c>
       <c r="D176">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E176">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F176">
-        <v>11823.26222776364</v>
+        <v>8580000</v>
       </c>
       <c r="G176">
-        <v>31640.69441160627</v>
+        <v>158125.1981569696</v>
       </c>
       <c r="H176">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I176">
-        <v>1236399.837526892</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>-914612.9798903071</v>
+      </c>
+      <c r="J176">
+        <v>8017631.784156999</v>
+      </c>
+      <c r="K176">
+        <v>352244.764047306</v>
+      </c>
+      <c r="L176">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
         <v>1112</v>
       </c>
-      <c r="C177">
-        <v>-8359056.466248265</v>
+      <c r="C177" t="s">
+        <v>11</v>
       </c>
       <c r="D177">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E177">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F177">
-        <v>-5418.995187725004</v>
+        <v>8580000</v>
       </c>
       <c r="G177">
-        <v>31721.09247944107</v>
+        <v>158144.4992399311</v>
       </c>
       <c r="H177">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I177">
-        <v>1231061.240407002</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>-1643912.979890307</v>
+      </c>
+      <c r="J177">
+        <v>7288351.08523996</v>
+      </c>
+      <c r="K177">
+        <v>352264.0651302673</v>
+      </c>
+      <c r="L177">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
         <v>1113</v>
       </c>
-      <c r="C178">
-        <v>-8364475.461435989</v>
+      <c r="C178" t="s">
+        <v>11</v>
       </c>
       <c r="D178">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E178">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F178">
-        <v>10837.99037545001</v>
+        <v>8580000</v>
       </c>
       <c r="G178">
-        <v>31802.0844097622</v>
+        <v>158163.8013804862</v>
       </c>
       <c r="H178">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I178">
-        <v>1241980.222712773</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>-1386512.979890307</v>
+      </c>
+      <c r="J178">
+        <v>7545770.387380514</v>
+      </c>
+      <c r="K178">
+        <v>352283.3672708217</v>
+      </c>
+      <c r="L178">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
         <v>1114</v>
       </c>
-      <c r="C179">
-        <v>-8353637.47106054</v>
+      <c r="C179" t="s">
+        <v>11</v>
       </c>
       <c r="D179">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E179">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F179">
-        <v>-6896.902966195459</v>
+        <v>8580000</v>
       </c>
       <c r="G179">
-        <v>31882.69842759203</v>
+        <v>158183.1045786928</v>
       </c>
       <c r="H179">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I179">
-        <v>1235163.933764407</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>-2544812.979890307</v>
+      </c>
+      <c r="J179">
+        <v>6387489.690578721</v>
+      </c>
+      <c r="K179">
+        <v>352302.6704690289</v>
+      </c>
+      <c r="L179">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
         <v>1115</v>
       </c>
-      <c r="C180">
-        <v>-8360534.374026735</v>
+      <c r="C180" t="s">
+        <v>11</v>
       </c>
       <c r="D180">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E180">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F180">
-        <v>-5418.995187725004</v>
+        <v>8580000</v>
       </c>
       <c r="G180">
-        <v>31963.0155141787</v>
+        <v>158202.4088346089</v>
       </c>
       <c r="H180">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I180">
-        <v>1229825.255663269</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>-1558112.979890307</v>
+      </c>
+      <c r="J180">
+        <v>7374208.994834637</v>
+      </c>
+      <c r="K180">
+        <v>352321.9747249447</v>
+      </c>
+      <c r="L180">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
         <v>1116</v>
       </c>
-      <c r="C181">
-        <v>-8365953.36921446</v>
+      <c r="C181" t="s">
+        <v>11</v>
       </c>
       <c r="D181">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E181">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F181">
-        <v>5418.995187725004</v>
+        <v>8580000</v>
       </c>
       <c r="G181">
-        <v>32043.62953200853</v>
+        <v>158221.7141482925</v>
       </c>
       <c r="H181">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I181">
-        <v>1235324.864868823</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>-1172012.979890307</v>
+      </c>
+      <c r="J181">
+        <v>7760328.300148321</v>
+      </c>
+      <c r="K181">
+        <v>352341.2800386287</v>
+      </c>
+      <c r="L181">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
         <v>1117</v>
       </c>
-      <c r="C182">
-        <v>-8360534.374026735</v>
+      <c r="C182" t="s">
+        <v>11</v>
       </c>
       <c r="D182">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E182">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F182">
-        <v>4926.359261568186</v>
+        <v>8580000</v>
       </c>
       <c r="G182">
-        <v>32124.51348733214</v>
+        <v>158241.0205198014</v>
       </c>
       <c r="H182">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I182">
-        <v>1240332.108085715</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>-914612.9798903071</v>
+      </c>
+      <c r="J182">
+        <v>8017747.606519831</v>
+      </c>
+      <c r="K182">
+        <v>352360.5864101388</v>
+      </c>
+      <c r="L182">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
         <v>1118</v>
       </c>
-      <c r="C183">
-        <v>-8355608.014765167</v>
+      <c r="C183" t="s">
+        <v>11</v>
       </c>
       <c r="D183">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E183">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F183">
-        <v>13301.1700062341</v>
+        <v>8580000</v>
       </c>
       <c r="G183">
-        <v>32206.12627388897</v>
+        <v>158260.3279491937</v>
       </c>
       <c r="H183">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I183">
-        <v>1253714.890878506</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>-2201612.979890307</v>
+      </c>
+      <c r="J183">
+        <v>6730766.913949223</v>
+      </c>
+      <c r="K183">
+        <v>352379.8938395306</v>
+      </c>
+      <c r="L183">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
         <v>1119</v>
       </c>
-      <c r="C184">
-        <v>-8342306.844758932</v>
+      <c r="C184" t="s">
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E184">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F184">
-        <v>-2955.815556940911</v>
+        <v>8580000</v>
       </c>
       <c r="G184">
-        <v>32287.57709794954</v>
+        <v>158279.6364365274</v>
       </c>
       <c r="H184">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I184">
-        <v>1250840.526145627</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>-2115812.979890307</v>
+      </c>
+      <c r="J184">
+        <v>6816586.222436557</v>
+      </c>
+      <c r="K184">
+        <v>352399.202326864</v>
+      </c>
+      <c r="L184">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
         <v>1120</v>
       </c>
-      <c r="C185">
-        <v>-8345262.660315873</v>
+      <c r="C185" t="s">
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E185">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F185">
-        <v>-492.6359261568185</v>
+        <v>8580000</v>
       </c>
       <c r="G185">
-        <v>32369.00092826072</v>
+        <v>158298.9459818604</v>
       </c>
       <c r="H185">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I185">
-        <v>1250429.31404978</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>-1172012.979890307</v>
+      </c>
+      <c r="J185">
+        <v>7760405.531981889</v>
+      </c>
+      <c r="K185">
+        <v>352418.5118721966</v>
+      </c>
+      <c r="L185">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
         <v>1121</v>
       </c>
-      <c r="C186">
-        <v>-8345755.29624203</v>
+      <c r="C186" t="s">
+        <v>11</v>
       </c>
       <c r="D186">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E186">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F186">
-        <v>-2463.179630784093</v>
+        <v>8580000</v>
       </c>
       <c r="G186">
-        <v>32450.28978982501</v>
+        <v>158318.2565852506</v>
       </c>
       <c r="H186">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I186">
-        <v>1248047.42328056</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>-442712.9798903071</v>
+      </c>
+      <c r="J186">
+        <v>8489724.842585281</v>
+      </c>
+      <c r="K186">
+        <v>352437.8224755879</v>
+      </c>
+      <c r="L186">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
         <v>1122</v>
       </c>
-      <c r="C187">
-        <v>-8348218.475872815</v>
+      <c r="C187" t="s">
+        <v>11</v>
       </c>
       <c r="D187">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E187">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F187">
-        <v>-7882.174818509096</v>
+        <v>8580000</v>
       </c>
       <c r="G187">
-        <v>32531.14675139925</v>
+        <v>158337.5682467562</v>
       </c>
       <c r="H187">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I187">
-        <v>1240246.105423625</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>715587.0201096929</v>
+      </c>
+      <c r="J187">
+        <v>9648044.154246785</v>
+      </c>
+      <c r="K187">
+        <v>352457.1341370922</v>
+      </c>
+      <c r="L187">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
         <v>1123</v>
       </c>
-      <c r="C188">
-        <v>-8356100.650691324</v>
+      <c r="C188" t="s">
+        <v>11</v>
       </c>
       <c r="D188">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E188">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F188">
-        <v>-5418.995187725004</v>
+        <v>8580000</v>
       </c>
       <c r="G188">
-        <v>32611.70678173033</v>
+        <v>158356.8809664349</v>
       </c>
       <c r="H188">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I188">
-        <v>1234907.670266232</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>1230387.020109693</v>
+      </c>
+      <c r="J188">
+        <v>10162863.46696646</v>
+      </c>
+      <c r="K188">
+        <v>352476.4468567707</v>
+      </c>
+      <c r="L188">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
         <v>1124</v>
       </c>
-      <c r="C189">
-        <v>-8361519.645879049</v>
+      <c r="C189" t="s">
+        <v>11</v>
       </c>
       <c r="D189">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E189">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F189">
-        <v>-13793.80593239092</v>
+        <v>8580000</v>
       </c>
       <c r="G189">
-        <v>32691.5109870788</v>
+        <v>158376.1947443449</v>
       </c>
       <c r="H189">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I189">
-        <v>1221193.66853919</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>1187487.020109693</v>
+      </c>
+      <c r="J189">
+        <v>10119982.78074437</v>
+      </c>
+      <c r="K189">
+        <v>352495.7606346812</v>
+      </c>
+      <c r="L189">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
         <v>1125</v>
       </c>
-      <c r="C190">
-        <v>-8375313.451811439</v>
+      <c r="C190" t="s">
+        <v>11</v>
       </c>
       <c r="D190">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E190">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F190">
-        <v>2955.815556940911</v>
+        <v>8580000</v>
       </c>
       <c r="G190">
-        <v>32771.47715492354</v>
+        <v>158395.509580544</v>
       </c>
       <c r="H190">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I190">
-        <v>1224229.450263975</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>2045487.020109693</v>
+      </c>
+      <c r="J190">
+        <v>10978002.09558057</v>
+      </c>
+      <c r="K190">
+        <v>352515.0754708797</v>
+      </c>
+      <c r="L190">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
         <v>1126</v>
       </c>
-      <c r="C191">
-        <v>-8372357.636254499</v>
+      <c r="C191" t="s">
+        <v>11</v>
       </c>
       <c r="D191">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E191">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>8580000</v>
       </c>
       <c r="G191">
-        <v>32851.44332276829</v>
+        <v>158414.8254750904</v>
       </c>
       <c r="H191">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I191">
-        <v>1224309.41643182</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>1745187.020109693</v>
+      </c>
+      <c r="J191">
+        <v>10677721.41147512</v>
+      </c>
+      <c r="K191">
+        <v>352534.3913654275</v>
+      </c>
+      <c r="L191">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
         <v>1127</v>
       </c>
-      <c r="C192">
-        <v>-8372357.636254499</v>
+      <c r="C192" t="s">
+        <v>11</v>
       </c>
       <c r="D192">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E192">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F192">
-        <v>-29558.15556940911</v>
+        <v>8580000</v>
       </c>
       <c r="G192">
-        <v>32929.78986565033</v>
+        <v>158434.1424280419</v>
       </c>
       <c r="H192">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I192">
-        <v>1194829.607405292</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>2517387.020109693</v>
+      </c>
+      <c r="J192">
+        <v>11449940.72842807</v>
+      </c>
+      <c r="K192">
+        <v>352553.7083183788</v>
+      </c>
+      <c r="L192">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
         <v>1128</v>
       </c>
-      <c r="C193">
-        <v>-8401915.791823909</v>
+      <c r="C193" t="s">
+        <v>11</v>
       </c>
       <c r="D193">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E193">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F193">
-        <v>492.6359261568185</v>
+        <v>8580000</v>
       </c>
       <c r="G193">
-        <v>33008.16340228175</v>
+        <v>158453.4604394566</v>
       </c>
       <c r="H193">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I193">
-        <v>1195400.61686808</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>4319187.020109693</v>
+      </c>
+      <c r="J193">
+        <v>13251760.04643949</v>
+      </c>
+      <c r="K193">
+        <v>352573.026329793</v>
+      </c>
+      <c r="L193">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
         <v>1129</v>
       </c>
-      <c r="C194">
-        <v>-8401423.155897751</v>
+      <c r="C194" t="s">
+        <v>11</v>
       </c>
       <c r="D194">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E194">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F194">
-        <v>-13793.80593239092</v>
+        <v>8580000</v>
       </c>
       <c r="G194">
-        <v>33085.78111393058</v>
+        <v>158472.7795093925</v>
       </c>
       <c r="H194">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I194">
-        <v>1181684.428647338</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>3847287.020109693</v>
+      </c>
+      <c r="J194">
+        <v>12779879.36550942</v>
+      </c>
+      <c r="K194">
+        <v>352592.345399728</v>
+      </c>
+      <c r="L194">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
         <v>1130</v>
       </c>
-      <c r="C195">
-        <v>-8415216.961830143</v>
+      <c r="C195" t="s">
+        <v>11</v>
       </c>
       <c r="D195">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E195">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F195">
-        <v>13301.1700062341</v>
+        <v>8580000</v>
       </c>
       <c r="G195">
-        <v>33164.12765681262</v>
+        <v>158492.0996379075</v>
       </c>
       <c r="H195">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I195">
-        <v>1195063.945196454</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>5262987.020109693</v>
+      </c>
+      <c r="J195">
+        <v>14195598.68563794</v>
+      </c>
+      <c r="K195">
+        <v>352611.6655282434</v>
+      </c>
+      <c r="L195">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
         <v>1131</v>
       </c>
-      <c r="C196">
-        <v>-8401915.791823909</v>
+      <c r="C196" t="s">
+        <v>11</v>
       </c>
       <c r="D196">
-        <v>492.6359261568185</v>
+        <v>-1108012.020109663</v>
       </c>
       <c r="E196">
-        <v>168259.8005788614</v>
+        <v>-1716</v>
       </c>
       <c r="F196">
-        <v>492.6359261568185</v>
+        <v>8580000</v>
       </c>
       <c r="G196">
-        <v>33242.50119344404</v>
+        <v>158511.4208250598</v>
       </c>
       <c r="H196">
-        <v>270658.719447759</v>
+        <v>117868.414</v>
       </c>
       <c r="I196">
-        <v>1195634.954659243</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>5177187.020109693</v>
+      </c>
+      <c r="J196">
+        <v>14109818.00682509</v>
+      </c>
+      <c r="K196">
+        <v>352630.9867153969</v>
+      </c>
+      <c r="L196">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
         <v>1132</v>
       </c>
-      <c r="C197">
-        <v>-8401423.155897751</v>
+      <c r="C197" t="s">
+        <v>11</v>
       </c>
       <c r="D197">
-        <v>492.6359261568185</v>
+        <v>3594532.991247051</v>
       </c>
       <c r="E197">
-        <v>168259.8005788614</v>
+        <v>-1</v>
       </c>
       <c r="F197">
-        <v>-11330.62630160683</v>
+        <v>5000</v>
       </c>
       <c r="G197">
-        <v>33320.25387383976</v>
+        <v>159257.9055849541</v>
       </c>
       <c r="H197">
-        <v>270658.719447759</v>
+        <v>124697.544</v>
       </c>
       <c r="I197">
-        <v>1184382.081038031</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>2742.008752977677</v>
+      </c>
+      <c r="J197">
+        <v>13631835.36158498</v>
+      </c>
+      <c r="K197">
+        <v>13624093.352832</v>
+      </c>
+      <c r="L197">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
         <v>1133</v>
       </c>
-      <c r="C198">
-        <v>-8412753.782199359</v>
+      <c r="C198" t="s">
+        <v>11</v>
       </c>
       <c r="D198">
-        <v>492.6359261568185</v>
+        <v>3594532.991247051</v>
       </c>
       <c r="E198">
-        <v>168259.8005788614</v>
+        <v>-1</v>
       </c>
       <c r="F198">
-        <v>-6404.267040038641</v>
+        <v>5000</v>
       </c>
       <c r="G198">
-        <v>33397.65563549355</v>
+        <v>160004.431248123</v>
       </c>
       <c r="H198">
-        <v>270658.719447759</v>
+        <v>124697.544</v>
       </c>
       <c r="I198">
-        <v>1178055.215759647</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>2767.008752977677</v>
+      </c>
+      <c r="J198">
+        <v>13632606.88724815</v>
+      </c>
+      <c r="K198">
+        <v>13624839.87849517</v>
+      </c>
+      <c r="L198">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
         <v>1134</v>
       </c>
-      <c r="C199">
-        <v>-8419158.049239397</v>
+      <c r="C199" t="s">
+        <v>11</v>
       </c>
       <c r="D199">
-        <v>492.6359261568185</v>
+        <v>3594532.991247051</v>
       </c>
       <c r="E199">
-        <v>168259.8005788614</v>
+        <v>-1</v>
       </c>
       <c r="F199">
-        <v>-16256.98556317501</v>
+        <v>5000</v>
       </c>
       <c r="G199">
-        <v>33474.16660341786</v>
+        <v>160750.9978168077</v>
       </c>
       <c r="H199">
-        <v>270658.719447759</v>
+        <v>124697.544</v>
       </c>
       <c r="I199">
-        <v>1161874.741164395</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>3317.008752977677</v>
+      </c>
+      <c r="J199">
+        <v>13633903.45381684</v>
+      </c>
+      <c r="K199">
+        <v>13625586.44506386</v>
+      </c>
+      <c r="L199">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
         <v>1135</v>
       </c>
-      <c r="C200">
-        <v>-8435415.034802573</v>
+      <c r="C200" t="s">
+        <v>11</v>
       </c>
       <c r="D200">
-        <v>492.6359261568185</v>
+        <v>3594532.991247051</v>
       </c>
       <c r="E200">
-        <v>168259.8005788614</v>
+        <v>-1</v>
       </c>
       <c r="F200">
-        <v>22661.25260321365</v>
+        <v>5000</v>
       </c>
       <c r="G200">
-        <v>33551.91928381357</v>
+        <v>161497.6052932495</v>
       </c>
       <c r="H200">
-        <v>270658.719447759</v>
+        <v>124697.544</v>
       </c>
       <c r="I200">
-        <v>1184613.746448005</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>3567.008752977677</v>
+      </c>
+      <c r="J200">
+        <v>13634900.06129328</v>
+      </c>
+      <c r="K200">
+        <v>13626333.0525403</v>
+      </c>
+      <c r="L200">
+        <v>2100.680350119107</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
         <v>1136</v>
       </c>
-      <c r="C201">
-        <v>-8412753.782199359</v>
+      <c r="C201" t="s">
+        <v>11</v>
       </c>
       <c r="D201">
-        <v>492.6359261568185</v>
+        <v>3594532.991247051</v>
       </c>
       <c r="E201">
-        <v>168259.8005788614</v>
+        <v>-1</v>
       </c>
       <c r="F201">
-        <v>8867.446670822734</v>
+        <v>5000</v>
       </c>
       <c r="G201">
-        <v>33630.1578516981</v>
+        <v>162244.2536796901</v>
       </c>
       <c r="H201">
-        <v>270658.719447759</v>
+        <v>124697.544</v>
       </c>
       <c r="I201">
-        <v>1193559.431686712</v>
+        <v>2867.008752977677</v>
+      </c>
+      <c r="J201">
+        <v>13634946.70967972</v>
+      </c>
+      <c r="K201">
+        <v>13627079.70092674</v>
+      </c>
+      <c r="L201">
+        <v>2100.680350119107</v>
       </c>
     </row>
   </sheetData>
